--- a/relatorios/controle_patrimonial.xlsx
+++ b/relatorios/controle_patrimonial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\controle_estoque_db\relatorios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\controle_estoque_db_Original\relatorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D65186-79D0-4AEC-BF07-A26B87BE0358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D36DA42-7A52-424F-8E57-5C201C309210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="25650" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estoque" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="63">
   <si>
     <t>SITUAÇÃO</t>
   </si>
@@ -168,12 +168,57 @@
   <si>
     <t xml:space="preserve">NOME </t>
   </si>
+  <si>
+    <t>Responsavel</t>
+  </si>
+  <si>
+    <t>Data da ultima vistoria</t>
+  </si>
+  <si>
+    <t>Data da vistoria atual</t>
+  </si>
+  <si>
+    <t>Auditor</t>
+  </si>
+  <si>
+    <t>Marcio</t>
+  </si>
+  <si>
+    <t>ADM01</t>
+  </si>
+  <si>
+    <t>ADM02</t>
+  </si>
+  <si>
+    <t>ADM03</t>
+  </si>
+  <si>
+    <t>ADM04</t>
+  </si>
+  <si>
+    <t>ADM05</t>
+  </si>
+  <si>
+    <t>ADM06</t>
+  </si>
+  <si>
+    <t>ADM07</t>
+  </si>
+  <si>
+    <t>ADM08</t>
+  </si>
+  <si>
+    <t>ADM09</t>
+  </si>
+  <si>
+    <t>ADM10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +250,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,7 +265,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -362,11 +413,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -481,6 +547,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,10 +864,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D627"/>
+  <dimension ref="A1:H627"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -777,11 +876,15 @@
     <col min="2" max="2" width="22" style="38" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" style="9" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" style="9" customWidth="1"/>
-    <col min="5" max="13" width="9.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16" style="9" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="9" customWidth="1"/>
+    <col min="9" max="13" width="9.140625" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -794,8 +897,20 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -803,11 +918,23 @@
         <v>367248</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G2" s="48">
+        <v>45927</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -815,11 +942,23 @@
         <v>404500</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G3" s="48">
+        <v>45927</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -827,11 +966,23 @@
         <v>404612</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G4" s="48">
+        <v>45927</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -839,11 +990,23 @@
         <v>414816</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G5" s="48">
+        <v>45927</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
@@ -851,11 +1014,23 @@
         <v>2022001020</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G6" s="48">
+        <v>45927</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -863,11 +1038,23 @@
         <v>469702</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G7" s="48">
+        <v>45927</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
@@ -875,11 +1062,23 @@
         <v>469703</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G8" s="48">
+        <v>45927</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
@@ -887,11 +1086,23 @@
         <v>469704</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G9" s="48">
+        <v>45927</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -899,11 +1110,23 @@
         <v>469705</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G10" s="48">
+        <v>45927</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
@@ -911,11 +1134,23 @@
         <v>469706</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G11" s="48">
+        <v>45927</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
@@ -923,11 +1158,15 @@
         <v>469707</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="46"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
@@ -935,11 +1174,15 @@
         <v>472282</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="46"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
@@ -947,11 +1190,15 @@
         <v>367234</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="46"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="46"/>
+    </row>
+    <row r="15" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
@@ -959,11 +1206,15 @@
         <v>404669</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="46"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -971,11 +1222,15 @@
         <v>469722</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="46"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
@@ -983,11 +1238,15 @@
         <v>477287</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="46"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>13</v>
       </c>
@@ -995,11 +1254,15 @@
         <v>2022002847</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="46"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>14</v>
       </c>
@@ -1007,11 +1270,15 @@
         <v>2023000346</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="46"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="46"/>
+    </row>
+    <row r="20" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>15</v>
       </c>
@@ -1019,11 +1286,15 @@
         <v>2023003375</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="46"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="46"/>
+    </row>
+    <row r="21" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
@@ -1031,11 +1302,15 @@
         <v>416094</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="46"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="46"/>
+    </row>
+    <row r="22" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
@@ -1043,11 +1318,15 @@
         <v>367215</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="46"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="46"/>
+    </row>
+    <row r="23" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>18</v>
       </c>
@@ -1055,11 +1334,15 @@
         <v>367203</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="46"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="46"/>
+    </row>
+    <row r="24" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>18</v>
       </c>
@@ -1067,11 +1350,15 @@
         <v>367200</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="46"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="46"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
@@ -1079,11 +1366,15 @@
         <v>367196</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="46"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="46"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>7</v>
       </c>
@@ -1091,11 +1382,15 @@
         <v>469698</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="46"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="46"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>7</v>
       </c>
@@ -1103,11 +1398,15 @@
         <v>2022003395</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="46"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="46"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>4</v>
       </c>
@@ -1115,11 +1414,15 @@
         <v>413667</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="46"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="46"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>4</v>
       </c>
@@ -1127,11 +1430,15 @@
         <v>367241</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="46"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="46"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>19</v>
       </c>
@@ -1139,11 +1446,15 @@
         <v>370931</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="46"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>19</v>
       </c>
@@ -1151,11 +1462,15 @@
         <v>407250</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="46"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="46"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>19</v>
       </c>
@@ -1163,11 +1478,15 @@
         <v>477313</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="46"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="46"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>19</v>
       </c>
@@ -1175,11 +1494,15 @@
         <v>477318</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="46"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>20</v>
       </c>
@@ -1187,11 +1510,15 @@
         <v>414821</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="46"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="46"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>20</v>
       </c>
@@ -1199,11 +1526,15 @@
         <v>477289</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="46"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="46"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>21</v>
       </c>
@@ -1211,11 +1542,15 @@
         <v>413649</v>
       </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="46"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="46"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>22</v>
       </c>
@@ -1223,11 +1558,15 @@
         <v>472283</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="46"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>23</v>
       </c>
@@ -1235,11 +1574,15 @@
         <v>469723</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="46"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="46"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>23</v>
       </c>
@@ -1247,11 +1590,15 @@
         <v>469725</v>
       </c>
       <c r="C39" s="12"/>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="46"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>11</v>
       </c>
@@ -1259,11 +1606,15 @@
         <v>24</v>
       </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="46"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="46"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>16</v>
       </c>
@@ -1271,11 +1622,15 @@
         <v>416096</v>
       </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="46"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="46"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>26</v>
       </c>
@@ -1283,11 +1638,15 @@
         <v>2022003364</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="46"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="46"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>9</v>
       </c>
@@ -1295,11 +1654,15 @@
         <v>291564</v>
       </c>
       <c r="C43" s="10"/>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="46"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="46"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>18</v>
       </c>
@@ -1307,11 +1670,15 @@
         <v>367163</v>
       </c>
       <c r="C44" s="10"/>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="46"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="46"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>18</v>
       </c>
@@ -1319,11 +1686,15 @@
         <v>367179</v>
       </c>
       <c r="C45" s="10"/>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="46"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="46"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>27</v>
       </c>
@@ -1331,11 +1702,15 @@
         <v>367176</v>
       </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="46"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="46"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>27</v>
       </c>
@@ -1343,11 +1718,15 @@
         <v>367171</v>
       </c>
       <c r="C47" s="10"/>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="46"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="46"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>18</v>
       </c>
@@ -1355,11 +1734,15 @@
         <v>445017</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="46"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="46"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>18</v>
       </c>
@@ -1367,11 +1750,15 @@
         <v>469699</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="46"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="46"/>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>18</v>
       </c>
@@ -1379,11 +1766,15 @@
         <v>469708</v>
       </c>
       <c r="C50" s="10"/>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="46"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="46"/>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>18</v>
       </c>
@@ -1391,11 +1782,15 @@
         <v>469709</v>
       </c>
       <c r="C51" s="10"/>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="46"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="46"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>28</v>
       </c>
@@ -1403,11 +1798,15 @@
         <v>333060</v>
       </c>
       <c r="C52" s="10"/>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="46"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="46"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>4</v>
       </c>
@@ -1415,11 +1814,15 @@
         <v>329779</v>
       </c>
       <c r="C53" s="10"/>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E53" s="46"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="46"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>28</v>
       </c>
@@ -1427,11 +1830,15 @@
         <v>348243</v>
       </c>
       <c r="C54" s="10"/>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="46"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="46"/>
+    </row>
+    <row r="55" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>28</v>
       </c>
@@ -1439,11 +1846,15 @@
         <v>348234</v>
       </c>
       <c r="C55" s="10"/>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="46"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="46"/>
+    </row>
+    <row r="56" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>29</v>
       </c>
@@ -1451,11 +1862,15 @@
         <v>329776</v>
       </c>
       <c r="C56" s="10"/>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="46"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="46"/>
+    </row>
+    <row r="57" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>4</v>
       </c>
@@ -1463,11 +1878,15 @@
         <v>401241</v>
       </c>
       <c r="C57" s="10"/>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="46"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="46"/>
+    </row>
+    <row r="58" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>4</v>
       </c>
@@ -1475,11 +1894,15 @@
         <v>329757</v>
       </c>
       <c r="C58" s="10"/>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="46"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="46"/>
+    </row>
+    <row r="59" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>4</v>
       </c>
@@ -1487,11 +1910,15 @@
         <v>333063</v>
       </c>
       <c r="C59" s="10"/>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="46"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="46"/>
+    </row>
+    <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>23</v>
       </c>
@@ -1499,11 +1926,15 @@
         <v>348202</v>
       </c>
       <c r="C60" s="10"/>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E60" s="46"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="46"/>
+    </row>
+    <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>30</v>
       </c>
@@ -1511,11 +1942,15 @@
         <v>401265</v>
       </c>
       <c r="C61" s="10"/>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E61" s="46"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="46"/>
+    </row>
+    <row r="62" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>23</v>
       </c>
@@ -1523,11 +1958,15 @@
         <v>332910</v>
       </c>
       <c r="C62" s="10"/>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E62" s="46"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="46"/>
+    </row>
+    <row r="63" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>23</v>
       </c>
@@ -1535,11 +1974,15 @@
         <v>332941</v>
       </c>
       <c r="C63" s="10"/>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="46"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="46"/>
+    </row>
+    <row r="64" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>30</v>
       </c>
@@ -1547,11 +1990,15 @@
         <v>411554</v>
       </c>
       <c r="C64" s="10"/>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="46"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="46"/>
+    </row>
+    <row r="65" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>31</v>
       </c>
@@ -1559,11 +2006,15 @@
         <v>348195</v>
       </c>
       <c r="C65" s="10"/>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E65" s="46"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="46"/>
+    </row>
+    <row r="66" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>23</v>
       </c>
@@ -1571,11 +2022,15 @@
         <v>395614</v>
       </c>
       <c r="C66" s="10"/>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E66" s="46"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="46"/>
+    </row>
+    <row r="67" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>19</v>
       </c>
@@ -1583,11 +2038,15 @@
         <v>414808</v>
       </c>
       <c r="C67" s="10"/>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E67" s="46"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="46"/>
+    </row>
+    <row r="68" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>19</v>
       </c>
@@ -1595,11 +2054,15 @@
         <v>407261</v>
       </c>
       <c r="C68" s="10"/>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E68" s="46"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="46"/>
+    </row>
+    <row r="69" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>19</v>
       </c>
@@ -1607,11 +2070,15 @@
         <v>407249</v>
       </c>
       <c r="C69" s="10"/>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="46"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="46"/>
+    </row>
+    <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>32</v>
       </c>
@@ -1619,11 +2086,15 @@
         <v>442044</v>
       </c>
       <c r="C70" s="10"/>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="46"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="46"/>
+    </row>
+    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>19</v>
       </c>
@@ -1631,11 +2102,15 @@
         <v>407255</v>
       </c>
       <c r="C71" s="10"/>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="46"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="46"/>
+    </row>
+    <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>19</v>
       </c>
@@ -1643,11 +2118,15 @@
         <v>407259</v>
       </c>
       <c r="C72" s="10"/>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="46"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="46"/>
+    </row>
+    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>33</v>
       </c>
@@ -1655,11 +2134,15 @@
         <v>2022001016</v>
       </c>
       <c r="C73" s="10"/>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E73" s="46"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="46"/>
+    </row>
+    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>33</v>
       </c>
@@ -1667,11 +2150,15 @@
         <v>370938</v>
       </c>
       <c r="C74" s="10"/>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E74" s="46"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="46"/>
+    </row>
+    <row r="75" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>19</v>
       </c>
@@ -1679,11 +2166,15 @@
         <v>476175</v>
       </c>
       <c r="C75" s="10"/>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E75" s="46"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="46"/>
+    </row>
+    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>32</v>
       </c>
@@ -1691,11 +2182,15 @@
         <v>477314</v>
       </c>
       <c r="C76" s="10"/>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E76" s="46"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="46"/>
+    </row>
+    <row r="77" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>19</v>
       </c>
@@ -1703,11 +2198,15 @@
         <v>2022001000</v>
       </c>
       <c r="C77" s="10"/>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E77" s="46"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="46"/>
+    </row>
+    <row r="78" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>19</v>
       </c>
@@ -1715,11 +2214,15 @@
         <v>414788</v>
       </c>
       <c r="C78" s="10"/>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E78" s="46"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="46"/>
+    </row>
+    <row r="79" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>19</v>
       </c>
@@ -1727,11 +2230,15 @@
         <v>414810</v>
       </c>
       <c r="C79" s="10"/>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E79" s="46"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="46"/>
+    </row>
+    <row r="80" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>19</v>
       </c>
@@ -1739,11 +2246,15 @@
         <v>477317</v>
       </c>
       <c r="C80" s="10"/>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E80" s="46"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="46"/>
+    </row>
+    <row r="81" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>19</v>
       </c>
@@ -1751,11 +2262,15 @@
         <v>2022001006</v>
       </c>
       <c r="C81" s="10"/>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E81" s="46"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="46"/>
+    </row>
+    <row r="82" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>20</v>
       </c>
@@ -1763,11 +2278,15 @@
         <v>477293</v>
       </c>
       <c r="C82" s="10"/>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E82" s="46"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="46"/>
+    </row>
+    <row r="83" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>34</v>
       </c>
@@ -1775,11 +2294,15 @@
         <v>407242</v>
       </c>
       <c r="C83" s="10"/>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="46"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="46"/>
+    </row>
+    <row r="84" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>35</v>
       </c>
@@ -1787,11 +2310,15 @@
         <v>407241</v>
       </c>
       <c r="C84" s="10"/>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E84" s="46"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="46"/>
+    </row>
+    <row r="85" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>20</v>
       </c>
@@ -1799,11 +2326,15 @@
         <v>414797</v>
       </c>
       <c r="C85" s="10"/>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E85" s="46"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="46"/>
+    </row>
+    <row r="86" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>20</v>
       </c>
@@ -1811,11 +2342,15 @@
         <v>407231</v>
       </c>
       <c r="C86" s="10"/>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E86" s="46"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="46"/>
+    </row>
+    <row r="87" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>20</v>
       </c>
@@ -1823,11 +2358,15 @@
         <v>407230</v>
       </c>
       <c r="C87" s="10"/>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E87" s="46"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="46"/>
+    </row>
+    <row r="88" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>35</v>
       </c>
@@ -1835,11 +2374,15 @@
         <v>407243</v>
       </c>
       <c r="C88" s="10"/>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E88" s="46"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="46"/>
+    </row>
+    <row r="89" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>20</v>
       </c>
@@ -1847,11 +2390,15 @@
         <v>414801</v>
       </c>
       <c r="C89" s="14"/>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E89" s="46"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="46"/>
+    </row>
+    <row r="90" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>36</v>
       </c>
@@ -1859,11 +2406,15 @@
         <v>481159</v>
       </c>
       <c r="C90" s="10"/>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E90" s="46"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="46"/>
+    </row>
+    <row r="91" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>22</v>
       </c>
@@ -1871,11 +2422,15 @@
         <v>2022003366</v>
       </c>
       <c r="C91" s="10"/>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E91" s="46"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="46"/>
+    </row>
+    <row r="92" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>22</v>
       </c>
@@ -1883,11 +2438,15 @@
         <v>2022003367</v>
       </c>
       <c r="C92" s="10"/>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E92" s="46"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="46"/>
+    </row>
+    <row r="93" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>11</v>
       </c>
@@ -1895,11 +2454,15 @@
         <v>329882</v>
       </c>
       <c r="C93" s="10"/>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E93" s="46"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="46"/>
+    </row>
+    <row r="94" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>11</v>
       </c>
@@ -1907,11 +2470,15 @@
         <v>329888</v>
       </c>
       <c r="C94" s="10"/>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E94" s="46"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="46"/>
+    </row>
+    <row r="95" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>38</v>
       </c>
@@ -1919,11 +2486,15 @@
         <v>300644</v>
       </c>
       <c r="C95" s="5"/>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E95" s="46"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="46"/>
+    </row>
+    <row r="96" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>39</v>
       </c>
@@ -1931,11 +2502,15 @@
         <v>480988</v>
       </c>
       <c r="C96" s="10"/>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E96" s="46"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="46"/>
+    </row>
+    <row r="97" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>39</v>
       </c>
@@ -1943,11 +2518,15 @@
         <v>480989</v>
       </c>
       <c r="C97" s="10"/>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E97" s="46"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="46"/>
+    </row>
+    <row r="98" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>39</v>
       </c>
@@ -1955,11 +2534,15 @@
         <v>480990</v>
       </c>
       <c r="C98" s="10"/>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E98" s="46"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="46"/>
+    </row>
+    <row r="99" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>39</v>
       </c>
@@ -1967,11 +2550,15 @@
         <v>480991</v>
       </c>
       <c r="C99" s="10"/>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E99" s="46"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="46"/>
+    </row>
+    <row r="100" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>40</v>
       </c>
@@ -1979,11 +2566,15 @@
         <v>2024009281</v>
       </c>
       <c r="C100" s="10"/>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E100" s="46"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="46"/>
+    </row>
+    <row r="101" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>41</v>
       </c>
@@ -1991,11 +2582,15 @@
         <v>2025000954</v>
       </c>
       <c r="C101" s="10"/>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E101" s="46"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="46"/>
+    </row>
+    <row r="102" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>4</v>
       </c>
@@ -2003,11 +2598,15 @@
         <v>348263</v>
       </c>
       <c r="C102" s="10"/>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E102" s="46"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="46"/>
+    </row>
+    <row r="103" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>23</v>
       </c>
@@ -2015,11 +2614,15 @@
         <v>2022003388</v>
       </c>
       <c r="C103" s="10"/>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E103" s="46"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="46"/>
+    </row>
+    <row r="104" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>12</v>
       </c>
@@ -2027,11 +2630,15 @@
         <v>407235</v>
       </c>
       <c r="C104" s="10"/>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E104" s="46"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="46"/>
+    </row>
+    <row r="105" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>19</v>
       </c>
@@ -2039,11 +2646,15 @@
         <v>468611</v>
       </c>
       <c r="C105" s="10"/>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E105" s="46"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="46"/>
+    </row>
+    <row r="106" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>19</v>
       </c>
@@ -2051,11 +2662,15 @@
         <v>369804</v>
       </c>
       <c r="C106" s="10"/>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E106" s="46"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="46"/>
+    </row>
+    <row r="107" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="20" t="s">
         <v>18</v>
       </c>
@@ -2063,11 +2678,15 @@
         <v>445014</v>
       </c>
       <c r="C107" s="10"/>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E107" s="46"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="46"/>
+    </row>
+    <row r="108" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>4</v>
       </c>
@@ -2075,11 +2694,15 @@
         <v>333061</v>
       </c>
       <c r="C108" s="10"/>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E108" s="46"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="46"/>
+    </row>
+    <row r="109" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>23</v>
       </c>
@@ -2087,11 +2710,15 @@
         <v>348131</v>
       </c>
       <c r="C109" s="10"/>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E109" s="46"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="46"/>
+    </row>
+    <row r="110" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>12</v>
       </c>
@@ -2099,11 +2726,15 @@
         <v>442035</v>
       </c>
       <c r="C110" s="10"/>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E110" s="46"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="46"/>
+    </row>
+    <row r="111" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="20" t="s">
         <v>19</v>
       </c>
@@ -2111,11 +2742,15 @@
         <v>2022001011</v>
       </c>
       <c r="C111" s="10"/>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E111" s="46"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="46"/>
+    </row>
+    <row r="112" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>18</v>
       </c>
@@ -2123,11 +2758,15 @@
         <v>445067</v>
       </c>
       <c r="C112" s="10"/>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E112" s="46"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="46"/>
+    </row>
+    <row r="113" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>4</v>
       </c>
@@ -2135,11 +2774,15 @@
         <v>333059</v>
       </c>
       <c r="C113" s="10"/>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E113" s="46"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="46"/>
+    </row>
+    <row r="114" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>23</v>
       </c>
@@ -2147,11 +2790,15 @@
         <v>348173</v>
       </c>
       <c r="C114" s="10"/>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E114" s="46"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="46"/>
+    </row>
+    <row r="115" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>42</v>
       </c>
@@ -2159,11 +2806,15 @@
         <v>2023000442</v>
       </c>
       <c r="C115" s="10"/>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E115" s="46"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="46"/>
+    </row>
+    <row r="116" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>12</v>
       </c>
@@ -2171,11 +2822,15 @@
         <v>407233</v>
       </c>
       <c r="C116" s="10"/>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E116" s="46"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="48"/>
+      <c r="H116" s="46"/>
+    </row>
+    <row r="117" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>19</v>
       </c>
@@ -2183,11 +2838,15 @@
         <v>407262</v>
       </c>
       <c r="C117" s="10"/>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E117" s="46"/>
+      <c r="F117" s="48"/>
+      <c r="G117" s="48"/>
+      <c r="H117" s="46"/>
+    </row>
+    <row r="118" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>19</v>
       </c>
@@ -2195,11 +2854,15 @@
         <v>477315</v>
       </c>
       <c r="C118" s="10"/>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E118" s="46"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="46"/>
+    </row>
+    <row r="119" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>18</v>
       </c>
@@ -2207,11 +2870,15 @@
         <v>445026</v>
       </c>
       <c r="C119" s="10"/>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E119" s="46"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="46"/>
+    </row>
+    <row r="120" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>4</v>
       </c>
@@ -2219,11 +2886,15 @@
         <v>333121</v>
       </c>
       <c r="C120" s="10"/>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E120" s="46"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="46"/>
+    </row>
+    <row r="121" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>23</v>
       </c>
@@ -2231,11 +2902,15 @@
         <v>348177</v>
       </c>
       <c r="C121" s="10"/>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E121" s="46"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="46"/>
+    </row>
+    <row r="122" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>12</v>
       </c>
@@ -2243,11 +2918,15 @@
         <v>477237</v>
       </c>
       <c r="C122" s="10"/>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E122" s="46"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="46"/>
+    </row>
+    <row r="123" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>19</v>
       </c>
@@ -2255,11 +2934,15 @@
         <v>407248</v>
       </c>
       <c r="C123" s="10"/>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E123" s="46"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="46"/>
+    </row>
+    <row r="124" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>18</v>
       </c>
@@ -2267,11 +2950,15 @@
         <v>445036</v>
       </c>
       <c r="C124" s="10"/>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E124" s="46"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="46"/>
+    </row>
+    <row r="125" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="20" t="s">
         <v>4</v>
       </c>
@@ -2279,11 +2966,15 @@
         <v>2022003389</v>
       </c>
       <c r="C125" s="10"/>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E125" s="46"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="46"/>
+    </row>
+    <row r="126" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="20" t="s">
         <v>23</v>
       </c>
@@ -2291,11 +2982,15 @@
         <v>348193</v>
       </c>
       <c r="C126" s="10"/>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E126" s="46"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="46"/>
+    </row>
+    <row r="127" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>12</v>
       </c>
@@ -2303,11 +2998,15 @@
         <v>407266</v>
       </c>
       <c r="C127" s="10"/>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E127" s="46"/>
+      <c r="F127" s="48"/>
+      <c r="G127" s="48"/>
+      <c r="H127" s="46"/>
+    </row>
+    <row r="128" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>19</v>
       </c>
@@ -2315,11 +3014,15 @@
         <v>407263</v>
       </c>
       <c r="C128" s="10"/>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E128" s="46"/>
+      <c r="F128" s="48"/>
+      <c r="G128" s="48"/>
+      <c r="H128" s="46"/>
+    </row>
+    <row r="129" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>19</v>
       </c>
@@ -2327,11 +3030,15 @@
         <v>442041</v>
       </c>
       <c r="C129" s="10"/>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E129" s="46"/>
+      <c r="F129" s="48"/>
+      <c r="G129" s="48"/>
+      <c r="H129" s="46"/>
+    </row>
+    <row r="130" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>18</v>
       </c>
@@ -2339,11 +3046,15 @@
         <v>445044</v>
       </c>
       <c r="C130" s="10"/>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E130" s="46"/>
+      <c r="F130" s="48"/>
+      <c r="G130" s="48"/>
+      <c r="H130" s="46"/>
+    </row>
+    <row r="131" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>28</v>
       </c>
@@ -2351,11 +3062,15 @@
         <v>329755</v>
       </c>
       <c r="C131" s="5"/>
-      <c r="D131" s="12" t="s">
+      <c r="D131" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E131" s="46"/>
+      <c r="F131" s="48"/>
+      <c r="G131" s="48"/>
+      <c r="H131" s="46"/>
+    </row>
+    <row r="132" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>4</v>
       </c>
@@ -2363,11 +3078,15 @@
         <v>333035</v>
       </c>
       <c r="C132" s="5"/>
-      <c r="D132" s="12" t="s">
+      <c r="D132" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E132" s="46"/>
+      <c r="F132" s="48"/>
+      <c r="G132" s="48"/>
+      <c r="H132" s="46"/>
+    </row>
+    <row r="133" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>4</v>
       </c>
@@ -2375,11 +3094,15 @@
         <v>333072</v>
       </c>
       <c r="C133" s="5"/>
-      <c r="D133" s="12" t="s">
+      <c r="D133" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E133" s="46"/>
+      <c r="F133" s="48"/>
+      <c r="G133" s="48"/>
+      <c r="H133" s="46"/>
+    </row>
+    <row r="134" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>4</v>
       </c>
@@ -2387,11 +3110,15 @@
         <v>333073</v>
       </c>
       <c r="C134" s="5"/>
-      <c r="D134" s="12" t="s">
+      <c r="D134" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E134" s="46"/>
+      <c r="F134" s="48"/>
+      <c r="G134" s="48"/>
+      <c r="H134" s="46"/>
+    </row>
+    <row r="135" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>4</v>
       </c>
@@ -2399,11 +3126,15 @@
         <v>333074</v>
       </c>
       <c r="C135" s="5"/>
-      <c r="D135" s="12" t="s">
+      <c r="D135" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E135" s="46"/>
+      <c r="F135" s="48"/>
+      <c r="G135" s="48"/>
+      <c r="H135" s="46"/>
+    </row>
+    <row r="136" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>4</v>
       </c>
@@ -2411,11 +3142,15 @@
         <v>333075</v>
       </c>
       <c r="C136" s="5"/>
-      <c r="D136" s="12" t="s">
+      <c r="D136" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E136" s="46"/>
+      <c r="F136" s="48"/>
+      <c r="G136" s="48"/>
+      <c r="H136" s="46"/>
+    </row>
+    <row r="137" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>4</v>
       </c>
@@ -2423,11 +3158,15 @@
         <v>333076</v>
       </c>
       <c r="C137" s="5"/>
-      <c r="D137" s="12" t="s">
+      <c r="D137" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E137" s="46"/>
+      <c r="F137" s="48"/>
+      <c r="G137" s="48"/>
+      <c r="H137" s="46"/>
+    </row>
+    <row r="138" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>4</v>
       </c>
@@ -2435,11 +3174,15 @@
         <v>333105</v>
       </c>
       <c r="C138" s="5"/>
-      <c r="D138" s="12" t="s">
+      <c r="D138" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E138" s="46"/>
+      <c r="F138" s="48"/>
+      <c r="G138" s="48"/>
+      <c r="H138" s="46"/>
+    </row>
+    <row r="139" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>4</v>
       </c>
@@ -2447,11 +3190,15 @@
         <v>348261</v>
       </c>
       <c r="C139" s="5"/>
-      <c r="D139" s="12" t="s">
+      <c r="D139" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E139" s="46"/>
+      <c r="F139" s="48"/>
+      <c r="G139" s="48"/>
+      <c r="H139" s="46"/>
+    </row>
+    <row r="140" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>4</v>
       </c>
@@ -2459,11 +3206,15 @@
         <v>401213</v>
       </c>
       <c r="C140" s="5"/>
-      <c r="D140" s="12" t="s">
+      <c r="D140" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E140" s="46"/>
+      <c r="F140" s="48"/>
+      <c r="G140" s="48"/>
+      <c r="H140" s="46"/>
+    </row>
+    <row r="141" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
         <v>4</v>
       </c>
@@ -2471,11 +3222,15 @@
         <v>401242</v>
       </c>
       <c r="C141" s="5"/>
-      <c r="D141" s="12" t="s">
+      <c r="D141" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E141" s="46"/>
+      <c r="F141" s="48"/>
+      <c r="G141" s="48"/>
+      <c r="H141" s="46"/>
+    </row>
+    <row r="142" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>4</v>
       </c>
@@ -2483,11 +3238,15 @@
         <v>411443</v>
       </c>
       <c r="C142" s="5"/>
-      <c r="D142" s="12" t="s">
+      <c r="D142" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E142" s="46"/>
+      <c r="F142" s="48"/>
+      <c r="G142" s="48"/>
+      <c r="H142" s="46"/>
+    </row>
+    <row r="143" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>4</v>
       </c>
@@ -2495,11 +3254,15 @@
         <v>2022003365</v>
       </c>
       <c r="C143" s="5"/>
-      <c r="D143" s="12" t="s">
+      <c r="D143" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E143" s="46"/>
+      <c r="F143" s="48"/>
+      <c r="G143" s="48"/>
+      <c r="H143" s="46"/>
+    </row>
+    <row r="144" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>23</v>
       </c>
@@ -2507,11 +3270,15 @@
         <v>329823</v>
       </c>
       <c r="C144" s="5"/>
-      <c r="D144" s="12" t="s">
+      <c r="D144" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E144" s="46"/>
+      <c r="F144" s="48"/>
+      <c r="G144" s="48"/>
+      <c r="H144" s="46"/>
+    </row>
+    <row r="145" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>23</v>
       </c>
@@ -2519,11 +3286,15 @@
         <v>348199</v>
       </c>
       <c r="C145" s="5"/>
-      <c r="D145" s="12" t="s">
+      <c r="D145" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E145" s="46"/>
+      <c r="F145" s="48"/>
+      <c r="G145" s="48"/>
+      <c r="H145" s="46"/>
+    </row>
+    <row r="146" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>30</v>
       </c>
@@ -2531,11 +3302,15 @@
         <v>348201</v>
       </c>
       <c r="C146" s="5"/>
-      <c r="D146" s="12" t="s">
+      <c r="D146" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E146" s="46"/>
+      <c r="F146" s="48"/>
+      <c r="G146" s="48"/>
+      <c r="H146" s="46"/>
+    </row>
+    <row r="147" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>30</v>
       </c>
@@ -2543,11 +3318,15 @@
         <v>395622</v>
       </c>
       <c r="C147" s="5"/>
-      <c r="D147" s="12" t="s">
+      <c r="D147" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E147" s="46"/>
+      <c r="F147" s="48"/>
+      <c r="G147" s="48"/>
+      <c r="H147" s="46"/>
+    </row>
+    <row r="148" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>30</v>
       </c>
@@ -2555,11 +3334,15 @@
         <v>395631</v>
       </c>
       <c r="C148" s="5"/>
-      <c r="D148" s="12" t="s">
+      <c r="D148" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E148" s="46"/>
+      <c r="F148" s="48"/>
+      <c r="G148" s="48"/>
+      <c r="H148" s="46"/>
+    </row>
+    <row r="149" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
         <v>30</v>
       </c>
@@ -2567,11 +3350,15 @@
         <v>395635</v>
       </c>
       <c r="C149" s="5"/>
-      <c r="D149" s="12" t="s">
+      <c r="D149" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E149" s="46"/>
+      <c r="F149" s="48"/>
+      <c r="G149" s="48"/>
+      <c r="H149" s="46"/>
+    </row>
+    <row r="150" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>30</v>
       </c>
@@ -2579,11 +3366,15 @@
         <v>401290</v>
       </c>
       <c r="C150" s="5"/>
-      <c r="D150" s="12" t="s">
+      <c r="D150" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E150" s="46"/>
+      <c r="F150" s="48"/>
+      <c r="G150" s="48"/>
+      <c r="H150" s="46"/>
+    </row>
+    <row r="151" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
         <v>30</v>
       </c>
@@ -2591,11 +3382,15 @@
         <v>401299</v>
       </c>
       <c r="C151" s="5"/>
-      <c r="D151" s="12" t="s">
+      <c r="D151" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E151" s="46"/>
+      <c r="F151" s="48"/>
+      <c r="G151" s="48"/>
+      <c r="H151" s="46"/>
+    </row>
+    <row r="152" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
         <v>30</v>
       </c>
@@ -2603,11 +3398,15 @@
         <v>401301</v>
       </c>
       <c r="C152" s="5"/>
-      <c r="D152" s="12" t="s">
+      <c r="D152" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E152" s="46"/>
+      <c r="F152" s="48"/>
+      <c r="G152" s="48"/>
+      <c r="H152" s="46"/>
+    </row>
+    <row r="153" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>30</v>
       </c>
@@ -2615,11 +3414,15 @@
         <v>401302</v>
       </c>
       <c r="C153" s="5"/>
-      <c r="D153" s="12" t="s">
+      <c r="D153" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E153" s="46"/>
+      <c r="F153" s="48"/>
+      <c r="G153" s="48"/>
+      <c r="H153" s="46"/>
+    </row>
+    <row r="154" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>30</v>
       </c>
@@ -2627,11 +3430,15 @@
         <v>401310</v>
       </c>
       <c r="C154" s="5"/>
-      <c r="D154" s="12" t="s">
+      <c r="D154" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E154" s="46"/>
+      <c r="F154" s="48"/>
+      <c r="G154" s="48"/>
+      <c r="H154" s="46"/>
+    </row>
+    <row r="155" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>30</v>
       </c>
@@ -2639,11 +3446,15 @@
         <v>401316</v>
       </c>
       <c r="C155" s="5"/>
-      <c r="D155" s="12" t="s">
+      <c r="D155" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E155" s="46"/>
+      <c r="F155" s="48"/>
+      <c r="G155" s="48"/>
+      <c r="H155" s="46"/>
+    </row>
+    <row r="156" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>11</v>
       </c>
@@ -2651,11 +3462,15 @@
         <v>332752</v>
       </c>
       <c r="C156" s="5"/>
-      <c r="D156" s="12" t="s">
+      <c r="D156" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E156" s="46"/>
+      <c r="F156" s="48"/>
+      <c r="G156" s="48"/>
+      <c r="H156" s="46"/>
+    </row>
+    <row r="157" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>11</v>
       </c>
@@ -2663,11 +3478,15 @@
         <v>332753</v>
       </c>
       <c r="C157" s="5"/>
-      <c r="D157" s="12" t="s">
+      <c r="D157" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E157" s="46"/>
+      <c r="F157" s="48"/>
+      <c r="G157" s="48"/>
+      <c r="H157" s="46"/>
+    </row>
+    <row r="158" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>22</v>
       </c>
@@ -2675,11 +3494,15 @@
         <v>395595</v>
       </c>
       <c r="C158" s="5"/>
-      <c r="D158" s="12" t="s">
+      <c r="D158" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E158" s="46"/>
+      <c r="F158" s="48"/>
+      <c r="G158" s="48"/>
+      <c r="H158" s="46"/>
+    </row>
+    <row r="159" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
         <v>22</v>
       </c>
@@ -2687,11 +3510,15 @@
         <v>395596</v>
       </c>
       <c r="C159" s="5"/>
-      <c r="D159" s="12" t="s">
+      <c r="D159" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E159" s="46"/>
+      <c r="F159" s="48"/>
+      <c r="G159" s="48"/>
+      <c r="H159" s="46"/>
+    </row>
+    <row r="160" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>22</v>
       </c>
@@ -2699,11 +3526,15 @@
         <v>395597</v>
       </c>
       <c r="C160" s="5"/>
-      <c r="D160" s="12" t="s">
+      <c r="D160" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E160" s="46"/>
+      <c r="F160" s="48"/>
+      <c r="G160" s="48"/>
+      <c r="H160" s="46"/>
+    </row>
+    <row r="161" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
         <v>22</v>
       </c>
@@ -2711,11 +3542,15 @@
         <v>395598</v>
       </c>
       <c r="C161" s="5"/>
-      <c r="D161" s="12" t="s">
+      <c r="D161" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E161" s="46"/>
+      <c r="F161" s="48"/>
+      <c r="G161" s="48"/>
+      <c r="H161" s="46"/>
+    </row>
+    <row r="162" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
         <v>22</v>
       </c>
@@ -2723,11 +3558,15 @@
         <v>395600</v>
       </c>
       <c r="C162" s="5"/>
-      <c r="D162" s="12" t="s">
+      <c r="D162" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E162" s="46"/>
+      <c r="F162" s="48"/>
+      <c r="G162" s="48"/>
+      <c r="H162" s="46"/>
+    </row>
+    <row r="163" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>22</v>
       </c>
@@ -2735,11 +3574,15 @@
         <v>2022003368</v>
       </c>
       <c r="C163" s="5"/>
-      <c r="D163" s="12" t="s">
+      <c r="D163" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E163" s="46"/>
+      <c r="F163" s="48"/>
+      <c r="G163" s="48"/>
+      <c r="H163" s="46"/>
+    </row>
+    <row r="164" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>44</v>
       </c>
@@ -2747,11 +3590,15 @@
         <v>2022003372</v>
       </c>
       <c r="C164" s="5"/>
-      <c r="D164" s="12" t="s">
+      <c r="D164" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E164" s="46"/>
+      <c r="F164" s="48"/>
+      <c r="G164" s="48"/>
+      <c r="H164" s="46"/>
+    </row>
+    <row r="165" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
         <v>44</v>
       </c>
@@ -2759,11 +3606,15 @@
         <v>2022003373</v>
       </c>
       <c r="C165" s="5"/>
-      <c r="D165" s="12" t="s">
+      <c r="D165" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E165" s="46"/>
+      <c r="F165" s="48"/>
+      <c r="G165" s="48"/>
+      <c r="H165" s="46"/>
+    </row>
+    <row r="166" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
         <v>44</v>
       </c>
@@ -2771,11 +3622,15 @@
         <v>2022003374</v>
       </c>
       <c r="C166" s="5"/>
-      <c r="D166" s="12" t="s">
+      <c r="D166" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E166" s="46"/>
+      <c r="F166" s="48"/>
+      <c r="G166" s="48"/>
+      <c r="H166" s="46"/>
+    </row>
+    <row r="167" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
         <v>44</v>
       </c>
@@ -2783,11 +3638,15 @@
         <v>2022003392</v>
       </c>
       <c r="C167" s="5"/>
-      <c r="D167" s="12" t="s">
+      <c r="D167" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E167" s="46"/>
+      <c r="F167" s="48"/>
+      <c r="G167" s="48"/>
+      <c r="H167" s="46"/>
+    </row>
+    <row r="168" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>18</v>
       </c>
@@ -2795,11 +3654,15 @@
         <v>2022003375</v>
       </c>
       <c r="C168" s="5"/>
-      <c r="D168" s="12" t="s">
+      <c r="D168" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E168" s="46"/>
+      <c r="F168" s="48"/>
+      <c r="G168" s="48"/>
+      <c r="H168" s="46"/>
+    </row>
+    <row r="169" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>18</v>
       </c>
@@ -2807,11 +3670,15 @@
         <v>2022003376</v>
       </c>
       <c r="C169" s="5"/>
-      <c r="D169" s="12" t="s">
+      <c r="D169" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E169" s="46"/>
+      <c r="F169" s="48"/>
+      <c r="G169" s="48"/>
+      <c r="H169" s="46"/>
+    </row>
+    <row r="170" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>18</v>
       </c>
@@ -2819,11 +3686,15 @@
         <v>2022003378</v>
       </c>
       <c r="C170" s="5"/>
-      <c r="D170" s="12" t="s">
+      <c r="D170" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E170" s="46"/>
+      <c r="F170" s="48"/>
+      <c r="G170" s="48"/>
+      <c r="H170" s="46"/>
+    </row>
+    <row r="171" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>18</v>
       </c>
@@ -2831,11 +3702,15 @@
         <v>2022003380</v>
       </c>
       <c r="C171" s="5"/>
-      <c r="D171" s="12" t="s">
+      <c r="D171" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E171" s="46"/>
+      <c r="F171" s="48"/>
+      <c r="G171" s="48"/>
+      <c r="H171" s="46"/>
+    </row>
+    <row r="172" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>18</v>
       </c>
@@ -2843,11 +3718,15 @@
         <v>2022003381</v>
       </c>
       <c r="C172" s="5"/>
-      <c r="D172" s="12" t="s">
+      <c r="D172" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E172" s="46"/>
+      <c r="F172" s="48"/>
+      <c r="G172" s="48"/>
+      <c r="H172" s="46"/>
+    </row>
+    <row r="173" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
         <v>18</v>
       </c>
@@ -2855,11 +3734,15 @@
         <v>2022003382</v>
       </c>
       <c r="C173" s="5"/>
-      <c r="D173" s="12" t="s">
+      <c r="D173" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E173" s="46"/>
+      <c r="F173" s="48"/>
+      <c r="G173" s="48"/>
+      <c r="H173" s="46"/>
+    </row>
+    <row r="174" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
         <v>18</v>
       </c>
@@ -2867,11 +3750,15 @@
         <v>2022003383</v>
       </c>
       <c r="C174" s="5"/>
-      <c r="D174" s="12" t="s">
+      <c r="D174" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E174" s="46"/>
+      <c r="F174" s="48"/>
+      <c r="G174" s="48"/>
+      <c r="H174" s="46"/>
+    </row>
+    <row r="175" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>18</v>
       </c>
@@ -2879,11 +3766,15 @@
         <v>2022003385</v>
       </c>
       <c r="C175" s="5"/>
-      <c r="D175" s="12" t="s">
+      <c r="D175" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E175" s="46"/>
+      <c r="F175" s="48"/>
+      <c r="G175" s="48"/>
+      <c r="H175" s="46"/>
+    </row>
+    <row r="176" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
         <v>18</v>
       </c>
@@ -2891,11 +3782,15 @@
         <v>2022003386</v>
       </c>
       <c r="C176" s="5"/>
-      <c r="D176" s="12" t="s">
+      <c r="D176" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E176" s="46"/>
+      <c r="F176" s="48"/>
+      <c r="G176" s="48"/>
+      <c r="H176" s="46"/>
+    </row>
+    <row r="177" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>18</v>
       </c>
@@ -2903,11 +3798,15 @@
         <v>2022003387</v>
       </c>
       <c r="C177" s="5"/>
-      <c r="D177" s="12" t="s">
+      <c r="D177" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E177" s="46"/>
+      <c r="F177" s="48"/>
+      <c r="G177" s="48"/>
+      <c r="H177" s="46"/>
+    </row>
+    <row r="178" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>18</v>
       </c>
@@ -2915,11 +3814,15 @@
         <v>2022003404</v>
       </c>
       <c r="C178" s="5"/>
-      <c r="D178" s="12" t="s">
+      <c r="D178" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E178" s="46"/>
+      <c r="F178" s="48"/>
+      <c r="G178" s="48"/>
+      <c r="H178" s="46"/>
+    </row>
+    <row r="179" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="19" t="s">
         <v>45</v>
       </c>
@@ -2927,11 +3830,15 @@
         <v>2022001018</v>
       </c>
       <c r="C179" s="3"/>
-      <c r="D179" s="12" t="s">
+      <c r="D179" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E179" s="46"/>
+      <c r="F179" s="48"/>
+      <c r="G179" s="48"/>
+      <c r="H179" s="46"/>
+    </row>
+    <row r="180" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>45</v>
       </c>
@@ -2939,11 +3846,15 @@
         <v>315302</v>
       </c>
       <c r="C180" s="3"/>
-      <c r="D180" s="12" t="s">
+      <c r="D180" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E180" s="46"/>
+      <c r="F180" s="48"/>
+      <c r="G180" s="48"/>
+      <c r="H180" s="46"/>
+    </row>
+    <row r="181" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>20</v>
       </c>
@@ -2951,11 +3862,15 @@
         <v>368624</v>
       </c>
       <c r="C181" s="3"/>
-      <c r="D181" s="12" t="s">
+      <c r="D181" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E181" s="46"/>
+      <c r="F181" s="48"/>
+      <c r="G181" s="48"/>
+      <c r="H181" s="46"/>
+    </row>
+    <row r="182" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
         <v>20</v>
       </c>
@@ -2963,11 +3878,15 @@
         <v>368632</v>
       </c>
       <c r="C182" s="3"/>
-      <c r="D182" s="12" t="s">
+      <c r="D182" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E182" s="46"/>
+      <c r="F182" s="48"/>
+      <c r="G182" s="48"/>
+      <c r="H182" s="46"/>
+    </row>
+    <row r="183" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
         <v>20</v>
       </c>
@@ -2975,11 +3894,15 @@
         <v>372243</v>
       </c>
       <c r="C183" s="3"/>
-      <c r="D183" s="12" t="s">
+      <c r="D183" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E183" s="46"/>
+      <c r="F183" s="48"/>
+      <c r="G183" s="48"/>
+      <c r="H183" s="46"/>
+    </row>
+    <row r="184" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
         <v>20</v>
       </c>
@@ -2987,11 +3910,15 @@
         <v>372246</v>
       </c>
       <c r="C184" s="3"/>
-      <c r="D184" s="12" t="s">
+      <c r="D184" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E184" s="46"/>
+      <c r="F184" s="48"/>
+      <c r="G184" s="48"/>
+      <c r="H184" s="46"/>
+    </row>
+    <row r="185" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>20</v>
       </c>
@@ -2999,11 +3926,15 @@
         <v>407225</v>
       </c>
       <c r="C185" s="3"/>
-      <c r="D185" s="12" t="s">
+      <c r="D185" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E185" s="46"/>
+      <c r="F185" s="48"/>
+      <c r="G185" s="48"/>
+      <c r="H185" s="46"/>
+    </row>
+    <row r="186" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
         <v>20</v>
       </c>
@@ -3011,11 +3942,15 @@
         <v>407226</v>
       </c>
       <c r="C186" s="3"/>
-      <c r="D186" s="12" t="s">
+      <c r="D186" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E186" s="46"/>
+      <c r="F186" s="48"/>
+      <c r="G186" s="48"/>
+      <c r="H186" s="46"/>
+    </row>
+    <row r="187" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
         <v>20</v>
       </c>
@@ -3023,11 +3958,15 @@
         <v>407228</v>
       </c>
       <c r="C187" s="3"/>
-      <c r="D187" s="12" t="s">
+      <c r="D187" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E187" s="46"/>
+      <c r="F187" s="48"/>
+      <c r="G187" s="48"/>
+      <c r="H187" s="46"/>
+    </row>
+    <row r="188" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
         <v>20</v>
       </c>
@@ -3035,11 +3974,15 @@
         <v>407232</v>
       </c>
       <c r="C188" s="3"/>
-      <c r="D188" s="12" t="s">
+      <c r="D188" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E188" s="46"/>
+      <c r="F188" s="48"/>
+      <c r="G188" s="48"/>
+      <c r="H188" s="46"/>
+    </row>
+    <row r="189" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
         <v>20</v>
       </c>
@@ -3047,11 +3990,15 @@
         <v>407234</v>
       </c>
       <c r="C189" s="3"/>
-      <c r="D189" s="12" t="s">
+      <c r="D189" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E189" s="46"/>
+      <c r="F189" s="48"/>
+      <c r="G189" s="48"/>
+      <c r="H189" s="46"/>
+    </row>
+    <row r="190" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
         <v>20</v>
       </c>
@@ -3059,11 +4006,15 @@
         <v>407237</v>
       </c>
       <c r="C190" s="3"/>
-      <c r="D190" s="12" t="s">
+      <c r="D190" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E190" s="46"/>
+      <c r="F190" s="48"/>
+      <c r="G190" s="48"/>
+      <c r="H190" s="46"/>
+    </row>
+    <row r="191" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>20</v>
       </c>
@@ -3071,11 +4022,15 @@
         <v>407238</v>
       </c>
       <c r="C191" s="3"/>
-      <c r="D191" s="12" t="s">
+      <c r="D191" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E191" s="46"/>
+      <c r="F191" s="48"/>
+      <c r="G191" s="48"/>
+      <c r="H191" s="46"/>
+    </row>
+    <row r="192" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>20</v>
       </c>
@@ -3083,11 +4038,15 @@
         <v>407239</v>
       </c>
       <c r="C192" s="3"/>
-      <c r="D192" s="12" t="s">
+      <c r="D192" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E192" s="46"/>
+      <c r="F192" s="48"/>
+      <c r="G192" s="48"/>
+      <c r="H192" s="46"/>
+    </row>
+    <row r="193" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>20</v>
       </c>
@@ -3095,11 +4054,15 @@
         <v>414820</v>
       </c>
       <c r="C193" s="3"/>
-      <c r="D193" s="12" t="s">
+      <c r="D193" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E193" s="46"/>
+      <c r="F193" s="48"/>
+      <c r="G193" s="48"/>
+      <c r="H193" s="46"/>
+    </row>
+    <row r="194" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
         <v>20</v>
       </c>
@@ -3107,11 +4070,15 @@
         <v>414822</v>
       </c>
       <c r="C194" s="3"/>
-      <c r="D194" s="12" t="s">
+      <c r="D194" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E194" s="46"/>
+      <c r="F194" s="48"/>
+      <c r="G194" s="48"/>
+      <c r="H194" s="46"/>
+    </row>
+    <row r="195" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>20</v>
       </c>
@@ -3119,11 +4086,15 @@
         <v>442037</v>
       </c>
       <c r="C195" s="3"/>
-      <c r="D195" s="12" t="s">
+      <c r="D195" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E195" s="46"/>
+      <c r="F195" s="48"/>
+      <c r="G195" s="48"/>
+      <c r="H195" s="46"/>
+    </row>
+    <row r="196" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>20</v>
       </c>
@@ -3131,11 +4102,15 @@
         <v>442039</v>
       </c>
       <c r="C196" s="3"/>
-      <c r="D196" s="12" t="s">
+      <c r="D196" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E196" s="46"/>
+      <c r="F196" s="48"/>
+      <c r="G196" s="48"/>
+      <c r="H196" s="46"/>
+    </row>
+    <row r="197" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>20</v>
       </c>
@@ -3143,11 +4118,15 @@
         <v>468600</v>
       </c>
       <c r="C197" s="3"/>
-      <c r="D197" s="12" t="s">
+      <c r="D197" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E197" s="46"/>
+      <c r="F197" s="48"/>
+      <c r="G197" s="48"/>
+      <c r="H197" s="46"/>
+    </row>
+    <row r="198" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>20</v>
       </c>
@@ -3155,11 +4134,15 @@
         <v>476186</v>
       </c>
       <c r="C198" s="3"/>
-      <c r="D198" s="12" t="s">
+      <c r="D198" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E198" s="46"/>
+      <c r="F198" s="48"/>
+      <c r="G198" s="48"/>
+      <c r="H198" s="46"/>
+    </row>
+    <row r="199" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>20</v>
       </c>
@@ -3167,11 +4150,15 @@
         <v>476187</v>
       </c>
       <c r="C199" s="3"/>
-      <c r="D199" s="12" t="s">
+      <c r="D199" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E199" s="46"/>
+      <c r="F199" s="48"/>
+      <c r="G199" s="48"/>
+      <c r="H199" s="46"/>
+    </row>
+    <row r="200" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
         <v>20</v>
       </c>
@@ -3179,11 +4166,15 @@
         <v>476188</v>
       </c>
       <c r="C200" s="5"/>
-      <c r="D200" s="12" t="s">
+      <c r="D200" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E200" s="46"/>
+      <c r="F200" s="48"/>
+      <c r="G200" s="48"/>
+      <c r="H200" s="46"/>
+    </row>
+    <row r="201" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
         <v>20</v>
       </c>
@@ -3191,11 +4182,15 @@
         <v>477290</v>
       </c>
       <c r="C201" s="11"/>
-      <c r="D201" s="12" t="s">
+      <c r="D201" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E201" s="46"/>
+      <c r="F201" s="48"/>
+      <c r="G201" s="48"/>
+      <c r="H201" s="46"/>
+    </row>
+    <row r="202" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
         <v>20</v>
       </c>
@@ -3203,1863 +4198,3099 @@
         <v>477291</v>
       </c>
       <c r="C202" s="11"/>
-      <c r="D202" s="12" t="s">
+      <c r="D202" s="42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E202" s="46"/>
+      <c r="F202" s="48"/>
+      <c r="G202" s="48"/>
+      <c r="H202" s="46"/>
+    </row>
+    <row r="203" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
       <c r="B203" s="18"/>
       <c r="C203" s="11"/>
-      <c r="D203" s="12"/>
-    </row>
-    <row r="204" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D203" s="42"/>
+      <c r="E203" s="46"/>
+      <c r="F203" s="48"/>
+      <c r="G203" s="48"/>
+      <c r="H203" s="46"/>
+    </row>
+    <row r="204" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="18"/>
       <c r="C204" s="11"/>
-      <c r="D204" s="12"/>
-    </row>
-    <row r="205" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D204" s="42"/>
+      <c r="E204" s="46"/>
+      <c r="F204" s="48"/>
+      <c r="G204" s="48"/>
+      <c r="H204" s="46"/>
+    </row>
+    <row r="205" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="19"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
-      <c r="D205" s="12"/>
-    </row>
-    <row r="206" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D205" s="42"/>
+      <c r="E205" s="46"/>
+      <c r="F205" s="48"/>
+      <c r="G205" s="48"/>
+      <c r="H205" s="46"/>
+    </row>
+    <row r="206" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
-      <c r="D206" s="12"/>
-    </row>
-    <row r="207" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D206" s="42"/>
+      <c r="E206" s="46"/>
+      <c r="F206" s="48"/>
+      <c r="G206" s="48"/>
+      <c r="H206" s="46"/>
+    </row>
+    <row r="207" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="19"/>
       <c r="B207" s="22"/>
       <c r="C207" s="11"/>
-      <c r="D207" s="12"/>
-    </row>
-    <row r="208" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D207" s="42"/>
+      <c r="E207" s="46"/>
+      <c r="F207" s="48"/>
+      <c r="G207" s="48"/>
+      <c r="H207" s="46"/>
+    </row>
+    <row r="208" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
-      <c r="D208" s="12"/>
-    </row>
-    <row r="209" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D208" s="42"/>
+      <c r="E208" s="46"/>
+      <c r="F208" s="48"/>
+      <c r="G208" s="48"/>
+      <c r="H208" s="46"/>
+    </row>
+    <row r="209" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
-      <c r="D209" s="12"/>
-    </row>
-    <row r="210" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D209" s="42"/>
+      <c r="E209" s="46"/>
+      <c r="F209" s="48"/>
+      <c r="G209" s="48"/>
+      <c r="H209" s="46"/>
+    </row>
+    <row r="210" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
-      <c r="D210" s="12"/>
-    </row>
-    <row r="211" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D210" s="42"/>
+      <c r="E210" s="46"/>
+      <c r="F210" s="48"/>
+      <c r="G210" s="48"/>
+      <c r="H210" s="46"/>
+    </row>
+    <row r="211" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
-      <c r="D211" s="12"/>
-    </row>
-    <row r="212" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D211" s="42"/>
+      <c r="E211" s="46"/>
+      <c r="F211" s="48"/>
+      <c r="G211" s="48"/>
+      <c r="H211" s="46"/>
+    </row>
+    <row r="212" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
-      <c r="D212" s="12"/>
-    </row>
-    <row r="213" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D212" s="42"/>
+      <c r="E212" s="46"/>
+      <c r="F212" s="48"/>
+      <c r="G212" s="48"/>
+      <c r="H212" s="46"/>
+    </row>
+    <row r="213" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
-      <c r="D213" s="12"/>
-    </row>
-    <row r="214" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D213" s="42"/>
+      <c r="E213" s="46"/>
+      <c r="F213" s="48"/>
+      <c r="G213" s="48"/>
+      <c r="H213" s="46"/>
+    </row>
+    <row r="214" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="21"/>
       <c r="C214" s="11"/>
-      <c r="D214" s="12"/>
-    </row>
-    <row r="215" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D214" s="42"/>
+      <c r="E214" s="46"/>
+      <c r="F214" s="48"/>
+      <c r="G214" s="48"/>
+      <c r="H214" s="46"/>
+    </row>
+    <row r="215" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
-      <c r="D215" s="12"/>
-    </row>
-    <row r="216" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D215" s="42"/>
+      <c r="E215" s="46"/>
+      <c r="F215" s="48"/>
+      <c r="G215" s="48"/>
+      <c r="H215" s="46"/>
+    </row>
+    <row r="216" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
-      <c r="D216" s="12"/>
-    </row>
-    <row r="217" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D216" s="42"/>
+      <c r="E216" s="46"/>
+      <c r="F216" s="48"/>
+      <c r="G216" s="48"/>
+      <c r="H216" s="46"/>
+    </row>
+    <row r="217" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
-      <c r="D217" s="12"/>
-    </row>
-    <row r="218" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D217" s="42"/>
+      <c r="E217" s="46"/>
+      <c r="F217" s="48"/>
+      <c r="G217" s="48"/>
+      <c r="H217" s="46"/>
+    </row>
+    <row r="218" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
-      <c r="D218" s="12"/>
-    </row>
-    <row r="219" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D218" s="42"/>
+      <c r="E218" s="46"/>
+      <c r="F218" s="48"/>
+      <c r="G218" s="48"/>
+      <c r="H218" s="46"/>
+    </row>
+    <row r="219" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
-      <c r="D219" s="12"/>
-    </row>
-    <row r="220" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D219" s="42"/>
+      <c r="E219" s="46"/>
+      <c r="F219" s="48"/>
+      <c r="G219" s="48"/>
+      <c r="H219" s="46"/>
+    </row>
+    <row r="220" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
-      <c r="D220" s="12"/>
-    </row>
-    <row r="221" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D220" s="42"/>
+      <c r="E220" s="46"/>
+      <c r="F220" s="48"/>
+      <c r="G220" s="48"/>
+      <c r="H220" s="46"/>
+    </row>
+    <row r="221" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
-      <c r="D221" s="12"/>
-    </row>
-    <row r="222" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D221" s="42"/>
+      <c r="E221" s="46"/>
+      <c r="F221" s="48"/>
+      <c r="G221" s="48"/>
+      <c r="H221" s="46"/>
+    </row>
+    <row r="222" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
-      <c r="D222" s="12"/>
-    </row>
-    <row r="223" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D222" s="42"/>
+      <c r="E222" s="46"/>
+      <c r="F222" s="48"/>
+      <c r="G222" s="48"/>
+      <c r="H222" s="46"/>
+    </row>
+    <row r="223" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
-      <c r="D223" s="12"/>
-    </row>
-    <row r="224" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D223" s="42"/>
+      <c r="E223" s="46"/>
+      <c r="F223" s="48"/>
+      <c r="G223" s="48"/>
+      <c r="H223" s="46"/>
+    </row>
+    <row r="224" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
-      <c r="D224" s="12"/>
-    </row>
-    <row r="225" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D224" s="42"/>
+      <c r="E224" s="46"/>
+      <c r="F224" s="48"/>
+      <c r="G224" s="48"/>
+      <c r="H224" s="46"/>
+    </row>
+    <row r="225" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="12"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
-      <c r="D225" s="12"/>
-    </row>
-    <row r="226" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D225" s="42"/>
+      <c r="E225" s="46"/>
+      <c r="F225" s="48"/>
+      <c r="G225" s="48"/>
+      <c r="H225" s="46"/>
+    </row>
+    <row r="226" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
-      <c r="D226" s="12"/>
-    </row>
-    <row r="227" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D226" s="42"/>
+      <c r="E226" s="46"/>
+      <c r="F226" s="48"/>
+      <c r="G226" s="48"/>
+      <c r="H226" s="46"/>
+    </row>
+    <row r="227" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="19"/>
       <c r="B227" s="22"/>
       <c r="C227" s="11"/>
-      <c r="D227" s="12"/>
-    </row>
-    <row r="228" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D227" s="42"/>
+      <c r="E227" s="46"/>
+      <c r="F227" s="48"/>
+      <c r="G227" s="48"/>
+      <c r="H227" s="46"/>
+    </row>
+    <row r="228" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="19"/>
       <c r="B228" s="22"/>
       <c r="C228" s="22"/>
-      <c r="D228" s="12"/>
-    </row>
-    <row r="229" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D228" s="42"/>
+      <c r="E228" s="46"/>
+      <c r="F228" s="48"/>
+      <c r="G228" s="48"/>
+      <c r="H228" s="46"/>
+    </row>
+    <row r="229" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="19"/>
       <c r="B229" s="22"/>
       <c r="C229" s="23"/>
-      <c r="D229" s="12"/>
-    </row>
-    <row r="230" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D229" s="42"/>
+      <c r="E229" s="46"/>
+      <c r="F229" s="48"/>
+      <c r="G229" s="48"/>
+      <c r="H229" s="46"/>
+    </row>
+    <row r="230" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="11"/>
       <c r="C230" s="23"/>
-      <c r="D230" s="12"/>
-    </row>
-    <row r="231" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D230" s="42"/>
+      <c r="E230" s="46"/>
+      <c r="F230" s="48"/>
+      <c r="G230" s="48"/>
+      <c r="H230" s="46"/>
+    </row>
+    <row r="231" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="20"/>
       <c r="B231" s="11"/>
       <c r="C231" s="23"/>
-      <c r="D231" s="12"/>
-    </row>
-    <row r="232" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D231" s="42"/>
+      <c r="E231" s="46"/>
+      <c r="F231" s="48"/>
+      <c r="G231" s="48"/>
+      <c r="H231" s="46"/>
+    </row>
+    <row r="232" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="12"/>
       <c r="B232" s="5"/>
       <c r="C232" s="23"/>
-      <c r="D232" s="12"/>
-    </row>
-    <row r="233" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D232" s="42"/>
+      <c r="E232" s="46"/>
+      <c r="F232" s="48"/>
+      <c r="G232" s="48"/>
+      <c r="H232" s="46"/>
+    </row>
+    <row r="233" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="12"/>
       <c r="B233" s="11"/>
       <c r="C233" s="23"/>
-      <c r="D233" s="12"/>
-    </row>
-    <row r="234" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D233" s="42"/>
+      <c r="E233" s="46"/>
+      <c r="F233" s="48"/>
+      <c r="G233" s="48"/>
+      <c r="H233" s="46"/>
+    </row>
+    <row r="234" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="10"/>
       <c r="B234" s="11"/>
       <c r="C234" s="23"/>
-      <c r="D234" s="12"/>
-    </row>
-    <row r="235" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D234" s="42"/>
+      <c r="E234" s="46"/>
+      <c r="F234" s="48"/>
+      <c r="G234" s="48"/>
+      <c r="H234" s="46"/>
+    </row>
+    <row r="235" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10"/>
       <c r="B235" s="11"/>
       <c r="C235" s="23"/>
-      <c r="D235" s="12"/>
-    </row>
-    <row r="236" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D235" s="42"/>
+      <c r="E235" s="46"/>
+      <c r="F235" s="48"/>
+      <c r="G235" s="48"/>
+      <c r="H235" s="46"/>
+    </row>
+    <row r="236" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="10"/>
       <c r="B236" s="11"/>
       <c r="C236" s="23"/>
-      <c r="D236" s="12"/>
-    </row>
-    <row r="237" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D236" s="42"/>
+      <c r="E236" s="46"/>
+      <c r="F236" s="48"/>
+      <c r="G236" s="48"/>
+      <c r="H236" s="46"/>
+    </row>
+    <row r="237" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
       <c r="B237" s="11"/>
       <c r="C237" s="23"/>
-      <c r="D237" s="12"/>
-    </row>
-    <row r="238" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D237" s="42"/>
+      <c r="E237" s="46"/>
+      <c r="F237" s="48"/>
+      <c r="G237" s="48"/>
+      <c r="H237" s="46"/>
+    </row>
+    <row r="238" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="10"/>
       <c r="B238" s="11"/>
       <c r="C238" s="23"/>
-      <c r="D238" s="12"/>
-    </row>
-    <row r="239" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D238" s="42"/>
+      <c r="E238" s="46"/>
+      <c r="F238" s="48"/>
+      <c r="G238" s="48"/>
+      <c r="H238" s="46"/>
+    </row>
+    <row r="239" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10"/>
       <c r="B239" s="11"/>
       <c r="C239" s="23"/>
-      <c r="D239" s="12"/>
-    </row>
-    <row r="240" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D239" s="42"/>
+      <c r="E239" s="46"/>
+      <c r="F239" s="48"/>
+      <c r="G239" s="48"/>
+      <c r="H239" s="46"/>
+    </row>
+    <row r="240" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" s="11"/>
       <c r="C240" s="23"/>
-      <c r="D240" s="12"/>
-    </row>
-    <row r="241" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D240" s="42"/>
+      <c r="E240" s="46"/>
+      <c r="F240" s="48"/>
+      <c r="G240" s="48"/>
+      <c r="H240" s="46"/>
+    </row>
+    <row r="241" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="10"/>
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
-      <c r="D241" s="12"/>
-    </row>
-    <row r="242" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D241" s="42"/>
+      <c r="E241" s="46"/>
+      <c r="F241" s="48"/>
+      <c r="G241" s="48"/>
+      <c r="H241" s="46"/>
+    </row>
+    <row r="242" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="10"/>
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
-      <c r="D242" s="12"/>
-    </row>
-    <row r="243" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D242" s="42"/>
+      <c r="E242" s="46"/>
+      <c r="F242" s="48"/>
+      <c r="G242" s="48"/>
+      <c r="H242" s="46"/>
+    </row>
+    <row r="243" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="14"/>
       <c r="B243" s="24"/>
       <c r="C243" s="11"/>
-      <c r="D243" s="12"/>
-    </row>
-    <row r="244" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D243" s="42"/>
+      <c r="E243" s="46"/>
+      <c r="F243" s="48"/>
+      <c r="G243" s="48"/>
+      <c r="H243" s="46"/>
+    </row>
+    <row r="244" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="11"/>
-      <c r="D244" s="12"/>
-    </row>
-    <row r="245" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D244" s="42"/>
+      <c r="E244" s="46"/>
+      <c r="F244" s="48"/>
+      <c r="G244" s="48"/>
+      <c r="H244" s="46"/>
+    </row>
+    <row r="245" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
-      <c r="D245" s="12"/>
-    </row>
-    <row r="246" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D245" s="42"/>
+      <c r="E245" s="46"/>
+      <c r="F245" s="48"/>
+      <c r="G245" s="48"/>
+      <c r="H245" s="46"/>
+    </row>
+    <row r="246" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
-      <c r="D246" s="12"/>
-    </row>
-    <row r="247" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D246" s="42"/>
+      <c r="E246" s="46"/>
+      <c r="F246" s="48"/>
+      <c r="G246" s="48"/>
+      <c r="H246" s="46"/>
+    </row>
+    <row r="247" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="13"/>
       <c r="B247" s="25"/>
       <c r="C247" s="7"/>
-      <c r="D247" s="12"/>
-    </row>
-    <row r="248" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D247" s="42"/>
+      <c r="E247" s="46"/>
+      <c r="F247" s="48"/>
+      <c r="G247" s="48"/>
+      <c r="H247" s="46"/>
+    </row>
+    <row r="248" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="13"/>
       <c r="B248" s="25"/>
       <c r="C248" s="7"/>
-      <c r="D248" s="12"/>
-    </row>
-    <row r="249" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D248" s="42"/>
+      <c r="E248" s="46"/>
+      <c r="F248" s="48"/>
+      <c r="G248" s="48"/>
+      <c r="H248" s="46"/>
+    </row>
+    <row r="249" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
       <c r="B249" s="25"/>
       <c r="C249" s="7"/>
-      <c r="D249" s="12"/>
-    </row>
-    <row r="250" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D249" s="42"/>
+      <c r="E249" s="46"/>
+      <c r="F249" s="48"/>
+      <c r="G249" s="48"/>
+      <c r="H249" s="46"/>
+    </row>
+    <row r="250" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="13"/>
       <c r="B250" s="25"/>
       <c r="C250" s="7"/>
-      <c r="D250" s="12"/>
-    </row>
-    <row r="251" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D250" s="42"/>
+      <c r="E250" s="46"/>
+      <c r="F250" s="48"/>
+      <c r="G250" s="48"/>
+      <c r="H250" s="46"/>
+    </row>
+    <row r="251" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="13"/>
       <c r="B251" s="25"/>
       <c r="C251" s="7"/>
-      <c r="D251" s="12"/>
-    </row>
-    <row r="252" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D251" s="42"/>
+      <c r="E251" s="46"/>
+      <c r="F251" s="48"/>
+      <c r="G251" s="48"/>
+      <c r="H251" s="46"/>
+    </row>
+    <row r="252" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="12"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
-      <c r="D252" s="12"/>
-    </row>
-    <row r="253" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D252" s="42"/>
+      <c r="E252" s="46"/>
+      <c r="F252" s="48"/>
+      <c r="G252" s="48"/>
+      <c r="H252" s="46"/>
+    </row>
+    <row r="253" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
       <c r="B253" s="5"/>
       <c r="C253" s="26"/>
-      <c r="D253" s="26"/>
-    </row>
-    <row r="254" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D253" s="43"/>
+      <c r="E253" s="46"/>
+      <c r="F253" s="48"/>
+      <c r="G253" s="48"/>
+      <c r="H253" s="46"/>
+    </row>
+    <row r="254" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="27"/>
       <c r="B254" s="28"/>
       <c r="C254" s="28"/>
-      <c r="D254" s="12"/>
-    </row>
-    <row r="255" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D254" s="42"/>
+      <c r="E254" s="46"/>
+      <c r="F254" s="48"/>
+      <c r="G254" s="48"/>
+      <c r="H254" s="46"/>
+    </row>
+    <row r="255" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="12"/>
       <c r="B255" s="21"/>
       <c r="C255" s="21"/>
-      <c r="D255" s="12"/>
-    </row>
-    <row r="256" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D255" s="42"/>
+      <c r="E255" s="46"/>
+      <c r="F255" s="48"/>
+      <c r="G255" s="48"/>
+      <c r="H255" s="46"/>
+    </row>
+    <row r="256" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="12"/>
       <c r="B256" s="21"/>
       <c r="C256" s="21"/>
-      <c r="D256" s="12"/>
-    </row>
-    <row r="257" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D256" s="42"/>
+      <c r="E256" s="46"/>
+      <c r="F256" s="48"/>
+      <c r="G256" s="48"/>
+      <c r="H256" s="46"/>
+    </row>
+    <row r="257" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
       <c r="B257" s="21"/>
       <c r="C257" s="21"/>
-      <c r="D257" s="12"/>
-    </row>
-    <row r="258" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D257" s="42"/>
+      <c r="E257" s="46"/>
+      <c r="F257" s="48"/>
+      <c r="G257" s="48"/>
+      <c r="H257" s="46"/>
+    </row>
+    <row r="258" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="12"/>
       <c r="B258" s="21"/>
       <c r="C258" s="21"/>
-      <c r="D258" s="12"/>
-    </row>
-    <row r="259" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D258" s="42"/>
+      <c r="E258" s="46"/>
+      <c r="F258" s="48"/>
+      <c r="G258" s="48"/>
+      <c r="H258" s="46"/>
+    </row>
+    <row r="259" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10"/>
       <c r="B259" s="21"/>
       <c r="C259" s="21"/>
-      <c r="D259" s="12"/>
-    </row>
-    <row r="260" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D259" s="42"/>
+      <c r="E259" s="46"/>
+      <c r="F259" s="48"/>
+      <c r="G259" s="48"/>
+      <c r="H259" s="46"/>
+    </row>
+    <row r="260" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10"/>
       <c r="B260" s="21"/>
       <c r="C260" s="21"/>
-      <c r="D260" s="12"/>
-    </row>
-    <row r="261" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D260" s="42"/>
+      <c r="E260" s="46"/>
+      <c r="F260" s="48"/>
+      <c r="G260" s="48"/>
+      <c r="H260" s="46"/>
+    </row>
+    <row r="261" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
       <c r="B261" s="21"/>
       <c r="C261" s="21"/>
-      <c r="D261" s="12"/>
-    </row>
-    <row r="262" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D261" s="42"/>
+      <c r="E261" s="46"/>
+      <c r="F261" s="48"/>
+      <c r="G261" s="48"/>
+      <c r="H261" s="46"/>
+    </row>
+    <row r="262" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="12"/>
       <c r="B262" s="21"/>
       <c r="C262" s="21"/>
-      <c r="D262" s="12"/>
-    </row>
-    <row r="263" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D262" s="42"/>
+      <c r="E262" s="46"/>
+      <c r="F262" s="48"/>
+      <c r="G262" s="48"/>
+      <c r="H262" s="46"/>
+    </row>
+    <row r="263" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
       <c r="B263" s="5"/>
       <c r="C263" s="12"/>
-      <c r="D263" s="12"/>
-    </row>
-    <row r="264" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D263" s="42"/>
+      <c r="E263" s="46"/>
+      <c r="F263" s="48"/>
+      <c r="G263" s="48"/>
+      <c r="H263" s="46"/>
+    </row>
+    <row r="264" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="12"/>
       <c r="B264" s="21"/>
       <c r="C264" s="21"/>
-      <c r="D264" s="12"/>
-    </row>
-    <row r="265" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D264" s="42"/>
+      <c r="E264" s="46"/>
+      <c r="F264" s="48"/>
+      <c r="G264" s="48"/>
+      <c r="H264" s="46"/>
+    </row>
+    <row r="265" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="12"/>
       <c r="B265" s="21"/>
       <c r="C265" s="21"/>
-      <c r="D265" s="12"/>
-    </row>
-    <row r="266" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D265" s="42"/>
+      <c r="E265" s="46"/>
+      <c r="F265" s="48"/>
+      <c r="G265" s="48"/>
+      <c r="H265" s="46"/>
+    </row>
+    <row r="266" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="10"/>
       <c r="B266" s="21"/>
       <c r="C266" s="21"/>
-      <c r="D266" s="12"/>
-    </row>
-    <row r="267" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D266" s="42"/>
+      <c r="E266" s="46"/>
+      <c r="F266" s="48"/>
+      <c r="G266" s="48"/>
+      <c r="H266" s="46"/>
+    </row>
+    <row r="267" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="10"/>
       <c r="B267" s="21"/>
       <c r="C267" s="21"/>
-      <c r="D267" s="12"/>
-    </row>
-    <row r="268" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D267" s="42"/>
+      <c r="E267" s="46"/>
+      <c r="F267" s="48"/>
+      <c r="G267" s="48"/>
+      <c r="H267" s="46"/>
+    </row>
+    <row r="268" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="10"/>
       <c r="B268" s="21"/>
       <c r="C268" s="21"/>
-      <c r="D268" s="12"/>
-    </row>
-    <row r="269" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D268" s="42"/>
+      <c r="E268" s="46"/>
+      <c r="F268" s="48"/>
+      <c r="G268" s="48"/>
+      <c r="H268" s="46"/>
+    </row>
+    <row r="269" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="12"/>
       <c r="B269" s="21"/>
       <c r="C269" s="21"/>
-      <c r="D269" s="12"/>
-    </row>
-    <row r="270" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D269" s="42"/>
+      <c r="E269" s="46"/>
+      <c r="F269" s="48"/>
+      <c r="G269" s="48"/>
+      <c r="H269" s="46"/>
+    </row>
+    <row r="270" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="12"/>
       <c r="B270" s="21"/>
       <c r="C270" s="29"/>
-      <c r="D270" s="12"/>
-    </row>
-    <row r="271" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D270" s="42"/>
+      <c r="E270" s="46"/>
+      <c r="F270" s="48"/>
+      <c r="G270" s="48"/>
+      <c r="H270" s="46"/>
+    </row>
+    <row r="271" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="10"/>
       <c r="B271" s="21"/>
       <c r="C271" s="21"/>
-      <c r="D271" s="12"/>
-    </row>
-    <row r="272" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D271" s="42"/>
+      <c r="E271" s="46"/>
+      <c r="F271" s="48"/>
+      <c r="G271" s="48"/>
+      <c r="H271" s="46"/>
+    </row>
+    <row r="272" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
       <c r="B272" s="21"/>
       <c r="C272" s="21"/>
-      <c r="D272" s="12"/>
-    </row>
-    <row r="273" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D272" s="42"/>
+      <c r="E272" s="46"/>
+      <c r="F272" s="48"/>
+      <c r="G272" s="48"/>
+      <c r="H272" s="46"/>
+    </row>
+    <row r="273" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="12"/>
       <c r="B273" s="21"/>
       <c r="C273" s="21"/>
-      <c r="D273" s="12"/>
-    </row>
-    <row r="274" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D273" s="42"/>
+      <c r="E273" s="46"/>
+      <c r="F273" s="48"/>
+      <c r="G273" s="48"/>
+      <c r="H273" s="46"/>
+    </row>
+    <row r="274" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="10"/>
       <c r="B274" s="21"/>
       <c r="C274" s="21"/>
-      <c r="D274" s="12"/>
-    </row>
-    <row r="275" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D274" s="42"/>
+      <c r="E274" s="46"/>
+      <c r="F274" s="48"/>
+      <c r="G274" s="48"/>
+      <c r="H274" s="46"/>
+    </row>
+    <row r="275" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="12"/>
       <c r="B275" s="21"/>
       <c r="C275" s="21"/>
-      <c r="D275" s="12"/>
-    </row>
-    <row r="276" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D275" s="42"/>
+      <c r="E275" s="46"/>
+      <c r="F275" s="48"/>
+      <c r="G275" s="48"/>
+      <c r="H275" s="46"/>
+    </row>
+    <row r="276" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="12"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
-      <c r="D276" s="12"/>
-    </row>
-    <row r="277" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D276" s="42"/>
+      <c r="E276" s="46"/>
+      <c r="F276" s="48"/>
+      <c r="G276" s="48"/>
+      <c r="H276" s="46"/>
+    </row>
+    <row r="277" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="12"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
-      <c r="D277" s="12"/>
-    </row>
-    <row r="278" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D277" s="42"/>
+      <c r="E277" s="46"/>
+      <c r="F277" s="48"/>
+      <c r="G277" s="48"/>
+      <c r="H277" s="46"/>
+    </row>
+    <row r="278" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="10"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
-      <c r="D278" s="12"/>
-    </row>
-    <row r="279" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D278" s="42"/>
+      <c r="E278" s="46"/>
+      <c r="F278" s="48"/>
+      <c r="G278" s="48"/>
+      <c r="H278" s="46"/>
+    </row>
+    <row r="279" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="12"/>
       <c r="B279" s="21"/>
       <c r="C279" s="21"/>
-      <c r="D279" s="12"/>
-    </row>
-    <row r="280" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D279" s="42"/>
+      <c r="E279" s="46"/>
+      <c r="F279" s="48"/>
+      <c r="G279" s="48"/>
+      <c r="H279" s="46"/>
+    </row>
+    <row r="280" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="12"/>
       <c r="B280" s="21"/>
       <c r="C280" s="21"/>
-      <c r="D280" s="12"/>
-    </row>
-    <row r="281" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D280" s="42"/>
+      <c r="E280" s="46"/>
+      <c r="F280" s="48"/>
+      <c r="G280" s="48"/>
+      <c r="H280" s="46"/>
+    </row>
+    <row r="281" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="10"/>
       <c r="B281" s="21"/>
       <c r="C281" s="21"/>
-      <c r="D281" s="12"/>
-    </row>
-    <row r="282" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D281" s="42"/>
+      <c r="E281" s="46"/>
+      <c r="F281" s="48"/>
+      <c r="G281" s="48"/>
+      <c r="H281" s="46"/>
+    </row>
+    <row r="282" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="10"/>
       <c r="B282" s="21"/>
       <c r="C282" s="21"/>
-      <c r="D282" s="12"/>
-    </row>
-    <row r="283" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D282" s="42"/>
+      <c r="E282" s="46"/>
+      <c r="F282" s="48"/>
+      <c r="G282" s="48"/>
+      <c r="H282" s="46"/>
+    </row>
+    <row r="283" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="10"/>
       <c r="B283" s="21"/>
       <c r="C283" s="21"/>
-      <c r="D283" s="12"/>
-    </row>
-    <row r="284" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D283" s="42"/>
+      <c r="E283" s="46"/>
+      <c r="F283" s="48"/>
+      <c r="G283" s="48"/>
+      <c r="H283" s="46"/>
+    </row>
+    <row r="284" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="12"/>
       <c r="B284" s="21"/>
       <c r="C284" s="21"/>
-      <c r="D284" s="12"/>
-    </row>
-    <row r="285" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D284" s="42"/>
+      <c r="E284" s="46"/>
+      <c r="F284" s="48"/>
+      <c r="G284" s="48"/>
+      <c r="H284" s="46"/>
+    </row>
+    <row r="285" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="12"/>
       <c r="B285" s="21"/>
       <c r="C285" s="21"/>
-      <c r="D285" s="12"/>
-    </row>
-    <row r="286" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D285" s="42"/>
+      <c r="E285" s="46"/>
+      <c r="F285" s="48"/>
+      <c r="G285" s="48"/>
+      <c r="H285" s="46"/>
+    </row>
+    <row r="286" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="10"/>
       <c r="B286" s="21"/>
       <c r="C286" s="21"/>
-      <c r="D286" s="12"/>
-    </row>
-    <row r="287" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D286" s="42"/>
+      <c r="E286" s="46"/>
+      <c r="F286" s="48"/>
+      <c r="G286" s="48"/>
+      <c r="H286" s="46"/>
+    </row>
+    <row r="287" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="12"/>
       <c r="B287" s="21"/>
       <c r="C287" s="21"/>
-      <c r="D287" s="12"/>
-    </row>
-    <row r="288" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D287" s="42"/>
+      <c r="E287" s="46"/>
+      <c r="F287" s="48"/>
+      <c r="G287" s="48"/>
+      <c r="H287" s="46"/>
+    </row>
+    <row r="288" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="12"/>
       <c r="B288" s="21"/>
       <c r="C288" s="21"/>
-      <c r="D288" s="12"/>
-    </row>
-    <row r="289" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D288" s="42"/>
+      <c r="E288" s="46"/>
+      <c r="F288" s="48"/>
+      <c r="G288" s="48"/>
+      <c r="H288" s="46"/>
+    </row>
+    <row r="289" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="12"/>
       <c r="B289" s="21"/>
       <c r="C289" s="21"/>
-      <c r="D289" s="12"/>
-    </row>
-    <row r="290" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D289" s="42"/>
+      <c r="E289" s="46"/>
+      <c r="F289" s="48"/>
+      <c r="G289" s="48"/>
+      <c r="H289" s="46"/>
+    </row>
+    <row r="290" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="10"/>
       <c r="B290" s="21"/>
       <c r="C290" s="21"/>
-      <c r="D290" s="12"/>
-    </row>
-    <row r="291" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D290" s="42"/>
+      <c r="E290" s="46"/>
+      <c r="F290" s="48"/>
+      <c r="G290" s="48"/>
+      <c r="H290" s="46"/>
+    </row>
+    <row r="291" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="10"/>
       <c r="B291" s="21"/>
       <c r="C291" s="21"/>
-      <c r="D291" s="12"/>
-    </row>
-    <row r="292" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D291" s="42"/>
+      <c r="E291" s="46"/>
+      <c r="F291" s="48"/>
+      <c r="G291" s="48"/>
+      <c r="H291" s="46"/>
+    </row>
+    <row r="292" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="10"/>
       <c r="B292" s="21"/>
       <c r="C292" s="21"/>
-      <c r="D292" s="12"/>
-    </row>
-    <row r="293" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D292" s="42"/>
+      <c r="E292" s="46"/>
+      <c r="F292" s="48"/>
+      <c r="G292" s="48"/>
+      <c r="H292" s="46"/>
+    </row>
+    <row r="293" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="10"/>
       <c r="B293" s="21"/>
       <c r="C293" s="21"/>
-      <c r="D293" s="12"/>
-    </row>
-    <row r="294" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D293" s="42"/>
+      <c r="E293" s="46"/>
+      <c r="F293" s="48"/>
+      <c r="G293" s="48"/>
+      <c r="H293" s="46"/>
+    </row>
+    <row r="294" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="10"/>
       <c r="B294" s="21"/>
       <c r="C294" s="21"/>
-      <c r="D294" s="12"/>
-    </row>
-    <row r="295" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D294" s="42"/>
+      <c r="E294" s="46"/>
+      <c r="F294" s="48"/>
+      <c r="G294" s="48"/>
+      <c r="H294" s="46"/>
+    </row>
+    <row r="295" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="12"/>
       <c r="B295" s="21"/>
       <c r="C295" s="21"/>
-      <c r="D295" s="12"/>
-    </row>
-    <row r="296" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D295" s="42"/>
+      <c r="E295" s="46"/>
+      <c r="F295" s="48"/>
+      <c r="G295" s="48"/>
+      <c r="H295" s="46"/>
+    </row>
+    <row r="296" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="12"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
-      <c r="D296" s="12"/>
-    </row>
-    <row r="297" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D296" s="42"/>
+      <c r="E296" s="46"/>
+      <c r="F296" s="48"/>
+      <c r="G296" s="48"/>
+      <c r="H296" s="46"/>
+    </row>
+    <row r="297" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="10"/>
       <c r="B297" s="21"/>
       <c r="C297" s="21"/>
-      <c r="D297" s="12"/>
-    </row>
-    <row r="298" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D297" s="42"/>
+      <c r="E297" s="46"/>
+      <c r="F297" s="48"/>
+      <c r="G297" s="48"/>
+      <c r="H297" s="46"/>
+    </row>
+    <row r="298" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="12"/>
       <c r="B298" s="21"/>
       <c r="C298" s="21"/>
-      <c r="D298" s="12"/>
-    </row>
-    <row r="299" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D298" s="42"/>
+      <c r="E298" s="46"/>
+      <c r="F298" s="48"/>
+      <c r="G298" s="48"/>
+      <c r="H298" s="46"/>
+    </row>
+    <row r="299" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="12"/>
       <c r="B299" s="21"/>
       <c r="C299" s="21"/>
-      <c r="D299" s="12"/>
-    </row>
-    <row r="300" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D299" s="42"/>
+      <c r="E299" s="46"/>
+      <c r="F299" s="48"/>
+      <c r="G299" s="48"/>
+      <c r="H299" s="46"/>
+    </row>
+    <row r="300" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="12"/>
       <c r="B300" s="5"/>
       <c r="C300" s="12"/>
-      <c r="D300" s="12"/>
-    </row>
-    <row r="301" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D300" s="42"/>
+      <c r="E300" s="46"/>
+      <c r="F300" s="48"/>
+      <c r="G300" s="48"/>
+      <c r="H300" s="46"/>
+    </row>
+    <row r="301" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="12"/>
       <c r="B301" s="5"/>
       <c r="C301" s="12"/>
-      <c r="D301" s="12"/>
-    </row>
-    <row r="302" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D301" s="42"/>
+      <c r="E301" s="46"/>
+      <c r="F301" s="48"/>
+      <c r="G301" s="48"/>
+      <c r="H301" s="46"/>
+    </row>
+    <row r="302" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="12"/>
       <c r="B302" s="5"/>
       <c r="C302" s="12"/>
-      <c r="D302" s="12"/>
-    </row>
-    <row r="303" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D302" s="42"/>
+      <c r="E302" s="46"/>
+      <c r="F302" s="48"/>
+      <c r="G302" s="48"/>
+      <c r="H302" s="46"/>
+    </row>
+    <row r="303" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="12"/>
       <c r="B303" s="5"/>
       <c r="C303" s="12"/>
-      <c r="D303" s="12"/>
-    </row>
-    <row r="304" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D303" s="42"/>
+      <c r="E303" s="46"/>
+      <c r="F303" s="48"/>
+      <c r="G303" s="48"/>
+      <c r="H303" s="46"/>
+    </row>
+    <row r="304" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="12"/>
       <c r="B304" s="5"/>
       <c r="C304" s="12"/>
-      <c r="D304" s="12"/>
-    </row>
-    <row r="305" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D304" s="42"/>
+      <c r="E304" s="46"/>
+      <c r="F304" s="48"/>
+      <c r="G304" s="48"/>
+      <c r="H304" s="46"/>
+    </row>
+    <row r="305" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="12"/>
       <c r="B305" s="5"/>
       <c r="C305" s="12"/>
-      <c r="D305" s="12"/>
-    </row>
-    <row r="306" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D305" s="42"/>
+      <c r="E305" s="46"/>
+      <c r="F305" s="48"/>
+      <c r="G305" s="48"/>
+      <c r="H305" s="46"/>
+    </row>
+    <row r="306" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="12"/>
       <c r="B306" s="5"/>
       <c r="C306" s="12"/>
-      <c r="D306" s="12"/>
-    </row>
-    <row r="307" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D306" s="42"/>
+      <c r="E306" s="46"/>
+      <c r="F306" s="48"/>
+      <c r="G306" s="48"/>
+      <c r="H306" s="46"/>
+    </row>
+    <row r="307" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="12"/>
       <c r="B307" s="5"/>
       <c r="C307" s="12"/>
-      <c r="D307" s="12"/>
-    </row>
-    <row r="308" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D307" s="42"/>
+      <c r="E307" s="46"/>
+      <c r="F307" s="48"/>
+      <c r="G307" s="48"/>
+      <c r="H307" s="46"/>
+    </row>
+    <row r="308" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="12"/>
       <c r="B308" s="5"/>
       <c r="C308" s="12"/>
-      <c r="D308" s="12"/>
-    </row>
-    <row r="309" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D308" s="42"/>
+      <c r="E308" s="46"/>
+      <c r="F308" s="48"/>
+      <c r="G308" s="48"/>
+      <c r="H308" s="46"/>
+    </row>
+    <row r="309" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="12"/>
       <c r="B309" s="5"/>
       <c r="C309" s="12"/>
-      <c r="D309" s="12"/>
-    </row>
-    <row r="310" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D309" s="42"/>
+      <c r="E309" s="46"/>
+      <c r="F309" s="48"/>
+      <c r="G309" s="48"/>
+      <c r="H309" s="46"/>
+    </row>
+    <row r="310" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="12"/>
       <c r="B310" s="5"/>
       <c r="C310" s="12"/>
-      <c r="D310" s="12"/>
-    </row>
-    <row r="311" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D310" s="42"/>
+      <c r="E310" s="46"/>
+      <c r="F310" s="48"/>
+      <c r="G310" s="48"/>
+      <c r="H310" s="46"/>
+    </row>
+    <row r="311" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="12"/>
       <c r="B311" s="5"/>
       <c r="C311" s="12"/>
-      <c r="D311" s="12"/>
-    </row>
-    <row r="312" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D311" s="42"/>
+      <c r="E311" s="46"/>
+      <c r="F311" s="48"/>
+      <c r="G311" s="48"/>
+      <c r="H311" s="46"/>
+    </row>
+    <row r="312" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="12"/>
       <c r="B312" s="5"/>
       <c r="C312" s="12"/>
-      <c r="D312" s="12"/>
-    </row>
-    <row r="313" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D312" s="42"/>
+      <c r="E312" s="46"/>
+      <c r="F312" s="48"/>
+      <c r="G312" s="48"/>
+      <c r="H312" s="46"/>
+    </row>
+    <row r="313" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="12"/>
       <c r="B313" s="5"/>
       <c r="C313" s="12"/>
-      <c r="D313" s="12"/>
-    </row>
-    <row r="314" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D313" s="42"/>
+      <c r="E313" s="46"/>
+      <c r="F313" s="48"/>
+      <c r="G313" s="48"/>
+      <c r="H313" s="46"/>
+    </row>
+    <row r="314" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="12"/>
       <c r="B314" s="5"/>
       <c r="C314" s="12"/>
-      <c r="D314" s="12"/>
-    </row>
-    <row r="315" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D314" s="42"/>
+      <c r="E314" s="46"/>
+      <c r="F314" s="48"/>
+      <c r="G314" s="48"/>
+      <c r="H314" s="46"/>
+    </row>
+    <row r="315" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="12"/>
       <c r="B315" s="21"/>
       <c r="C315" s="21"/>
-      <c r="D315" s="12"/>
-    </row>
-    <row r="316" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D315" s="42"/>
+      <c r="E315" s="46"/>
+      <c r="F315" s="48"/>
+      <c r="G315" s="48"/>
+      <c r="H315" s="46"/>
+    </row>
+    <row r="316" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="12"/>
       <c r="B316" s="21"/>
       <c r="C316" s="21"/>
-      <c r="D316" s="12"/>
-    </row>
-    <row r="317" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D316" s="42"/>
+      <c r="E316" s="46"/>
+      <c r="F316" s="48"/>
+      <c r="G316" s="48"/>
+      <c r="H316" s="46"/>
+    </row>
+    <row r="317" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="12"/>
       <c r="B317" s="21"/>
       <c r="C317" s="21"/>
-      <c r="D317" s="12"/>
-    </row>
-    <row r="318" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D317" s="42"/>
+      <c r="E317" s="46"/>
+      <c r="F317" s="48"/>
+      <c r="G317" s="48"/>
+      <c r="H317" s="46"/>
+    </row>
+    <row r="318" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="12"/>
       <c r="B318" s="21"/>
       <c r="C318" s="21"/>
-      <c r="D318" s="12"/>
-    </row>
-    <row r="319" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D318" s="42"/>
+      <c r="E318" s="46"/>
+      <c r="F318" s="48"/>
+      <c r="G318" s="48"/>
+      <c r="H318" s="46"/>
+    </row>
+    <row r="319" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="12"/>
       <c r="B319" s="21"/>
       <c r="C319" s="21"/>
-      <c r="D319" s="12"/>
-    </row>
-    <row r="320" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D319" s="42"/>
+      <c r="E319" s="46"/>
+      <c r="F319" s="48"/>
+      <c r="G319" s="48"/>
+      <c r="H319" s="46"/>
+    </row>
+    <row r="320" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="12"/>
       <c r="B320" s="21"/>
       <c r="C320" s="21"/>
-      <c r="D320" s="12"/>
-    </row>
-    <row r="321" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D320" s="42"/>
+      <c r="E320" s="46"/>
+      <c r="F320" s="48"/>
+      <c r="G320" s="48"/>
+      <c r="H320" s="46"/>
+    </row>
+    <row r="321" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="12"/>
       <c r="B321" s="21"/>
       <c r="C321" s="21"/>
-      <c r="D321" s="12"/>
-    </row>
-    <row r="322" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D321" s="42"/>
+      <c r="E321" s="46"/>
+      <c r="F321" s="48"/>
+      <c r="G321" s="48"/>
+      <c r="H321" s="46"/>
+    </row>
+    <row r="322" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="12"/>
       <c r="B322" s="21"/>
       <c r="C322" s="21"/>
-      <c r="D322" s="12"/>
-    </row>
-    <row r="323" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D322" s="42"/>
+      <c r="E322" s="46"/>
+      <c r="F322" s="48"/>
+      <c r="G322" s="48"/>
+      <c r="H322" s="46"/>
+    </row>
+    <row r="323" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="10"/>
       <c r="B323" s="21"/>
       <c r="C323" s="21"/>
-      <c r="D323" s="12"/>
-    </row>
-    <row r="324" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D323" s="42"/>
+      <c r="E323" s="46"/>
+      <c r="F323" s="48"/>
+      <c r="G323" s="48"/>
+      <c r="H323" s="46"/>
+    </row>
+    <row r="324" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="12"/>
       <c r="B324" s="21"/>
       <c r="C324" s="21"/>
-      <c r="D324" s="12"/>
-    </row>
-    <row r="325" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D324" s="42"/>
+      <c r="E324" s="46"/>
+      <c r="F324" s="48"/>
+      <c r="G324" s="48"/>
+      <c r="H324" s="46"/>
+    </row>
+    <row r="325" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="10"/>
       <c r="B325" s="21"/>
       <c r="C325" s="21"/>
-      <c r="D325" s="12"/>
-    </row>
-    <row r="326" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D325" s="42"/>
+      <c r="E325" s="46"/>
+      <c r="F325" s="48"/>
+      <c r="G325" s="48"/>
+      <c r="H325" s="46"/>
+    </row>
+    <row r="326" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="12"/>
       <c r="B326" s="21"/>
       <c r="C326" s="21"/>
-      <c r="D326" s="12"/>
-    </row>
-    <row r="327" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D326" s="42"/>
+      <c r="E326" s="46"/>
+      <c r="F326" s="48"/>
+      <c r="G326" s="48"/>
+      <c r="H326" s="46"/>
+    </row>
+    <row r="327" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="12"/>
       <c r="B327" s="21"/>
       <c r="C327" s="21"/>
-      <c r="D327" s="12"/>
-    </row>
-    <row r="328" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D327" s="42"/>
+      <c r="E327" s="46"/>
+      <c r="F327" s="48"/>
+      <c r="G327" s="48"/>
+      <c r="H327" s="46"/>
+    </row>
+    <row r="328" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="10"/>
       <c r="B328" s="21"/>
       <c r="C328" s="21"/>
-      <c r="D328" s="12"/>
-    </row>
-    <row r="329" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D328" s="42"/>
+      <c r="E328" s="46"/>
+      <c r="F328" s="48"/>
+      <c r="G328" s="48"/>
+      <c r="H328" s="46"/>
+    </row>
+    <row r="329" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="10"/>
       <c r="B329" s="21"/>
       <c r="C329" s="21"/>
-      <c r="D329" s="12"/>
-    </row>
-    <row r="330" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D329" s="42"/>
+      <c r="E329" s="46"/>
+      <c r="F329" s="48"/>
+      <c r="G329" s="48"/>
+      <c r="H329" s="46"/>
+    </row>
+    <row r="330" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="10"/>
       <c r="B330" s="11"/>
       <c r="C330" s="10"/>
-      <c r="D330" s="12"/>
-    </row>
-    <row r="331" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D330" s="42"/>
+      <c r="E330" s="46"/>
+      <c r="F330" s="48"/>
+      <c r="G330" s="48"/>
+      <c r="H330" s="46"/>
+    </row>
+    <row r="331" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="10"/>
       <c r="B331" s="11"/>
       <c r="C331" s="10"/>
-      <c r="D331" s="12"/>
-    </row>
-    <row r="332" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D331" s="42"/>
+      <c r="E331" s="46"/>
+      <c r="F331" s="48"/>
+      <c r="G331" s="48"/>
+      <c r="H331" s="46"/>
+    </row>
+    <row r="332" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="10"/>
       <c r="B332" s="11"/>
       <c r="C332" s="10"/>
-      <c r="D332" s="12"/>
-    </row>
-    <row r="333" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D332" s="42"/>
+      <c r="E332" s="46"/>
+      <c r="F332" s="48"/>
+      <c r="G332" s="48"/>
+      <c r="H332" s="46"/>
+    </row>
+    <row r="333" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="10"/>
       <c r="B333" s="11"/>
       <c r="C333" s="10"/>
-      <c r="D333" s="12"/>
-    </row>
-    <row r="334" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D333" s="42"/>
+      <c r="E333" s="46"/>
+      <c r="F333" s="48"/>
+      <c r="G333" s="48"/>
+      <c r="H333" s="46"/>
+    </row>
+    <row r="334" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="10"/>
       <c r="B334" s="11"/>
       <c r="C334" s="10"/>
-      <c r="D334" s="12"/>
-    </row>
-    <row r="335" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D334" s="42"/>
+      <c r="E334" s="46"/>
+      <c r="F334" s="48"/>
+      <c r="G334" s="48"/>
+      <c r="H334" s="46"/>
+    </row>
+    <row r="335" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="10"/>
       <c r="B335" s="11"/>
       <c r="C335" s="10"/>
-      <c r="D335" s="12"/>
-    </row>
-    <row r="336" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D335" s="42"/>
+      <c r="E335" s="46"/>
+      <c r="F335" s="48"/>
+      <c r="G335" s="48"/>
+      <c r="H335" s="46"/>
+    </row>
+    <row r="336" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="10"/>
       <c r="B336" s="11"/>
       <c r="C336" s="10"/>
-      <c r="D336" s="12"/>
-    </row>
-    <row r="337" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D336" s="42"/>
+      <c r="E336" s="46"/>
+      <c r="F336" s="48"/>
+      <c r="G336" s="48"/>
+      <c r="H336" s="46"/>
+    </row>
+    <row r="337" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="10"/>
       <c r="B337" s="11"/>
       <c r="C337" s="10"/>
-      <c r="D337" s="12"/>
-    </row>
-    <row r="338" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D337" s="42"/>
+      <c r="E337" s="46"/>
+      <c r="F337" s="48"/>
+      <c r="G337" s="48"/>
+      <c r="H337" s="46"/>
+    </row>
+    <row r="338" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="10"/>
       <c r="B338" s="11"/>
       <c r="C338" s="10"/>
-      <c r="D338" s="12"/>
-    </row>
-    <row r="339" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D338" s="42"/>
+      <c r="E338" s="46"/>
+      <c r="F338" s="48"/>
+      <c r="G338" s="48"/>
+      <c r="H338" s="46"/>
+    </row>
+    <row r="339" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="10"/>
       <c r="B339" s="11"/>
       <c r="C339" s="10"/>
-      <c r="D339" s="12"/>
-    </row>
-    <row r="340" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D339" s="42"/>
+      <c r="E339" s="46"/>
+      <c r="F339" s="48"/>
+      <c r="G339" s="48"/>
+      <c r="H339" s="46"/>
+    </row>
+    <row r="340" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="10"/>
       <c r="B340" s="11"/>
       <c r="C340" s="10"/>
-      <c r="D340" s="12"/>
-    </row>
-    <row r="341" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D340" s="42"/>
+      <c r="E340" s="46"/>
+      <c r="F340" s="48"/>
+      <c r="G340" s="48"/>
+      <c r="H340" s="46"/>
+    </row>
+    <row r="341" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="10"/>
       <c r="B341" s="11"/>
       <c r="C341" s="10"/>
-      <c r="D341" s="12"/>
-    </row>
-    <row r="342" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D341" s="42"/>
+      <c r="E341" s="46"/>
+      <c r="F341" s="48"/>
+      <c r="G341" s="48"/>
+      <c r="H341" s="46"/>
+    </row>
+    <row r="342" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="10"/>
       <c r="B342" s="11"/>
       <c r="C342" s="10"/>
-      <c r="D342" s="12"/>
-    </row>
-    <row r="343" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D342" s="42"/>
+      <c r="E342" s="46"/>
+      <c r="F342" s="48"/>
+      <c r="G342" s="48"/>
+      <c r="H342" s="46"/>
+    </row>
+    <row r="343" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="10"/>
       <c r="B343" s="11"/>
       <c r="C343" s="10"/>
-      <c r="D343" s="12"/>
-    </row>
-    <row r="344" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D343" s="42"/>
+      <c r="E343" s="46"/>
+      <c r="F343" s="48"/>
+      <c r="G343" s="48"/>
+      <c r="H343" s="46"/>
+    </row>
+    <row r="344" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="10"/>
       <c r="B344" s="11"/>
       <c r="C344" s="10"/>
-      <c r="D344" s="12"/>
-    </row>
-    <row r="345" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D344" s="42"/>
+      <c r="E344" s="46"/>
+      <c r="F344" s="48"/>
+      <c r="G344" s="48"/>
+      <c r="H344" s="46"/>
+    </row>
+    <row r="345" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="10"/>
       <c r="B345" s="11"/>
       <c r="C345" s="10"/>
-      <c r="D345" s="12"/>
-    </row>
-    <row r="346" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D345" s="42"/>
+      <c r="E345" s="46"/>
+      <c r="F345" s="48"/>
+      <c r="G345" s="48"/>
+      <c r="H345" s="46"/>
+    </row>
+    <row r="346" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="10"/>
       <c r="B346" s="11"/>
       <c r="C346" s="10"/>
-      <c r="D346" s="12"/>
-    </row>
-    <row r="347" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D346" s="42"/>
+      <c r="E346" s="46"/>
+      <c r="F346" s="48"/>
+      <c r="G346" s="48"/>
+      <c r="H346" s="46"/>
+    </row>
+    <row r="347" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="10"/>
       <c r="B347" s="11"/>
       <c r="C347" s="10"/>
-      <c r="D347" s="12"/>
-    </row>
-    <row r="348" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D347" s="42"/>
+      <c r="E347" s="46"/>
+      <c r="F347" s="48"/>
+      <c r="G347" s="48"/>
+      <c r="H347" s="46"/>
+    </row>
+    <row r="348" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="4"/>
       <c r="C348" s="3"/>
-      <c r="D348" s="3"/>
-    </row>
-    <row r="349" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D348" s="8"/>
+      <c r="E348" s="46"/>
+      <c r="F348" s="48"/>
+      <c r="G348" s="48"/>
+      <c r="H348" s="46"/>
+    </row>
+    <row r="349" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="5"/>
       <c r="B349" s="6"/>
       <c r="C349" s="3"/>
-      <c r="D349" s="5"/>
-    </row>
-    <row r="350" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D349" s="41"/>
+      <c r="E349" s="46"/>
+      <c r="F349" s="48"/>
+      <c r="G349" s="48"/>
+      <c r="H349" s="46"/>
+    </row>
+    <row r="350" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="12"/>
       <c r="B350" s="30"/>
       <c r="C350" s="3"/>
-      <c r="D350" s="5"/>
-    </row>
-    <row r="351" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D350" s="41"/>
+      <c r="E350" s="46"/>
+      <c r="F350" s="48"/>
+      <c r="G350" s="48"/>
+      <c r="H350" s="46"/>
+    </row>
+    <row r="351" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="12"/>
       <c r="B351" s="30"/>
       <c r="C351" s="3"/>
-      <c r="D351" s="5"/>
-    </row>
-    <row r="352" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D351" s="41"/>
+      <c r="E351" s="46"/>
+      <c r="F351" s="48"/>
+      <c r="G351" s="48"/>
+      <c r="H351" s="46"/>
+    </row>
+    <row r="352" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="12"/>
       <c r="B352" s="30"/>
       <c r="C352" s="3"/>
-      <c r="D352" s="5"/>
-    </row>
-    <row r="353" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D352" s="41"/>
+      <c r="E352" s="46"/>
+      <c r="F352" s="48"/>
+      <c r="G352" s="48"/>
+      <c r="H352" s="46"/>
+    </row>
+    <row r="353" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="12"/>
       <c r="B353" s="30"/>
       <c r="C353" s="3"/>
-      <c r="D353" s="5"/>
-    </row>
-    <row r="354" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D353" s="41"/>
+      <c r="E353" s="46"/>
+      <c r="F353" s="48"/>
+      <c r="G353" s="48"/>
+      <c r="H353" s="46"/>
+    </row>
+    <row r="354" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="12"/>
       <c r="B354" s="30"/>
       <c r="C354" s="3"/>
-      <c r="D354" s="5"/>
-    </row>
-    <row r="355" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D354" s="41"/>
+      <c r="E354" s="46"/>
+      <c r="F354" s="48"/>
+      <c r="G354" s="48"/>
+      <c r="H354" s="46"/>
+    </row>
+    <row r="355" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="12"/>
       <c r="B355" s="30"/>
       <c r="C355" s="3"/>
-      <c r="D355" s="5"/>
-    </row>
-    <row r="356" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D355" s="41"/>
+      <c r="E355" s="46"/>
+      <c r="F355" s="48"/>
+      <c r="G355" s="48"/>
+      <c r="H355" s="46"/>
+    </row>
+    <row r="356" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="12"/>
       <c r="B356" s="30"/>
       <c r="C356" s="3"/>
-      <c r="D356" s="5"/>
-    </row>
-    <row r="357" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D356" s="41"/>
+      <c r="E356" s="46"/>
+      <c r="F356" s="48"/>
+      <c r="G356" s="48"/>
+      <c r="H356" s="46"/>
+    </row>
+    <row r="357" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="12"/>
       <c r="B357" s="30"/>
       <c r="C357" s="3"/>
-      <c r="D357" s="5"/>
-    </row>
-    <row r="358" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D357" s="41"/>
+      <c r="E357" s="46"/>
+      <c r="F357" s="48"/>
+      <c r="G357" s="48"/>
+      <c r="H357" s="46"/>
+    </row>
+    <row r="358" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="12"/>
       <c r="B358" s="30"/>
       <c r="C358" s="3"/>
-      <c r="D358" s="5"/>
-    </row>
-    <row r="359" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D358" s="41"/>
+      <c r="E358" s="46"/>
+      <c r="F358" s="48"/>
+      <c r="G358" s="48"/>
+      <c r="H358" s="46"/>
+    </row>
+    <row r="359" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="12"/>
       <c r="B359" s="30"/>
       <c r="C359" s="3"/>
-      <c r="D359" s="5"/>
-    </row>
-    <row r="360" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D359" s="41"/>
+      <c r="E359" s="46"/>
+      <c r="F359" s="48"/>
+      <c r="G359" s="48"/>
+      <c r="H359" s="46"/>
+    </row>
+    <row r="360" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="12"/>
       <c r="B360" s="30"/>
       <c r="C360" s="3"/>
-      <c r="D360" s="5"/>
-    </row>
-    <row r="361" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D360" s="41"/>
+      <c r="E360" s="46"/>
+      <c r="F360" s="48"/>
+      <c r="G360" s="48"/>
+      <c r="H360" s="46"/>
+    </row>
+    <row r="361" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="12"/>
       <c r="B361" s="30"/>
       <c r="C361" s="3"/>
-      <c r="D361" s="5"/>
-    </row>
-    <row r="362" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D361" s="41"/>
+      <c r="E361" s="46"/>
+      <c r="F361" s="48"/>
+      <c r="G361" s="48"/>
+      <c r="H361" s="46"/>
+    </row>
+    <row r="362" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="12"/>
       <c r="B362" s="30"/>
       <c r="C362" s="3"/>
-      <c r="D362" s="5"/>
-    </row>
-    <row r="363" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D362" s="41"/>
+      <c r="E362" s="46"/>
+      <c r="F362" s="48"/>
+      <c r="G362" s="48"/>
+      <c r="H362" s="46"/>
+    </row>
+    <row r="363" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="12"/>
       <c r="B363" s="30"/>
       <c r="C363" s="3"/>
-      <c r="D363" s="5"/>
-    </row>
-    <row r="364" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D363" s="41"/>
+      <c r="E363" s="46"/>
+      <c r="F363" s="48"/>
+      <c r="G363" s="48"/>
+      <c r="H363" s="46"/>
+    </row>
+    <row r="364" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="12"/>
       <c r="B364" s="30"/>
       <c r="C364" s="3"/>
-      <c r="D364" s="5"/>
-    </row>
-    <row r="365" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D364" s="41"/>
+      <c r="E364" s="46"/>
+      <c r="F364" s="48"/>
+      <c r="G364" s="48"/>
+      <c r="H364" s="46"/>
+    </row>
+    <row r="365" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="12"/>
       <c r="B365" s="21"/>
       <c r="C365" s="3"/>
-      <c r="D365" s="5"/>
-    </row>
-    <row r="366" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D365" s="41"/>
+      <c r="E365" s="46"/>
+      <c r="F365" s="48"/>
+      <c r="G365" s="48"/>
+      <c r="H365" s="46"/>
+    </row>
+    <row r="366" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="12"/>
       <c r="B366" s="21"/>
       <c r="C366" s="3"/>
-      <c r="D366" s="5"/>
-    </row>
-    <row r="367" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D366" s="41"/>
+      <c r="E366" s="46"/>
+      <c r="F366" s="48"/>
+      <c r="G366" s="48"/>
+      <c r="H366" s="46"/>
+    </row>
+    <row r="367" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="12"/>
       <c r="B367" s="30"/>
       <c r="C367" s="3"/>
-      <c r="D367" s="5"/>
-    </row>
-    <row r="368" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D367" s="41"/>
+      <c r="E367" s="46"/>
+      <c r="F367" s="48"/>
+      <c r="G367" s="48"/>
+      <c r="H367" s="46"/>
+    </row>
+    <row r="368" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="12"/>
       <c r="B368" s="30"/>
       <c r="C368" s="3"/>
-      <c r="D368" s="5"/>
-    </row>
-    <row r="369" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D368" s="41"/>
+      <c r="E368" s="46"/>
+      <c r="F368" s="48"/>
+      <c r="G368" s="48"/>
+      <c r="H368" s="46"/>
+    </row>
+    <row r="369" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="12"/>
       <c r="B369" s="30"/>
       <c r="C369" s="3"/>
-      <c r="D369" s="5"/>
-    </row>
-    <row r="370" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D369" s="41"/>
+      <c r="E369" s="46"/>
+      <c r="F369" s="48"/>
+      <c r="G369" s="48"/>
+      <c r="H369" s="46"/>
+    </row>
+    <row r="370" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="12"/>
       <c r="B370" s="30"/>
       <c r="C370" s="3"/>
-      <c r="D370" s="5"/>
-    </row>
-    <row r="371" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D370" s="41"/>
+      <c r="E370" s="46"/>
+      <c r="F370" s="48"/>
+      <c r="G370" s="48"/>
+      <c r="H370" s="46"/>
+    </row>
+    <row r="371" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="12"/>
       <c r="B371" s="30"/>
       <c r="C371" s="3"/>
-      <c r="D371" s="5"/>
-    </row>
-    <row r="372" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D371" s="41"/>
+      <c r="E371" s="46"/>
+      <c r="F371" s="48"/>
+      <c r="G371" s="48"/>
+      <c r="H371" s="46"/>
+    </row>
+    <row r="372" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="12"/>
       <c r="B372" s="30"/>
       <c r="C372" s="3"/>
-      <c r="D372" s="5"/>
-    </row>
-    <row r="373" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D372" s="41"/>
+      <c r="E372" s="46"/>
+      <c r="F372" s="48"/>
+      <c r="G372" s="48"/>
+      <c r="H372" s="46"/>
+    </row>
+    <row r="373" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="12"/>
       <c r="B373" s="30"/>
       <c r="C373" s="3"/>
-      <c r="D373" s="5"/>
-    </row>
-    <row r="374" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D373" s="41"/>
+      <c r="E373" s="46"/>
+      <c r="F373" s="48"/>
+      <c r="G373" s="48"/>
+      <c r="H373" s="46"/>
+    </row>
+    <row r="374" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="12"/>
       <c r="B374" s="30"/>
       <c r="C374" s="3"/>
-      <c r="D374" s="5"/>
-    </row>
-    <row r="375" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D374" s="41"/>
+      <c r="E374" s="46"/>
+      <c r="F374" s="48"/>
+      <c r="G374" s="48"/>
+      <c r="H374" s="46"/>
+    </row>
+    <row r="375" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="12"/>
       <c r="B375" s="30"/>
       <c r="C375" s="3"/>
-      <c r="D375" s="5"/>
-    </row>
-    <row r="376" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D375" s="41"/>
+      <c r="E375" s="46"/>
+      <c r="F375" s="48"/>
+      <c r="G375" s="48"/>
+      <c r="H375" s="46"/>
+    </row>
+    <row r="376" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="12"/>
       <c r="B376" s="30"/>
       <c r="C376" s="3"/>
-      <c r="D376" s="5"/>
-    </row>
-    <row r="377" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D376" s="41"/>
+      <c r="E376" s="46"/>
+      <c r="F376" s="48"/>
+      <c r="G376" s="48"/>
+      <c r="H376" s="46"/>
+    </row>
+    <row r="377" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="12"/>
       <c r="B377" s="30"/>
       <c r="C377" s="3"/>
-      <c r="D377" s="5"/>
-    </row>
-    <row r="378" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D377" s="41"/>
+      <c r="E377" s="46"/>
+      <c r="F377" s="48"/>
+      <c r="G377" s="48"/>
+      <c r="H377" s="46"/>
+    </row>
+    <row r="378" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="12"/>
       <c r="B378" s="30"/>
       <c r="C378" s="3"/>
-      <c r="D378" s="5"/>
-    </row>
-    <row r="379" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D378" s="41"/>
+      <c r="E378" s="46"/>
+      <c r="F378" s="48"/>
+      <c r="G378" s="48"/>
+      <c r="H378" s="46"/>
+    </row>
+    <row r="379" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="12"/>
       <c r="B379" s="30"/>
       <c r="C379" s="3"/>
-      <c r="D379" s="5"/>
-    </row>
-    <row r="380" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D379" s="41"/>
+      <c r="E379" s="46"/>
+      <c r="F379" s="48"/>
+      <c r="G379" s="48"/>
+      <c r="H379" s="46"/>
+    </row>
+    <row r="380" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="12"/>
       <c r="B380" s="30"/>
       <c r="C380" s="3"/>
-      <c r="D380" s="5"/>
-    </row>
-    <row r="381" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D380" s="41"/>
+      <c r="E380" s="46"/>
+      <c r="F380" s="48"/>
+      <c r="G380" s="48"/>
+      <c r="H380" s="46"/>
+    </row>
+    <row r="381" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="12"/>
       <c r="B381" s="30"/>
       <c r="C381" s="3"/>
-      <c r="D381" s="5"/>
-    </row>
-    <row r="382" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D381" s="41"/>
+      <c r="E381" s="46"/>
+      <c r="F381" s="48"/>
+      <c r="G381" s="48"/>
+      <c r="H381" s="46"/>
+    </row>
+    <row r="382" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="12"/>
       <c r="B382" s="30"/>
       <c r="C382" s="3"/>
-      <c r="D382" s="5"/>
-    </row>
-    <row r="383" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D382" s="41"/>
+      <c r="E382" s="46"/>
+      <c r="F382" s="48"/>
+      <c r="G382" s="48"/>
+      <c r="H382" s="46"/>
+    </row>
+    <row r="383" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="12"/>
       <c r="B383" s="30"/>
       <c r="C383" s="3"/>
-      <c r="D383" s="5"/>
-    </row>
-    <row r="384" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D383" s="41"/>
+      <c r="E383" s="46"/>
+      <c r="F383" s="48"/>
+      <c r="G383" s="48"/>
+      <c r="H383" s="46"/>
+    </row>
+    <row r="384" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="12"/>
       <c r="B384" s="30"/>
       <c r="C384" s="3"/>
-      <c r="D384" s="5"/>
-    </row>
-    <row r="385" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D384" s="41"/>
+      <c r="E384" s="46"/>
+      <c r="F384" s="48"/>
+      <c r="G384" s="48"/>
+      <c r="H384" s="46"/>
+    </row>
+    <row r="385" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="12"/>
       <c r="B385" s="30"/>
       <c r="C385" s="3"/>
-      <c r="D385" s="5"/>
-    </row>
-    <row r="386" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D385" s="41"/>
+      <c r="E385" s="46"/>
+      <c r="F385" s="48"/>
+      <c r="G385" s="48"/>
+      <c r="H385" s="46"/>
+    </row>
+    <row r="386" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="12"/>
       <c r="B386" s="30"/>
       <c r="C386" s="3"/>
-      <c r="D386" s="5"/>
-    </row>
-    <row r="387" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D386" s="41"/>
+      <c r="E386" s="46"/>
+      <c r="F386" s="48"/>
+      <c r="G386" s="48"/>
+      <c r="H386" s="46"/>
+    </row>
+    <row r="387" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="12"/>
       <c r="B387" s="30"/>
       <c r="C387" s="3"/>
-      <c r="D387" s="5"/>
-    </row>
-    <row r="388" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D387" s="41"/>
+      <c r="E387" s="46"/>
+      <c r="F387" s="48"/>
+      <c r="G387" s="48"/>
+      <c r="H387" s="46"/>
+    </row>
+    <row r="388" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="12"/>
       <c r="B388" s="30"/>
       <c r="C388" s="3"/>
-      <c r="D388" s="5"/>
-    </row>
-    <row r="389" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D388" s="41"/>
+      <c r="E388" s="46"/>
+      <c r="F388" s="48"/>
+      <c r="G388" s="48"/>
+      <c r="H388" s="46"/>
+    </row>
+    <row r="389" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="12"/>
       <c r="B389" s="30"/>
       <c r="C389" s="3"/>
-      <c r="D389" s="5"/>
-    </row>
-    <row r="390" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D389" s="41"/>
+      <c r="E389" s="46"/>
+      <c r="F389" s="48"/>
+      <c r="G389" s="48"/>
+      <c r="H389" s="46"/>
+    </row>
+    <row r="390" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="12"/>
       <c r="B390" s="30"/>
       <c r="C390" s="3"/>
-      <c r="D390" s="5"/>
-    </row>
-    <row r="391" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D390" s="41"/>
+      <c r="E390" s="46"/>
+      <c r="F390" s="48"/>
+      <c r="G390" s="48"/>
+      <c r="H390" s="46"/>
+    </row>
+    <row r="391" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="12"/>
       <c r="B391" s="30"/>
       <c r="C391" s="3"/>
-      <c r="D391" s="5"/>
-    </row>
-    <row r="392" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D391" s="41"/>
+      <c r="E391" s="46"/>
+      <c r="F391" s="48"/>
+      <c r="G391" s="48"/>
+      <c r="H391" s="46"/>
+    </row>
+    <row r="392" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="12"/>
       <c r="B392" s="30"/>
       <c r="C392" s="3"/>
-      <c r="D392" s="5"/>
-    </row>
-    <row r="393" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D392" s="41"/>
+      <c r="E392" s="46"/>
+      <c r="F392" s="48"/>
+      <c r="G392" s="48"/>
+      <c r="H392" s="46"/>
+    </row>
+    <row r="393" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="12"/>
       <c r="B393" s="30"/>
       <c r="C393" s="3"/>
-      <c r="D393" s="5"/>
-    </row>
-    <row r="394" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D393" s="41"/>
+      <c r="E393" s="46"/>
+      <c r="F393" s="48"/>
+      <c r="G393" s="48"/>
+      <c r="H393" s="46"/>
+    </row>
+    <row r="394" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="12"/>
       <c r="B394" s="30"/>
       <c r="C394" s="3"/>
-      <c r="D394" s="5"/>
-    </row>
-    <row r="395" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D394" s="41"/>
+      <c r="E394" s="46"/>
+      <c r="F394" s="48"/>
+      <c r="G394" s="48"/>
+      <c r="H394" s="46"/>
+    </row>
+    <row r="395" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="12"/>
       <c r="B395" s="30"/>
       <c r="C395" s="3"/>
-      <c r="D395" s="5"/>
-    </row>
-    <row r="396" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D395" s="41"/>
+      <c r="E395" s="46"/>
+      <c r="F395" s="48"/>
+      <c r="G395" s="48"/>
+      <c r="H395" s="46"/>
+    </row>
+    <row r="396" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="12"/>
       <c r="B396" s="30"/>
       <c r="C396" s="3"/>
-      <c r="D396" s="5"/>
-    </row>
-    <row r="397" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D396" s="41"/>
+      <c r="E396" s="46"/>
+      <c r="F396" s="48"/>
+      <c r="G396" s="48"/>
+      <c r="H396" s="46"/>
+    </row>
+    <row r="397" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="12"/>
       <c r="B397" s="30"/>
       <c r="C397" s="3"/>
-      <c r="D397" s="5"/>
-    </row>
-    <row r="398" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D397" s="41"/>
+      <c r="E397" s="46"/>
+      <c r="F397" s="48"/>
+      <c r="G397" s="48"/>
+      <c r="H397" s="46"/>
+    </row>
+    <row r="398" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="12"/>
       <c r="B398" s="30"/>
       <c r="C398" s="3"/>
-      <c r="D398" s="5"/>
-    </row>
-    <row r="399" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D398" s="41"/>
+      <c r="E398" s="46"/>
+      <c r="F398" s="48"/>
+      <c r="G398" s="48"/>
+      <c r="H398" s="46"/>
+    </row>
+    <row r="399" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="12"/>
       <c r="B399" s="30"/>
       <c r="C399" s="3"/>
-      <c r="D399" s="5"/>
-    </row>
-    <row r="400" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D399" s="41"/>
+      <c r="E399" s="46"/>
+      <c r="F399" s="48"/>
+      <c r="G399" s="48"/>
+      <c r="H399" s="46"/>
+    </row>
+    <row r="400" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="12"/>
       <c r="B400" s="30"/>
       <c r="C400" s="3"/>
-      <c r="D400" s="5"/>
-    </row>
-    <row r="401" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D400" s="41"/>
+      <c r="E400" s="46"/>
+      <c r="F400" s="48"/>
+      <c r="G400" s="48"/>
+      <c r="H400" s="46"/>
+    </row>
+    <row r="401" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="12"/>
       <c r="B401" s="30"/>
       <c r="C401" s="3"/>
-      <c r="D401" s="5"/>
-    </row>
-    <row r="402" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D401" s="41"/>
+      <c r="E401" s="46"/>
+      <c r="F401" s="48"/>
+      <c r="G401" s="48"/>
+      <c r="H401" s="46"/>
+    </row>
+    <row r="402" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="12"/>
       <c r="B402" s="30"/>
       <c r="C402" s="3"/>
-      <c r="D402" s="5"/>
-    </row>
-    <row r="403" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D402" s="41"/>
+      <c r="E402" s="46"/>
+      <c r="F402" s="48"/>
+      <c r="G402" s="48"/>
+      <c r="H402" s="46"/>
+    </row>
+    <row r="403" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="12"/>
       <c r="B403" s="30"/>
       <c r="C403" s="3"/>
-      <c r="D403" s="5"/>
-    </row>
-    <row r="404" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D403" s="41"/>
+      <c r="E403" s="46"/>
+      <c r="F403" s="48"/>
+      <c r="G403" s="48"/>
+      <c r="H403" s="46"/>
+    </row>
+    <row r="404" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="12"/>
       <c r="B404" s="30"/>
       <c r="C404" s="3"/>
-      <c r="D404" s="5"/>
-    </row>
-    <row r="405" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D404" s="41"/>
+      <c r="E404" s="46"/>
+      <c r="F404" s="48"/>
+      <c r="G404" s="48"/>
+      <c r="H404" s="46"/>
+    </row>
+    <row r="405" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="12"/>
       <c r="B405" s="30"/>
       <c r="C405" s="3"/>
-      <c r="D405" s="5"/>
-    </row>
-    <row r="406" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D405" s="41"/>
+      <c r="E405" s="46"/>
+      <c r="F405" s="48"/>
+      <c r="G405" s="48"/>
+      <c r="H405" s="46"/>
+    </row>
+    <row r="406" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="12"/>
       <c r="B406" s="30"/>
       <c r="C406" s="3"/>
-      <c r="D406" s="5"/>
-    </row>
-    <row r="407" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D406" s="41"/>
+      <c r="E406" s="46"/>
+      <c r="F406" s="48"/>
+      <c r="G406" s="48"/>
+      <c r="H406" s="46"/>
+    </row>
+    <row r="407" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="12"/>
       <c r="B407" s="30"/>
       <c r="C407" s="3"/>
-      <c r="D407" s="5"/>
-    </row>
-    <row r="408" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D407" s="41"/>
+      <c r="E407" s="46"/>
+      <c r="F407" s="48"/>
+      <c r="G407" s="48"/>
+      <c r="H407" s="46"/>
+    </row>
+    <row r="408" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="12"/>
       <c r="B408" s="30"/>
       <c r="C408" s="3"/>
-      <c r="D408" s="5"/>
-    </row>
-    <row r="409" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D408" s="41"/>
+      <c r="E408" s="46"/>
+      <c r="F408" s="48"/>
+      <c r="G408" s="48"/>
+      <c r="H408" s="46"/>
+    </row>
+    <row r="409" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="12"/>
       <c r="B409" s="31"/>
       <c r="C409" s="3"/>
-      <c r="D409" s="5"/>
-    </row>
-    <row r="410" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D409" s="41"/>
+      <c r="E409" s="46"/>
+      <c r="F409" s="48"/>
+      <c r="G409" s="48"/>
+      <c r="H409" s="46"/>
+    </row>
+    <row r="410" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="12"/>
       <c r="B410" s="30"/>
       <c r="C410" s="3"/>
-      <c r="D410" s="7"/>
-    </row>
-    <row r="411" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D410" s="37"/>
+      <c r="E410" s="46"/>
+      <c r="F410" s="48"/>
+      <c r="G410" s="48"/>
+      <c r="H410" s="46"/>
+    </row>
+    <row r="411" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="12"/>
       <c r="B411" s="25"/>
       <c r="C411" s="3"/>
-      <c r="D411" s="7"/>
-    </row>
-    <row r="412" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D411" s="37"/>
+      <c r="E411" s="46"/>
+      <c r="F411" s="48"/>
+      <c r="G411" s="48"/>
+      <c r="H411" s="46"/>
+    </row>
+    <row r="412" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="12"/>
       <c r="B412" s="6"/>
       <c r="C412" s="3"/>
-      <c r="D412" s="12"/>
-    </row>
-    <row r="413" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D412" s="42"/>
+      <c r="E412" s="46"/>
+      <c r="F412" s="48"/>
+      <c r="G412" s="48"/>
+      <c r="H412" s="46"/>
+    </row>
+    <row r="413" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="12"/>
       <c r="B413" s="6"/>
       <c r="C413" s="3"/>
-      <c r="D413" s="12"/>
-    </row>
-    <row r="414" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D413" s="42"/>
+      <c r="E413" s="46"/>
+      <c r="F413" s="48"/>
+      <c r="G413" s="48"/>
+      <c r="H413" s="46"/>
+    </row>
+    <row r="414" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="12"/>
       <c r="B414" s="6"/>
       <c r="C414" s="3"/>
-      <c r="D414" s="12"/>
-    </row>
-    <row r="415" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D414" s="42"/>
+      <c r="E414" s="46"/>
+      <c r="F414" s="48"/>
+      <c r="G414" s="48"/>
+      <c r="H414" s="46"/>
+    </row>
+    <row r="415" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="12"/>
       <c r="B415" s="6"/>
       <c r="C415" s="3"/>
-      <c r="D415" s="12"/>
-    </row>
-    <row r="416" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D415" s="42"/>
+      <c r="E415" s="46"/>
+      <c r="F415" s="48"/>
+      <c r="G415" s="48"/>
+      <c r="H415" s="46"/>
+    </row>
+    <row r="416" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="13"/>
       <c r="B416" s="6"/>
       <c r="C416" s="3"/>
-      <c r="D416" s="12"/>
-    </row>
-    <row r="417" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D416" s="42"/>
+      <c r="E416" s="46"/>
+      <c r="F416" s="48"/>
+      <c r="G416" s="48"/>
+      <c r="H416" s="46"/>
+    </row>
+    <row r="417" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="13"/>
       <c r="B417" s="25"/>
       <c r="C417" s="3"/>
-      <c r="D417" s="13"/>
-    </row>
-    <row r="418" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D417" s="40"/>
+      <c r="E417" s="46"/>
+      <c r="F417" s="48"/>
+      <c r="G417" s="48"/>
+      <c r="H417" s="46"/>
+    </row>
+    <row r="418" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="12"/>
       <c r="B418" s="5"/>
       <c r="C418" s="3"/>
-      <c r="D418" s="5"/>
-    </row>
-    <row r="419" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D418" s="41"/>
+      <c r="E418" s="46"/>
+      <c r="F418" s="48"/>
+      <c r="G418" s="48"/>
+      <c r="H418" s="46"/>
+    </row>
+    <row r="419" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="13"/>
       <c r="B419" s="7"/>
       <c r="C419" s="3"/>
-      <c r="D419" s="7"/>
-    </row>
-    <row r="420" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D419" s="37"/>
+      <c r="E419" s="46"/>
+      <c r="F419" s="48"/>
+      <c r="G419" s="48"/>
+      <c r="H419" s="46"/>
+    </row>
+    <row r="420" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="12"/>
       <c r="B420" s="5"/>
       <c r="C420" s="3"/>
-      <c r="D420" s="5"/>
-    </row>
-    <row r="421" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D420" s="41"/>
+      <c r="E420" s="46"/>
+      <c r="F420" s="48"/>
+      <c r="G420" s="48"/>
+      <c r="H420" s="46"/>
+    </row>
+    <row r="421" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="12"/>
       <c r="B421" s="5"/>
       <c r="C421" s="3"/>
-      <c r="D421" s="5"/>
-    </row>
-    <row r="422" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D421" s="41"/>
+      <c r="E421" s="46"/>
+      <c r="F421" s="48"/>
+      <c r="G421" s="48"/>
+      <c r="H421" s="46"/>
+    </row>
+    <row r="422" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="12"/>
       <c r="B422" s="5"/>
       <c r="C422" s="3"/>
-      <c r="D422" s="5"/>
-    </row>
-    <row r="423" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D422" s="41"/>
+      <c r="E422" s="46"/>
+      <c r="F422" s="48"/>
+      <c r="G422" s="48"/>
+      <c r="H422" s="46"/>
+    </row>
+    <row r="423" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="12"/>
       <c r="B423" s="5"/>
       <c r="C423" s="3"/>
-      <c r="D423" s="5"/>
-    </row>
-    <row r="424" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D423" s="41"/>
+      <c r="E423" s="46"/>
+      <c r="F423" s="48"/>
+      <c r="G423" s="48"/>
+      <c r="H423" s="46"/>
+    </row>
+    <row r="424" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="32"/>
       <c r="B424" s="33"/>
       <c r="C424" s="3"/>
-      <c r="D424" s="32"/>
-    </row>
-    <row r="425" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D424" s="44"/>
+      <c r="E424" s="46"/>
+      <c r="F424" s="48"/>
+      <c r="G424" s="48"/>
+      <c r="H424" s="46"/>
+    </row>
+    <row r="425" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="13"/>
       <c r="B425" s="7"/>
       <c r="C425" s="3"/>
-      <c r="D425" s="13"/>
-    </row>
-    <row r="426" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D425" s="40"/>
+      <c r="E425" s="46"/>
+      <c r="F425" s="48"/>
+      <c r="G425" s="48"/>
+      <c r="H425" s="46"/>
+    </row>
+    <row r="426" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="10"/>
       <c r="B426" s="11"/>
       <c r="C426" s="3"/>
-      <c r="D426" s="11"/>
-    </row>
-    <row r="427" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D426" s="45"/>
+      <c r="E426" s="46"/>
+      <c r="F426" s="48"/>
+      <c r="G426" s="48"/>
+      <c r="H426" s="46"/>
+    </row>
+    <row r="427" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
       <c r="D427" s="8"/>
-    </row>
-    <row r="428" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E427" s="46"/>
+      <c r="F427" s="48"/>
+      <c r="G427" s="48"/>
+      <c r="H427" s="46"/>
+    </row>
+    <row r="428" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="27"/>
       <c r="B428" s="28"/>
       <c r="C428" s="28"/>
       <c r="D428" s="34"/>
-    </row>
-    <row r="429" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E428" s="46"/>
+      <c r="F428" s="48"/>
+      <c r="G428" s="48"/>
+      <c r="H428" s="46"/>
+    </row>
+    <row r="429" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="12"/>
       <c r="B429" s="21"/>
       <c r="C429" s="21"/>
       <c r="D429" s="35"/>
-    </row>
-    <row r="430" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E429" s="46"/>
+      <c r="F429" s="48"/>
+      <c r="G429" s="48"/>
+      <c r="H429" s="46"/>
+    </row>
+    <row r="430" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="12"/>
       <c r="B430" s="21"/>
       <c r="C430" s="21"/>
       <c r="D430" s="35"/>
-    </row>
-    <row r="431" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E430" s="46"/>
+      <c r="F430" s="48"/>
+      <c r="G430" s="48"/>
+      <c r="H430" s="46"/>
+    </row>
+    <row r="431" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="12"/>
       <c r="B431" s="21"/>
       <c r="C431" s="21"/>
       <c r="D431" s="35"/>
-    </row>
-    <row r="432" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E431" s="46"/>
+      <c r="F431" s="48"/>
+      <c r="G431" s="48"/>
+      <c r="H431" s="46"/>
+    </row>
+    <row r="432" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="12"/>
       <c r="B432" s="21"/>
       <c r="C432" s="21"/>
       <c r="D432" s="35"/>
-    </row>
-    <row r="433" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E432" s="46"/>
+      <c r="F432" s="48"/>
+      <c r="G432" s="48"/>
+      <c r="H432" s="46"/>
+    </row>
+    <row r="433" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="12"/>
       <c r="B433" s="21"/>
       <c r="C433" s="21"/>
       <c r="D433" s="35"/>
-    </row>
-    <row r="434" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E433" s="46"/>
+      <c r="F433" s="48"/>
+      <c r="G433" s="48"/>
+      <c r="H433" s="46"/>
+    </row>
+    <row r="434" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="12"/>
       <c r="B434" s="21"/>
       <c r="C434" s="21"/>
       <c r="D434" s="35"/>
-    </row>
-    <row r="435" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E434" s="46"/>
+      <c r="F434" s="48"/>
+      <c r="G434" s="48"/>
+      <c r="H434" s="46"/>
+    </row>
+    <row r="435" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="12"/>
       <c r="B435" s="21"/>
       <c r="C435" s="21"/>
       <c r="D435" s="35"/>
-    </row>
-    <row r="436" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E435" s="46"/>
+      <c r="F435" s="48"/>
+      <c r="G435" s="48"/>
+      <c r="H435" s="46"/>
+    </row>
+    <row r="436" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="10"/>
       <c r="B436" s="11"/>
       <c r="C436" s="21"/>
       <c r="D436" s="35"/>
-    </row>
-    <row r="437" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E436" s="46"/>
+      <c r="F436" s="48"/>
+      <c r="G436" s="48"/>
+      <c r="H436" s="46"/>
+    </row>
+    <row r="437" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="12"/>
       <c r="B437" s="21"/>
       <c r="C437" s="21"/>
       <c r="D437" s="35"/>
-    </row>
-    <row r="438" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E437" s="46"/>
+      <c r="F437" s="48"/>
+      <c r="G437" s="48"/>
+      <c r="H437" s="46"/>
+    </row>
+    <row r="438" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="12"/>
       <c r="B438" s="21"/>
       <c r="C438" s="21"/>
       <c r="D438" s="35"/>
-    </row>
-    <row r="439" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E438" s="46"/>
+      <c r="F438" s="48"/>
+      <c r="G438" s="48"/>
+      <c r="H438" s="46"/>
+    </row>
+    <row r="439" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="12"/>
       <c r="B439" s="21"/>
       <c r="C439" s="21"/>
       <c r="D439" s="35"/>
-    </row>
-    <row r="440" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E439" s="46"/>
+      <c r="F439" s="48"/>
+      <c r="G439" s="48"/>
+      <c r="H439" s="46"/>
+    </row>
+    <row r="440" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="13"/>
       <c r="B440" s="29"/>
       <c r="C440" s="29"/>
       <c r="D440" s="36"/>
-    </row>
-    <row r="441" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E440" s="46"/>
+      <c r="F440" s="48"/>
+      <c r="G440" s="48"/>
+      <c r="H440" s="46"/>
+    </row>
+    <row r="441" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="12"/>
       <c r="B441" s="5"/>
       <c r="C441" s="12"/>
-      <c r="D441" s="12"/>
-    </row>
-    <row r="442" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D441" s="42"/>
+      <c r="E441" s="46"/>
+      <c r="F441" s="48"/>
+      <c r="G441" s="48"/>
+      <c r="H441" s="46"/>
+    </row>
+    <row r="442" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="10"/>
       <c r="B442" s="11"/>
       <c r="C442" s="11"/>
-      <c r="D442" s="12"/>
-    </row>
-    <row r="443" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D442" s="42"/>
+      <c r="E442" s="46"/>
+      <c r="F442" s="48"/>
+      <c r="G442" s="48"/>
+      <c r="H442" s="46"/>
+    </row>
+    <row r="443" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="10"/>
       <c r="B443" s="5"/>
       <c r="C443" s="11"/>
-      <c r="D443" s="12"/>
-    </row>
-    <row r="444" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D443" s="42"/>
+      <c r="E443" s="46"/>
+      <c r="F443" s="48"/>
+      <c r="G443" s="48"/>
+      <c r="H443" s="46"/>
+    </row>
+    <row r="444" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="10"/>
       <c r="B444" s="5"/>
       <c r="C444" s="11"/>
-      <c r="D444" s="12"/>
-    </row>
-    <row r="445" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D444" s="42"/>
+      <c r="E444" s="46"/>
+      <c r="F444" s="48"/>
+      <c r="G444" s="48"/>
+      <c r="H444" s="46"/>
+    </row>
+    <row r="445" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="10"/>
       <c r="B445" s="5"/>
       <c r="C445" s="11"/>
-      <c r="D445" s="12"/>
-    </row>
-    <row r="446" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D445" s="42"/>
+      <c r="E445" s="46"/>
+      <c r="F445" s="48"/>
+      <c r="G445" s="48"/>
+      <c r="H445" s="46"/>
+    </row>
+    <row r="446" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="10"/>
       <c r="B446" s="5"/>
       <c r="C446" s="11"/>
-      <c r="D446" s="12"/>
-    </row>
-    <row r="447" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D446" s="42"/>
+      <c r="E446" s="46"/>
+      <c r="F446" s="48"/>
+      <c r="G446" s="48"/>
+      <c r="H446" s="46"/>
+    </row>
+    <row r="447" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="10"/>
       <c r="B447" s="5"/>
       <c r="C447" s="11"/>
-      <c r="D447" s="12"/>
-    </row>
-    <row r="448" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D447" s="42"/>
+      <c r="E447" s="46"/>
+      <c r="F447" s="48"/>
+      <c r="G447" s="48"/>
+      <c r="H447" s="46"/>
+    </row>
+    <row r="448" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="10"/>
       <c r="B448" s="5"/>
       <c r="C448" s="11"/>
-      <c r="D448" s="12"/>
-    </row>
-    <row r="449" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D448" s="42"/>
+      <c r="E448" s="46"/>
+      <c r="F448" s="48"/>
+      <c r="G448" s="48"/>
+      <c r="H448" s="46"/>
+    </row>
+    <row r="449" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="10"/>
       <c r="B449" s="5"/>
       <c r="C449" s="11"/>
-      <c r="D449" s="12"/>
-    </row>
-    <row r="450" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D449" s="42"/>
+      <c r="E449" s="46"/>
+      <c r="F449" s="48"/>
+      <c r="G449" s="48"/>
+      <c r="H449" s="46"/>
+    </row>
+    <row r="450" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="10"/>
       <c r="B450" s="5"/>
       <c r="C450" s="11"/>
-      <c r="D450" s="12"/>
-    </row>
-    <row r="451" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D450" s="42"/>
+      <c r="E450" s="46"/>
+      <c r="F450" s="48"/>
+      <c r="G450" s="48"/>
+      <c r="H450" s="46"/>
+    </row>
+    <row r="451" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="10"/>
       <c r="B451" s="5"/>
       <c r="C451" s="11"/>
-      <c r="D451" s="12"/>
-    </row>
-    <row r="452" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D451" s="42"/>
+      <c r="E451" s="46"/>
+      <c r="F451" s="48"/>
+      <c r="G451" s="48"/>
+      <c r="H451" s="46"/>
+    </row>
+    <row r="452" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="14"/>
       <c r="B452" s="7"/>
-      <c r="D452" s="12"/>
-    </row>
-    <row r="453" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D452" s="42"/>
+      <c r="E452" s="46"/>
+      <c r="F452" s="48"/>
+      <c r="G452" s="48"/>
+      <c r="H452" s="46"/>
+    </row>
+    <row r="453" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="14"/>
       <c r="B453" s="7"/>
-      <c r="D453" s="12"/>
-    </row>
-    <row r="454" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D453" s="42"/>
+      <c r="E453" s="46"/>
+      <c r="F453" s="48"/>
+      <c r="G453" s="48"/>
+      <c r="H453" s="46"/>
+    </row>
+    <row r="454" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="14"/>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
-      <c r="D454" s="12"/>
-    </row>
-    <row r="455" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D454" s="42"/>
+      <c r="E454" s="46"/>
+      <c r="F454" s="48"/>
+      <c r="G454" s="48"/>
+      <c r="H454" s="46"/>
+    </row>
+    <row r="455" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="14"/>
       <c r="B455" s="24"/>
       <c r="C455" s="14"/>
-      <c r="D455" s="12"/>
-    </row>
-    <row r="456" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D455" s="42"/>
+      <c r="E455" s="46"/>
+      <c r="F455" s="48"/>
+      <c r="G455" s="48"/>
+      <c r="H455" s="46"/>
+    </row>
+    <row r="456" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="11"/>
       <c r="B456" s="11"/>
       <c r="C456" s="11"/>
-      <c r="D456" s="12"/>
-    </row>
-    <row r="457" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D456" s="42"/>
+      <c r="E456" s="46"/>
+      <c r="F456" s="48"/>
+      <c r="G456" s="48"/>
+      <c r="H456" s="46"/>
+    </row>
+    <row r="457" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="11"/>
       <c r="B457" s="11"/>
       <c r="C457" s="11"/>
-      <c r="D457" s="12"/>
-    </row>
-    <row r="458" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D457" s="42"/>
+      <c r="E457" s="46"/>
+      <c r="F457" s="48"/>
+      <c r="G457" s="48"/>
+      <c r="H457" s="46"/>
+    </row>
+    <row r="458" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="11"/>
       <c r="B458" s="5"/>
       <c r="C458" s="11"/>
-      <c r="D458" s="12"/>
-    </row>
-    <row r="459" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D458" s="42"/>
+      <c r="E458" s="46"/>
+      <c r="F458" s="48"/>
+      <c r="G458" s="48"/>
+      <c r="H458" s="46"/>
+    </row>
+    <row r="459" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="11"/>
       <c r="B459" s="11"/>
       <c r="C459" s="11"/>
-      <c r="D459" s="12"/>
-    </row>
-    <row r="460" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D459" s="42"/>
+      <c r="E459" s="46"/>
+      <c r="F459" s="48"/>
+      <c r="G459" s="48"/>
+      <c r="H459" s="46"/>
+    </row>
+    <row r="460" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="24"/>
       <c r="B460" s="24"/>
       <c r="C460" s="24"/>
-      <c r="D460" s="12"/>
-    </row>
-    <row r="461" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D460" s="42"/>
+      <c r="E460" s="46"/>
+      <c r="F460" s="48"/>
+      <c r="G460" s="48"/>
+      <c r="H460" s="46"/>
+    </row>
+    <row r="461" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="12"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
-      <c r="D461" s="12"/>
-    </row>
-    <row r="462" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D461" s="42"/>
+      <c r="E461" s="46"/>
+      <c r="F461" s="48"/>
+      <c r="G461" s="48"/>
+      <c r="H461" s="46"/>
+    </row>
+    <row r="462" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="12"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
-      <c r="D462" s="12"/>
-    </row>
-    <row r="463" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D462" s="42"/>
+      <c r="E462" s="46"/>
+      <c r="F462" s="48"/>
+      <c r="G462" s="48"/>
+      <c r="H462" s="46"/>
+    </row>
+    <row r="463" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="12"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
-      <c r="D463" s="12"/>
-    </row>
-    <row r="464" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D463" s="42"/>
+      <c r="E463" s="46"/>
+      <c r="F463" s="48"/>
+      <c r="G463" s="48"/>
+      <c r="H463" s="46"/>
+    </row>
+    <row r="464" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="12"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
-      <c r="D464" s="12"/>
-    </row>
-    <row r="465" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D464" s="42"/>
+      <c r="E464" s="46"/>
+      <c r="F464" s="48"/>
+      <c r="G464" s="48"/>
+      <c r="H464" s="46"/>
+    </row>
+    <row r="465" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="12"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
-      <c r="D465" s="12"/>
-    </row>
-    <row r="466" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D465" s="42"/>
+      <c r="E465" s="46"/>
+      <c r="F465" s="48"/>
+      <c r="G465" s="48"/>
+      <c r="H465" s="46"/>
+    </row>
+    <row r="466" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="10"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
-      <c r="D466" s="12"/>
-    </row>
-    <row r="467" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D466" s="42"/>
+      <c r="E466" s="46"/>
+      <c r="F466" s="48"/>
+      <c r="G466" s="48"/>
+      <c r="H466" s="46"/>
+    </row>
+    <row r="467" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="10"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
-      <c r="D467" s="12"/>
-    </row>
-    <row r="468" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D467" s="42"/>
+      <c r="E467" s="46"/>
+      <c r="F467" s="48"/>
+      <c r="G467" s="48"/>
+      <c r="H467" s="46"/>
+    </row>
+    <row r="468" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="10"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
-      <c r="D468" s="12"/>
-    </row>
-    <row r="469" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D468" s="42"/>
+      <c r="E468" s="46"/>
+      <c r="F468" s="48"/>
+      <c r="G468" s="48"/>
+      <c r="H468" s="46"/>
+    </row>
+    <row r="469" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="10"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
-      <c r="D469" s="12"/>
-    </row>
-    <row r="470" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D469" s="42"/>
+      <c r="E469" s="46"/>
+      <c r="F469" s="48"/>
+      <c r="G469" s="48"/>
+      <c r="H469" s="46"/>
+    </row>
+    <row r="470" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="10"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
-      <c r="D470" s="12"/>
-    </row>
-    <row r="471" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D470" s="42"/>
+      <c r="E470" s="46"/>
+      <c r="F470" s="48"/>
+      <c r="G470" s="48"/>
+      <c r="H470" s="46"/>
+    </row>
+    <row r="471" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="14"/>
       <c r="B471" s="7"/>
       <c r="C471" s="5"/>
-      <c r="D471" s="12"/>
-    </row>
-    <row r="472" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D471" s="42"/>
+      <c r="E471" s="46"/>
+      <c r="F471" s="48"/>
+      <c r="G471" s="48"/>
+      <c r="H471" s="46"/>
+    </row>
+    <row r="472" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="10"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
-      <c r="D472" s="12"/>
-    </row>
-    <row r="473" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D472" s="42"/>
+      <c r="E472" s="46"/>
+      <c r="F472" s="48"/>
+      <c r="G472" s="48"/>
+      <c r="H472" s="46"/>
+    </row>
+    <row r="473" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="10"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
-      <c r="D473" s="12"/>
-    </row>
-    <row r="474" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D473" s="42"/>
+      <c r="E473" s="46"/>
+      <c r="F473" s="48"/>
+      <c r="G473" s="48"/>
+      <c r="H473" s="46"/>
+    </row>
+    <row r="474" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="10"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
-      <c r="D474" s="12"/>
-    </row>
-    <row r="475" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D474" s="42"/>
+      <c r="E474" s="46"/>
+      <c r="F474" s="48"/>
+      <c r="G474" s="48"/>
+      <c r="H474" s="46"/>
+    </row>
+    <row r="475" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="10"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
-      <c r="D475" s="12"/>
-    </row>
-    <row r="476" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D475" s="42"/>
+      <c r="E475" s="46"/>
+      <c r="F475" s="48"/>
+      <c r="G475" s="48"/>
+      <c r="H475" s="46"/>
+    </row>
+    <row r="476" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="14"/>
       <c r="B476" s="37"/>
       <c r="C476" s="5"/>
-      <c r="D476" s="12"/>
-    </row>
-    <row r="477" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D476" s="42"/>
+      <c r="E476" s="46"/>
+      <c r="F476" s="48"/>
+      <c r="G476" s="48"/>
+      <c r="H476" s="46"/>
+    </row>
+    <row r="477" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="10"/>
       <c r="B477" s="11"/>
       <c r="C477" s="5"/>
-      <c r="D477" s="12"/>
-    </row>
-    <row r="478" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D477" s="42"/>
+      <c r="E477" s="46"/>
+      <c r="F477" s="48"/>
+      <c r="G477" s="48"/>
+      <c r="H477" s="46"/>
+    </row>
+    <row r="478" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="10"/>
       <c r="B478" s="11"/>
       <c r="C478" s="5"/>
-      <c r="D478" s="12"/>
-    </row>
-    <row r="479" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D478" s="42"/>
+      <c r="E478" s="46"/>
+      <c r="F478" s="48"/>
+      <c r="G478" s="48"/>
+      <c r="H478" s="46"/>
+    </row>
+    <row r="479" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="10"/>
       <c r="B479" s="11"/>
       <c r="C479" s="5"/>
-      <c r="D479" s="12"/>
-    </row>
-    <row r="480" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D479" s="42"/>
+      <c r="E479" s="46"/>
+      <c r="F479" s="48"/>
+      <c r="G479" s="48"/>
+      <c r="H479" s="46"/>
+    </row>
+    <row r="480" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="10"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
-      <c r="D480" s="12"/>
-    </row>
-    <row r="481" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D480" s="42"/>
+      <c r="E480" s="46"/>
+      <c r="F480" s="48"/>
+      <c r="G480" s="48"/>
+      <c r="H480" s="46"/>
+    </row>
+    <row r="481" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="10"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
-      <c r="D481" s="12"/>
-    </row>
-    <row r="482" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D481" s="42"/>
+      <c r="E481" s="46"/>
+      <c r="F481" s="48"/>
+      <c r="G481" s="48"/>
+      <c r="H481" s="46"/>
+    </row>
+    <row r="482" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="12"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
-      <c r="D482" s="12"/>
-    </row>
-    <row r="483" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D482" s="42"/>
+      <c r="E482" s="46"/>
+      <c r="F482" s="48"/>
+      <c r="G482" s="48"/>
+      <c r="H482" s="46"/>
+    </row>
+    <row r="483" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="12"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
-      <c r="D483" s="12"/>
-    </row>
-    <row r="484" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D483" s="42"/>
+      <c r="E483" s="46"/>
+      <c r="F483" s="48"/>
+      <c r="G483" s="48"/>
+      <c r="H483" s="46"/>
+    </row>
+    <row r="484" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="10"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
-      <c r="D484" s="12"/>
-    </row>
-    <row r="485" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D484" s="42"/>
+      <c r="E484" s="46"/>
+      <c r="F484" s="48"/>
+      <c r="G484" s="48"/>
+      <c r="H484" s="46"/>
+    </row>
+    <row r="485" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="12"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
-      <c r="D485" s="12"/>
-    </row>
-    <row r="486" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D485" s="42"/>
+      <c r="E485" s="46"/>
+      <c r="F485" s="48"/>
+      <c r="G485" s="48"/>
+      <c r="H485" s="46"/>
+    </row>
+    <row r="486" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="10"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
-      <c r="D486" s="12"/>
-    </row>
-    <row r="487" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D486" s="42"/>
+      <c r="E486" s="46"/>
+      <c r="F486" s="48"/>
+      <c r="G486" s="48"/>
+      <c r="H486" s="46"/>
+    </row>
+    <row r="487" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="10"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
-      <c r="D487" s="12"/>
-    </row>
-    <row r="488" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D487" s="42"/>
+      <c r="E487" s="46"/>
+      <c r="F487" s="48"/>
+      <c r="G487" s="48"/>
+      <c r="H487" s="46"/>
+    </row>
+    <row r="488" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="10"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
-      <c r="D488" s="12"/>
-    </row>
-    <row r="489" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D488" s="42"/>
+      <c r="E488" s="46"/>
+      <c r="F488" s="48"/>
+      <c r="G488" s="48"/>
+      <c r="H488" s="46"/>
+    </row>
+    <row r="489" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="10"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
-      <c r="D489" s="12"/>
-    </row>
-    <row r="490" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D489" s="42"/>
+      <c r="E489" s="46"/>
+      <c r="F489" s="48"/>
+      <c r="G489" s="48"/>
+      <c r="H489" s="46"/>
+    </row>
+    <row r="490" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="10"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
-      <c r="D490" s="12"/>
-    </row>
-    <row r="491" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D490" s="42"/>
+      <c r="E490" s="46"/>
+      <c r="F490" s="48"/>
+      <c r="G490" s="48"/>
+      <c r="H490" s="46"/>
+    </row>
+    <row r="491" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="10"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
-      <c r="D491" s="12"/>
-    </row>
-    <row r="492" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D491" s="42"/>
+      <c r="E491" s="46"/>
+      <c r="F491" s="48"/>
+      <c r="G491" s="48"/>
+      <c r="H491" s="46"/>
+    </row>
+    <row r="492" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="10"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
-      <c r="D492" s="12"/>
-    </row>
-    <row r="493" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D492" s="42"/>
+      <c r="E492" s="46"/>
+      <c r="F492" s="48"/>
+      <c r="G492" s="48"/>
+      <c r="H492" s="46"/>
+    </row>
+    <row r="493" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="10"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
-      <c r="D493" s="12"/>
-    </row>
-    <row r="494" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D493" s="42"/>
+      <c r="E493" s="46"/>
+      <c r="F493" s="48"/>
+      <c r="G493" s="48"/>
+      <c r="H493" s="46"/>
+    </row>
+    <row r="494" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="12"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
-      <c r="D494" s="12"/>
-    </row>
-    <row r="495" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D494" s="42"/>
+      <c r="E494" s="46"/>
+      <c r="F494" s="48"/>
+      <c r="G494" s="48"/>
+      <c r="H494" s="46"/>
+    </row>
+    <row r="495" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="10"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
-      <c r="D495" s="12"/>
-    </row>
-    <row r="496" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D495" s="42"/>
+      <c r="E495" s="46"/>
+      <c r="F495" s="48"/>
+      <c r="G495" s="48"/>
+      <c r="H495" s="46"/>
+    </row>
+    <row r="496" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="10"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
-      <c r="D496" s="12"/>
-    </row>
-    <row r="497" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D496" s="42"/>
+      <c r="E496" s="46"/>
+      <c r="F496" s="48"/>
+      <c r="G496" s="48"/>
+      <c r="H496" s="46"/>
+    </row>
+    <row r="497" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="10"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
-      <c r="D497" s="12"/>
-    </row>
-    <row r="498" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D497" s="42"/>
+      <c r="E497" s="46"/>
+      <c r="F497" s="48"/>
+      <c r="G497" s="48"/>
+      <c r="H497" s="46"/>
+    </row>
+    <row r="498" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="10"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
-      <c r="D498" s="12"/>
-    </row>
-    <row r="499" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D498" s="42"/>
+      <c r="E498" s="46"/>
+      <c r="F498" s="48"/>
+      <c r="G498" s="48"/>
+      <c r="H498" s="46"/>
+    </row>
+    <row r="499" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="10"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
-      <c r="D499" s="12"/>
-    </row>
-    <row r="500" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D499" s="42"/>
+      <c r="E499" s="46"/>
+      <c r="F499" s="48"/>
+      <c r="G499" s="48"/>
+      <c r="H499" s="46"/>
+    </row>
+    <row r="500" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="10"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
-      <c r="D500" s="12"/>
-    </row>
-    <row r="501" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D500" s="42"/>
+      <c r="E500" s="46"/>
+      <c r="F500" s="48"/>
+      <c r="G500" s="48"/>
+      <c r="H500" s="46"/>
+    </row>
+    <row r="501" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="10"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
-      <c r="D501" s="12"/>
-    </row>
-    <row r="502" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D501" s="42"/>
+      <c r="E501" s="46"/>
+      <c r="F501" s="48"/>
+      <c r="G501" s="48"/>
+      <c r="H501" s="46"/>
+    </row>
+    <row r="502" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="10"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
-      <c r="D502" s="12"/>
-    </row>
-    <row r="503" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D502" s="42"/>
+      <c r="E502" s="46"/>
+      <c r="F502" s="48"/>
+      <c r="G502" s="48"/>
+      <c r="H502" s="46"/>
+    </row>
+    <row r="503" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="10"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
-      <c r="D503" s="12"/>
-    </row>
-    <row r="504" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D503" s="42"/>
+      <c r="E503" s="46"/>
+      <c r="F503" s="48"/>
+      <c r="G503" s="48"/>
+      <c r="H503" s="46"/>
+    </row>
+    <row r="504" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="12"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
-      <c r="D504" s="12"/>
-    </row>
-    <row r="505" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D504" s="42"/>
+      <c r="E504" s="46"/>
+      <c r="F504" s="48"/>
+      <c r="G504" s="48"/>
+      <c r="H504" s="46"/>
+    </row>
+    <row r="505" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="12"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
-      <c r="D505" s="12"/>
-    </row>
-    <row r="506" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D505" s="42"/>
+      <c r="E505" s="46"/>
+      <c r="F505" s="48"/>
+      <c r="G505" s="48"/>
+      <c r="H505" s="46"/>
+    </row>
+    <row r="506" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="12"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
-      <c r="D506" s="12"/>
-    </row>
-    <row r="507" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D506" s="42"/>
+      <c r="E506" s="46"/>
+      <c r="F506" s="48"/>
+      <c r="G506" s="48"/>
+      <c r="H506" s="46"/>
+    </row>
+    <row r="507" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="12"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
-      <c r="D507" s="12"/>
-    </row>
-    <row r="508" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D507" s="42"/>
+      <c r="E507" s="46"/>
+      <c r="F507" s="48"/>
+      <c r="G507" s="48"/>
+      <c r="H507" s="46"/>
+    </row>
+    <row r="508" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="10"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
-      <c r="D508" s="12"/>
-    </row>
-    <row r="509" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D508" s="42"/>
+      <c r="E508" s="46"/>
+      <c r="F508" s="48"/>
+      <c r="G508" s="48"/>
+      <c r="H508" s="46"/>
+    </row>
+    <row r="509" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="11"/>
       <c r="B509" s="11"/>
       <c r="C509" s="10"/>
-      <c r="D509" s="12"/>
-    </row>
-    <row r="510" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D509" s="42"/>
+      <c r="E509" s="46"/>
+      <c r="F509" s="48"/>
+      <c r="G509" s="48"/>
+      <c r="H509" s="46"/>
+    </row>
+    <row r="510" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="11"/>
       <c r="B510" s="11"/>
       <c r="C510" s="10"/>
-      <c r="D510" s="12"/>
-    </row>
-    <row r="511" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D510" s="42"/>
+      <c r="E510" s="46"/>
+      <c r="F510" s="48"/>
+      <c r="G510" s="48"/>
+      <c r="H510" s="46"/>
+    </row>
+    <row r="511" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="11"/>
       <c r="B511" s="11"/>
       <c r="C511" s="10"/>
       <c r="D511" s="12"/>
     </row>
-    <row r="512" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="5"/>
       <c r="B512" s="11"/>
       <c r="C512" s="10"/>
@@ -5586,6 +7817,7 @@
     <row r="626" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="627" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/relatorios/controle_patrimonial.xlsx
+++ b/relatorios/controle_patrimonial.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\controle_estoque_db_Original\relatorios\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D36DA42-7A52-424F-8E57-5C201C309210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="25650" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="25650" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Estoque" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="64">
   <si>
     <t>SITUAÇÃO</t>
   </si>
@@ -213,11 +207,14 @@
   <si>
     <t>ADM10</t>
   </si>
+  <si>
+    <t>CEAD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -853,21 +850,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H627"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="E7" sqref="E7:E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1039,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F7" s="48">
         <v>44693</v>
@@ -1066,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F8" s="48">
         <v>44693</v>
@@ -1090,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F9" s="48">
         <v>44693</v>
@@ -1114,7 +1111,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F10" s="48">
         <v>44693</v>
@@ -1138,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F11" s="48">
         <v>44693</v>
@@ -1161,9 +1158,15 @@
       <c r="D12" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="E12" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G12" s="48">
+        <v>45927</v>
+      </c>
       <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1177,9 +1180,15 @@
       <c r="D13" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
+      <c r="E13" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G13" s="48">
+        <v>45927</v>
+      </c>
       <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1193,9 +1202,15 @@
       <c r="D14" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
+      <c r="E14" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G14" s="48">
+        <v>45927</v>
+      </c>
       <c r="H14" s="46"/>
     </row>
     <row r="15" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1209,9 +1224,15 @@
       <c r="D15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="E15" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G15" s="48">
+        <v>45927</v>
+      </c>
       <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1225,9 +1246,15 @@
       <c r="D16" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="E16" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G16" s="48">
+        <v>45927</v>
+      </c>
       <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1241,9 +1268,15 @@
       <c r="D17" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="E17" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G17" s="48">
+        <v>45927</v>
+      </c>
       <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1257,9 +1290,15 @@
       <c r="D18" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
+      <c r="E18" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G18" s="48">
+        <v>45927</v>
+      </c>
       <c r="H18" s="46"/>
     </row>
     <row r="19" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1273,9 +1312,15 @@
       <c r="D19" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
+      <c r="E19" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G19" s="48">
+        <v>45927</v>
+      </c>
       <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,9 +1334,15 @@
       <c r="D20" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
+      <c r="E20" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G20" s="48">
+        <v>45927</v>
+      </c>
       <c r="H20" s="46"/>
     </row>
     <row r="21" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1305,9 +1356,15 @@
       <c r="D21" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
+      <c r="E21" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G21" s="48">
+        <v>45927</v>
+      </c>
       <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1321,9 +1378,15 @@
       <c r="D22" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
+      <c r="E22" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G22" s="48">
+        <v>45927</v>
+      </c>
       <c r="H22" s="46"/>
     </row>
     <row r="23" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1337,9 +1400,15 @@
       <c r="D23" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
+      <c r="E23" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G23" s="48">
+        <v>45927</v>
+      </c>
       <c r="H23" s="46"/>
     </row>
     <row r="24" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1353,9 +1422,15 @@
       <c r="D24" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
+      <c r="E24" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G24" s="48">
+        <v>45927</v>
+      </c>
       <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,9 +1444,15 @@
       <c r="D25" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
+      <c r="E25" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G25" s="48">
+        <v>45927</v>
+      </c>
       <c r="H25" s="46"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1385,9 +1466,15 @@
       <c r="D26" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
+      <c r="E26" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G26" s="48">
+        <v>45927</v>
+      </c>
       <c r="H26" s="46"/>
     </row>
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1401,9 +1488,15 @@
       <c r="D27" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
+      <c r="E27" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G27" s="48">
+        <v>45927</v>
+      </c>
       <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1417,9 +1510,15 @@
       <c r="D28" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
+      <c r="E28" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G28" s="48">
+        <v>45927</v>
+      </c>
       <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,9 +1532,15 @@
       <c r="D29" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
+      <c r="E29" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G29" s="48">
+        <v>45927</v>
+      </c>
       <c r="H29" s="46"/>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1449,9 +1554,15 @@
       <c r="D30" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
+      <c r="E30" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G30" s="48">
+        <v>45927</v>
+      </c>
       <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1465,9 +1576,15 @@
       <c r="D31" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+      <c r="E31" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G31" s="48">
+        <v>45927</v>
+      </c>
       <c r="H31" s="46"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1481,9 +1598,15 @@
       <c r="D32" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
+      <c r="E32" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G32" s="48">
+        <v>45927</v>
+      </c>
       <c r="H32" s="46"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,9 +1620,15 @@
       <c r="D33" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
+      <c r="E33" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G33" s="48">
+        <v>45927</v>
+      </c>
       <c r="H33" s="46"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1513,9 +1642,15 @@
       <c r="D34" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
+      <c r="E34" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G34" s="48">
+        <v>45927</v>
+      </c>
       <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1529,9 +1664,15 @@
       <c r="D35" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
+      <c r="E35" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G35" s="48">
+        <v>45927</v>
+      </c>
       <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1545,9 +1686,15 @@
       <c r="D36" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
+      <c r="E36" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G36" s="48">
+        <v>45927</v>
+      </c>
       <c r="H36" s="46"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1561,9 +1708,15 @@
       <c r="D37" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
+      <c r="E37" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G37" s="48">
+        <v>45927</v>
+      </c>
       <c r="H37" s="46"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1577,9 +1730,15 @@
       <c r="D38" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="46"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
+      <c r="E38" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G38" s="48">
+        <v>45927</v>
+      </c>
       <c r="H38" s="46"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1593,9 +1752,15 @@
       <c r="D39" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="46"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
+      <c r="E39" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G39" s="48">
+        <v>45927</v>
+      </c>
       <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1609,9 +1774,15 @@
       <c r="D40" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
+      <c r="E40" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G40" s="48">
+        <v>45927</v>
+      </c>
       <c r="H40" s="46"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1625,9 +1796,15 @@
       <c r="D41" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
+      <c r="E41" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G41" s="48">
+        <v>45927</v>
+      </c>
       <c r="H41" s="46"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1641,9 +1818,15 @@
       <c r="D42" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
+      <c r="E42" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G42" s="48">
+        <v>45927</v>
+      </c>
       <c r="H42" s="46"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1657,9 +1840,15 @@
       <c r="D43" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
+      <c r="E43" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G43" s="48">
+        <v>45927</v>
+      </c>
       <c r="H43" s="46"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1673,9 +1862,15 @@
       <c r="D44" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="46"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
+      <c r="E44" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G44" s="48">
+        <v>45927</v>
+      </c>
       <c r="H44" s="46"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1689,9 +1884,15 @@
       <c r="D45" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="46"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
+      <c r="E45" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G45" s="48">
+        <v>45927</v>
+      </c>
       <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1705,9 +1906,15 @@
       <c r="D46" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="46"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
+      <c r="E46" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G46" s="48">
+        <v>45927</v>
+      </c>
       <c r="H46" s="46"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1721,9 +1928,15 @@
       <c r="D47" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="46"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
+      <c r="E47" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G47" s="48">
+        <v>45927</v>
+      </c>
       <c r="H47" s="46"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1737,9 +1950,15 @@
       <c r="D48" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="46"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
+      <c r="E48" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G48" s="48">
+        <v>45927</v>
+      </c>
       <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1753,9 +1972,15 @@
       <c r="D49" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="46"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
+      <c r="E49" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G49" s="48">
+        <v>45927</v>
+      </c>
       <c r="H49" s="46"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1769,9 +1994,15 @@
       <c r="D50" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="46"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
+      <c r="E50" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G50" s="48">
+        <v>45927</v>
+      </c>
       <c r="H50" s="46"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1785,9 +2016,15 @@
       <c r="D51" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="46"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
+      <c r="E51" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G51" s="48">
+        <v>45927</v>
+      </c>
       <c r="H51" s="46"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1801,9 +2038,15 @@
       <c r="D52" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="46"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
+      <c r="E52" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G52" s="48">
+        <v>45927</v>
+      </c>
       <c r="H52" s="46"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1817,9 +2060,15 @@
       <c r="D53" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="46"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
+      <c r="E53" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G53" s="48">
+        <v>45927</v>
+      </c>
       <c r="H53" s="46"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1833,9 +2082,15 @@
       <c r="D54" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="46"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
+      <c r="E54" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G54" s="48">
+        <v>45927</v>
+      </c>
       <c r="H54" s="46"/>
     </row>
     <row r="55" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1849,9 +2104,15 @@
       <c r="D55" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="46"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
+      <c r="E55" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G55" s="48">
+        <v>45927</v>
+      </c>
       <c r="H55" s="46"/>
     </row>
     <row r="56" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1865,9 +2126,15 @@
       <c r="D56" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="46"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
+      <c r="E56" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G56" s="48">
+        <v>45927</v>
+      </c>
       <c r="H56" s="46"/>
     </row>
     <row r="57" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1881,9 +2148,15 @@
       <c r="D57" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="46"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
+      <c r="E57" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G57" s="48">
+        <v>45927</v>
+      </c>
       <c r="H57" s="46"/>
     </row>
     <row r="58" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1897,9 +2170,15 @@
       <c r="D58" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="46"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
+      <c r="E58" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G58" s="48">
+        <v>45927</v>
+      </c>
       <c r="H58" s="46"/>
     </row>
     <row r="59" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1913,9 +2192,15 @@
       <c r="D59" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="46"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
+      <c r="E59" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G59" s="48">
+        <v>45927</v>
+      </c>
       <c r="H59" s="46"/>
     </row>
     <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1929,9 +2214,15 @@
       <c r="D60" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E60" s="46"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
+      <c r="E60" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G60" s="48">
+        <v>45927</v>
+      </c>
       <c r="H60" s="46"/>
     </row>
     <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1945,9 +2236,15 @@
       <c r="D61" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E61" s="46"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
+      <c r="E61" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G61" s="48">
+        <v>45927</v>
+      </c>
       <c r="H61" s="46"/>
     </row>
     <row r="62" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1961,9 +2258,15 @@
       <c r="D62" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="46"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
+      <c r="E62" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G62" s="48">
+        <v>45927</v>
+      </c>
       <c r="H62" s="46"/>
     </row>
     <row r="63" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1977,9 +2280,15 @@
       <c r="D63" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="46"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
+      <c r="E63" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G63" s="48">
+        <v>45927</v>
+      </c>
       <c r="H63" s="46"/>
     </row>
     <row r="64" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1993,9 +2302,15 @@
       <c r="D64" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="46"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
+      <c r="E64" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G64" s="48">
+        <v>45927</v>
+      </c>
       <c r="H64" s="46"/>
     </row>
     <row r="65" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2009,9 +2324,15 @@
       <c r="D65" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E65" s="46"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
+      <c r="E65" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G65" s="48">
+        <v>45927</v>
+      </c>
       <c r="H65" s="46"/>
     </row>
     <row r="66" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2025,9 +2346,15 @@
       <c r="D66" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="46"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
+      <c r="E66" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G66" s="48">
+        <v>45927</v>
+      </c>
       <c r="H66" s="46"/>
     </row>
     <row r="67" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2041,9 +2368,15 @@
       <c r="D67" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="46"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
+      <c r="E67" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F67" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G67" s="48">
+        <v>45927</v>
+      </c>
       <c r="H67" s="46"/>
     </row>
     <row r="68" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2057,9 +2390,15 @@
       <c r="D68" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E68" s="46"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
+      <c r="E68" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F68" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G68" s="48">
+        <v>45927</v>
+      </c>
       <c r="H68" s="46"/>
     </row>
     <row r="69" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2073,9 +2412,15 @@
       <c r="D69" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E69" s="46"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
+      <c r="E69" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F69" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G69" s="48">
+        <v>45927</v>
+      </c>
       <c r="H69" s="46"/>
     </row>
     <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2089,9 +2434,15 @@
       <c r="D70" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E70" s="46"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
+      <c r="E70" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F70" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G70" s="48">
+        <v>45927</v>
+      </c>
       <c r="H70" s="46"/>
     </row>
     <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2105,9 +2456,15 @@
       <c r="D71" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="46"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
+      <c r="E71" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F71" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G71" s="48">
+        <v>45927</v>
+      </c>
       <c r="H71" s="46"/>
     </row>
     <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2121,9 +2478,15 @@
       <c r="D72" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E72" s="46"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
+      <c r="E72" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G72" s="48">
+        <v>45927</v>
+      </c>
       <c r="H72" s="46"/>
     </row>
     <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2137,9 +2500,15 @@
       <c r="D73" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="46"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
+      <c r="E73" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G73" s="48">
+        <v>45927</v>
+      </c>
       <c r="H73" s="46"/>
     </row>
     <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2153,9 +2522,15 @@
       <c r="D74" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E74" s="46"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
+      <c r="E74" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F74" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G74" s="48">
+        <v>45927</v>
+      </c>
       <c r="H74" s="46"/>
     </row>
     <row r="75" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2169,9 +2544,15 @@
       <c r="D75" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E75" s="46"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
+      <c r="E75" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G75" s="48">
+        <v>45927</v>
+      </c>
       <c r="H75" s="46"/>
     </row>
     <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2185,9 +2566,15 @@
       <c r="D76" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E76" s="46"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
+      <c r="E76" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G76" s="48">
+        <v>45927</v>
+      </c>
       <c r="H76" s="46"/>
     </row>
     <row r="77" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2201,9 +2588,15 @@
       <c r="D77" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E77" s="46"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
+      <c r="E77" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F77" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G77" s="48">
+        <v>45927</v>
+      </c>
       <c r="H77" s="46"/>
     </row>
     <row r="78" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2217,9 +2610,15 @@
       <c r="D78" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E78" s="46"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
+      <c r="E78" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F78" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G78" s="48">
+        <v>45927</v>
+      </c>
       <c r="H78" s="46"/>
     </row>
     <row r="79" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2233,9 +2632,15 @@
       <c r="D79" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E79" s="46"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="48"/>
+      <c r="E79" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F79" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G79" s="48">
+        <v>45927</v>
+      </c>
       <c r="H79" s="46"/>
     </row>
     <row r="80" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2249,9 +2654,15 @@
       <c r="D80" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E80" s="46"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="48"/>
+      <c r="E80" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F80" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G80" s="48">
+        <v>45927</v>
+      </c>
       <c r="H80" s="46"/>
     </row>
     <row r="81" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2265,9 +2676,15 @@
       <c r="D81" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E81" s="46"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
+      <c r="E81" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F81" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G81" s="48">
+        <v>45927</v>
+      </c>
       <c r="H81" s="46"/>
     </row>
     <row r="82" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2281,9 +2698,15 @@
       <c r="D82" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="46"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
+      <c r="E82" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F82" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G82" s="48">
+        <v>45927</v>
+      </c>
       <c r="H82" s="46"/>
     </row>
     <row r="83" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2297,9 +2720,15 @@
       <c r="D83" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E83" s="46"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="48"/>
+      <c r="E83" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F83" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G83" s="48">
+        <v>45927</v>
+      </c>
       <c r="H83" s="46"/>
     </row>
     <row r="84" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2313,9 +2742,15 @@
       <c r="D84" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E84" s="46"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
+      <c r="E84" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F84" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G84" s="48">
+        <v>45927</v>
+      </c>
       <c r="H84" s="46"/>
     </row>
     <row r="85" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2329,9 +2764,15 @@
       <c r="D85" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E85" s="46"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="48"/>
+      <c r="E85" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G85" s="48">
+        <v>45927</v>
+      </c>
       <c r="H85" s="46"/>
     </row>
     <row r="86" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2345,9 +2786,15 @@
       <c r="D86" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E86" s="46"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
+      <c r="E86" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G86" s="48">
+        <v>45927</v>
+      </c>
       <c r="H86" s="46"/>
     </row>
     <row r="87" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2361,9 +2808,15 @@
       <c r="D87" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E87" s="46"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
+      <c r="E87" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F87" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G87" s="48">
+        <v>45927</v>
+      </c>
       <c r="H87" s="46"/>
     </row>
     <row r="88" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2377,9 +2830,15 @@
       <c r="D88" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E88" s="46"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
+      <c r="E88" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F88" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G88" s="48">
+        <v>45927</v>
+      </c>
       <c r="H88" s="46"/>
     </row>
     <row r="89" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2393,9 +2852,15 @@
       <c r="D89" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E89" s="46"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
+      <c r="E89" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F89" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G89" s="48">
+        <v>45927</v>
+      </c>
       <c r="H89" s="46"/>
     </row>
     <row r="90" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2409,9 +2874,15 @@
       <c r="D90" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E90" s="46"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
+      <c r="E90" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F90" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G90" s="48">
+        <v>45927</v>
+      </c>
       <c r="H90" s="46"/>
     </row>
     <row r="91" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2425,9 +2896,15 @@
       <c r="D91" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E91" s="46"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="48"/>
+      <c r="E91" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F91" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G91" s="48">
+        <v>45927</v>
+      </c>
       <c r="H91" s="46"/>
     </row>
     <row r="92" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2441,9 +2918,15 @@
       <c r="D92" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E92" s="46"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
+      <c r="E92" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F92" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G92" s="48">
+        <v>45927</v>
+      </c>
       <c r="H92" s="46"/>
     </row>
     <row r="93" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2457,9 +2940,15 @@
       <c r="D93" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E93" s="46"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48"/>
+      <c r="E93" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F93" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G93" s="48">
+        <v>45927</v>
+      </c>
       <c r="H93" s="46"/>
     </row>
     <row r="94" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2473,9 +2962,15 @@
       <c r="D94" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E94" s="46"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
+      <c r="E94" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F94" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G94" s="48">
+        <v>45927</v>
+      </c>
       <c r="H94" s="46"/>
     </row>
     <row r="95" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2489,9 +2984,15 @@
       <c r="D95" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E95" s="46"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48"/>
+      <c r="E95" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F95" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G95" s="48">
+        <v>45927</v>
+      </c>
       <c r="H95" s="46"/>
     </row>
     <row r="96" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2505,9 +3006,15 @@
       <c r="D96" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E96" s="46"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
+      <c r="E96" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F96" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G96" s="48">
+        <v>45927</v>
+      </c>
       <c r="H96" s="46"/>
     </row>
     <row r="97" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2521,9 +3028,15 @@
       <c r="D97" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E97" s="46"/>
-      <c r="F97" s="48"/>
-      <c r="G97" s="48"/>
+      <c r="E97" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F97" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G97" s="48">
+        <v>45927</v>
+      </c>
       <c r="H97" s="46"/>
     </row>
     <row r="98" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2537,9 +3050,15 @@
       <c r="D98" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E98" s="46"/>
-      <c r="F98" s="48"/>
-      <c r="G98" s="48"/>
+      <c r="E98" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F98" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G98" s="48">
+        <v>45927</v>
+      </c>
       <c r="H98" s="46"/>
     </row>
     <row r="99" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2553,9 +3072,15 @@
       <c r="D99" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E99" s="46"/>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48"/>
+      <c r="E99" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F99" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G99" s="48">
+        <v>45927</v>
+      </c>
       <c r="H99" s="46"/>
     </row>
     <row r="100" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2569,9 +3094,15 @@
       <c r="D100" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E100" s="46"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="48"/>
+      <c r="E100" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F100" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G100" s="48">
+        <v>45927</v>
+      </c>
       <c r="H100" s="46"/>
     </row>
     <row r="101" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2585,9 +3116,15 @@
       <c r="D101" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E101" s="46"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="48"/>
+      <c r="E101" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F101" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G101" s="48">
+        <v>45927</v>
+      </c>
       <c r="H101" s="46"/>
     </row>
     <row r="102" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2601,9 +3138,15 @@
       <c r="D102" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E102" s="46"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="48"/>
+      <c r="E102" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F102" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G102" s="48">
+        <v>45927</v>
+      </c>
       <c r="H102" s="46"/>
     </row>
     <row r="103" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2617,9 +3160,15 @@
       <c r="D103" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E103" s="46"/>
-      <c r="F103" s="48"/>
-      <c r="G103" s="48"/>
+      <c r="E103" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F103" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G103" s="48">
+        <v>45927</v>
+      </c>
       <c r="H103" s="46"/>
     </row>
     <row r="104" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2633,9 +3182,15 @@
       <c r="D104" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E104" s="46"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="48"/>
+      <c r="E104" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F104" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G104" s="48">
+        <v>45927</v>
+      </c>
       <c r="H104" s="46"/>
     </row>
     <row r="105" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2649,9 +3204,15 @@
       <c r="D105" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E105" s="46"/>
-      <c r="F105" s="48"/>
-      <c r="G105" s="48"/>
+      <c r="E105" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F105" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G105" s="48">
+        <v>45927</v>
+      </c>
       <c r="H105" s="46"/>
     </row>
     <row r="106" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2665,9 +3226,15 @@
       <c r="D106" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E106" s="46"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="48"/>
+      <c r="E106" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F106" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G106" s="48">
+        <v>45927</v>
+      </c>
       <c r="H106" s="46"/>
     </row>
     <row r="107" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2681,9 +3248,15 @@
       <c r="D107" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E107" s="46"/>
-      <c r="F107" s="48"/>
-      <c r="G107" s="48"/>
+      <c r="E107" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F107" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G107" s="48">
+        <v>45927</v>
+      </c>
       <c r="H107" s="46"/>
     </row>
     <row r="108" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2697,9 +3270,15 @@
       <c r="D108" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E108" s="46"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="48"/>
+      <c r="E108" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F108" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G108" s="48">
+        <v>45927</v>
+      </c>
       <c r="H108" s="46"/>
     </row>
     <row r="109" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2713,9 +3292,15 @@
       <c r="D109" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E109" s="46"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
+      <c r="E109" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F109" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G109" s="48">
+        <v>45927</v>
+      </c>
       <c r="H109" s="46"/>
     </row>
     <row r="110" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2729,9 +3314,15 @@
       <c r="D110" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E110" s="46"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="48"/>
+      <c r="E110" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F110" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G110" s="48">
+        <v>45927</v>
+      </c>
       <c r="H110" s="46"/>
     </row>
     <row r="111" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2745,9 +3336,15 @@
       <c r="D111" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E111" s="46"/>
-      <c r="F111" s="48"/>
-      <c r="G111" s="48"/>
+      <c r="E111" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F111" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G111" s="48">
+        <v>45927</v>
+      </c>
       <c r="H111" s="46"/>
     </row>
     <row r="112" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2761,9 +3358,15 @@
       <c r="D112" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E112" s="46"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="48"/>
+      <c r="E112" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F112" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G112" s="48">
+        <v>45927</v>
+      </c>
       <c r="H112" s="46"/>
     </row>
     <row r="113" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2777,9 +3380,15 @@
       <c r="D113" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E113" s="46"/>
-      <c r="F113" s="48"/>
-      <c r="G113" s="48"/>
+      <c r="E113" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F113" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G113" s="48">
+        <v>45927</v>
+      </c>
       <c r="H113" s="46"/>
     </row>
     <row r="114" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2793,9 +3402,15 @@
       <c r="D114" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E114" s="46"/>
-      <c r="F114" s="48"/>
-      <c r="G114" s="48"/>
+      <c r="E114" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F114" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G114" s="48">
+        <v>45927</v>
+      </c>
       <c r="H114" s="46"/>
     </row>
     <row r="115" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2809,9 +3424,15 @@
       <c r="D115" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E115" s="46"/>
-      <c r="F115" s="48"/>
-      <c r="G115" s="48"/>
+      <c r="E115" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F115" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G115" s="48">
+        <v>45927</v>
+      </c>
       <c r="H115" s="46"/>
     </row>
     <row r="116" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2825,9 +3446,15 @@
       <c r="D116" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E116" s="46"/>
-      <c r="F116" s="48"/>
-      <c r="G116" s="48"/>
+      <c r="E116" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F116" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G116" s="48">
+        <v>45927</v>
+      </c>
       <c r="H116" s="46"/>
     </row>
     <row r="117" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2841,9 +3468,15 @@
       <c r="D117" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E117" s="46"/>
-      <c r="F117" s="48"/>
-      <c r="G117" s="48"/>
+      <c r="E117" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F117" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G117" s="48">
+        <v>45927</v>
+      </c>
       <c r="H117" s="46"/>
     </row>
     <row r="118" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2857,9 +3490,15 @@
       <c r="D118" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E118" s="46"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="48"/>
+      <c r="E118" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F118" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G118" s="48">
+        <v>45927</v>
+      </c>
       <c r="H118" s="46"/>
     </row>
     <row r="119" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2873,9 +3512,15 @@
       <c r="D119" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E119" s="46"/>
-      <c r="F119" s="48"/>
-      <c r="G119" s="48"/>
+      <c r="E119" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F119" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G119" s="48">
+        <v>45927</v>
+      </c>
       <c r="H119" s="46"/>
     </row>
     <row r="120" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2889,9 +3534,15 @@
       <c r="D120" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="46"/>
-      <c r="F120" s="48"/>
-      <c r="G120" s="48"/>
+      <c r="E120" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F120" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G120" s="48">
+        <v>45927</v>
+      </c>
       <c r="H120" s="46"/>
     </row>
     <row r="121" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2905,9 +3556,15 @@
       <c r="D121" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E121" s="46"/>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
+      <c r="E121" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F121" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G121" s="48">
+        <v>45927</v>
+      </c>
       <c r="H121" s="46"/>
     </row>
     <row r="122" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2921,9 +3578,15 @@
       <c r="D122" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E122" s="46"/>
-      <c r="F122" s="48"/>
-      <c r="G122" s="48"/>
+      <c r="E122" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F122" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G122" s="48">
+        <v>45927</v>
+      </c>
       <c r="H122" s="46"/>
     </row>
     <row r="123" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2937,9 +3600,15 @@
       <c r="D123" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E123" s="46"/>
-      <c r="F123" s="48"/>
-      <c r="G123" s="48"/>
+      <c r="E123" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F123" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G123" s="48">
+        <v>45927</v>
+      </c>
       <c r="H123" s="46"/>
     </row>
     <row r="124" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2953,9 +3622,15 @@
       <c r="D124" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E124" s="46"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
+      <c r="E124" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F124" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G124" s="48">
+        <v>45927</v>
+      </c>
       <c r="H124" s="46"/>
     </row>
     <row r="125" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2969,9 +3644,15 @@
       <c r="D125" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E125" s="46"/>
-      <c r="F125" s="48"/>
-      <c r="G125" s="48"/>
+      <c r="E125" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F125" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G125" s="48">
+        <v>45927</v>
+      </c>
       <c r="H125" s="46"/>
     </row>
     <row r="126" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2985,9 +3666,15 @@
       <c r="D126" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E126" s="46"/>
-      <c r="F126" s="48"/>
-      <c r="G126" s="48"/>
+      <c r="E126" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F126" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G126" s="48">
+        <v>45927</v>
+      </c>
       <c r="H126" s="46"/>
     </row>
     <row r="127" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3001,9 +3688,15 @@
       <c r="D127" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E127" s="46"/>
-      <c r="F127" s="48"/>
-      <c r="G127" s="48"/>
+      <c r="E127" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F127" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G127" s="48">
+        <v>45927</v>
+      </c>
       <c r="H127" s="46"/>
     </row>
     <row r="128" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3017,9 +3710,15 @@
       <c r="D128" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E128" s="46"/>
-      <c r="F128" s="48"/>
-      <c r="G128" s="48"/>
+      <c r="E128" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F128" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G128" s="48">
+        <v>45927</v>
+      </c>
       <c r="H128" s="46"/>
     </row>
     <row r="129" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3033,9 +3732,15 @@
       <c r="D129" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E129" s="46"/>
-      <c r="F129" s="48"/>
-      <c r="G129" s="48"/>
+      <c r="E129" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F129" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G129" s="48">
+        <v>45927</v>
+      </c>
       <c r="H129" s="46"/>
     </row>
     <row r="130" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3049,9 +3754,15 @@
       <c r="D130" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E130" s="46"/>
-      <c r="F130" s="48"/>
-      <c r="G130" s="48"/>
+      <c r="E130" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F130" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G130" s="48">
+        <v>45927</v>
+      </c>
       <c r="H130" s="46"/>
     </row>
     <row r="131" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3065,9 +3776,15 @@
       <c r="D131" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E131" s="46"/>
-      <c r="F131" s="48"/>
-      <c r="G131" s="48"/>
+      <c r="E131" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F131" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G131" s="48">
+        <v>45927</v>
+      </c>
       <c r="H131" s="46"/>
     </row>
     <row r="132" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3081,9 +3798,15 @@
       <c r="D132" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E132" s="46"/>
-      <c r="F132" s="48"/>
-      <c r="G132" s="48"/>
+      <c r="E132" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F132" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G132" s="48">
+        <v>45927</v>
+      </c>
       <c r="H132" s="46"/>
     </row>
     <row r="133" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3097,9 +3820,15 @@
       <c r="D133" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E133" s="46"/>
-      <c r="F133" s="48"/>
-      <c r="G133" s="48"/>
+      <c r="E133" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F133" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G133" s="48">
+        <v>45927</v>
+      </c>
       <c r="H133" s="46"/>
     </row>
     <row r="134" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3113,9 +3842,15 @@
       <c r="D134" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E134" s="46"/>
-      <c r="F134" s="48"/>
-      <c r="G134" s="48"/>
+      <c r="E134" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F134" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G134" s="48">
+        <v>45927</v>
+      </c>
       <c r="H134" s="46"/>
     </row>
     <row r="135" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3129,9 +3864,15 @@
       <c r="D135" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E135" s="46"/>
-      <c r="F135" s="48"/>
-      <c r="G135" s="48"/>
+      <c r="E135" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F135" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G135" s="48">
+        <v>45927</v>
+      </c>
       <c r="H135" s="46"/>
     </row>
     <row r="136" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3145,9 +3886,15 @@
       <c r="D136" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E136" s="46"/>
-      <c r="F136" s="48"/>
-      <c r="G136" s="48"/>
+      <c r="E136" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F136" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G136" s="48">
+        <v>45927</v>
+      </c>
       <c r="H136" s="46"/>
     </row>
     <row r="137" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3161,9 +3908,15 @@
       <c r="D137" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E137" s="46"/>
-      <c r="F137" s="48"/>
-      <c r="G137" s="48"/>
+      <c r="E137" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F137" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G137" s="48">
+        <v>45927</v>
+      </c>
       <c r="H137" s="46"/>
     </row>
     <row r="138" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3177,9 +3930,15 @@
       <c r="D138" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E138" s="46"/>
-      <c r="F138" s="48"/>
-      <c r="G138" s="48"/>
+      <c r="E138" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F138" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G138" s="48">
+        <v>45927</v>
+      </c>
       <c r="H138" s="46"/>
     </row>
     <row r="139" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3193,9 +3952,15 @@
       <c r="D139" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E139" s="46"/>
-      <c r="F139" s="48"/>
-      <c r="G139" s="48"/>
+      <c r="E139" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F139" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G139" s="48">
+        <v>45927</v>
+      </c>
       <c r="H139" s="46"/>
     </row>
     <row r="140" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3209,9 +3974,15 @@
       <c r="D140" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E140" s="46"/>
-      <c r="F140" s="48"/>
-      <c r="G140" s="48"/>
+      <c r="E140" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F140" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G140" s="48">
+        <v>45927</v>
+      </c>
       <c r="H140" s="46"/>
     </row>
     <row r="141" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3225,9 +3996,15 @@
       <c r="D141" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E141" s="46"/>
-      <c r="F141" s="48"/>
-      <c r="G141" s="48"/>
+      <c r="E141" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F141" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G141" s="48">
+        <v>45927</v>
+      </c>
       <c r="H141" s="46"/>
     </row>
     <row r="142" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3241,9 +4018,15 @@
       <c r="D142" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E142" s="46"/>
-      <c r="F142" s="48"/>
-      <c r="G142" s="48"/>
+      <c r="E142" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F142" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G142" s="48">
+        <v>45927</v>
+      </c>
       <c r="H142" s="46"/>
     </row>
     <row r="143" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3257,9 +4040,15 @@
       <c r="D143" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E143" s="46"/>
-      <c r="F143" s="48"/>
-      <c r="G143" s="48"/>
+      <c r="E143" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F143" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G143" s="48">
+        <v>45927</v>
+      </c>
       <c r="H143" s="46"/>
     </row>
     <row r="144" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3273,9 +4062,15 @@
       <c r="D144" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E144" s="46"/>
-      <c r="F144" s="48"/>
-      <c r="G144" s="48"/>
+      <c r="E144" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F144" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G144" s="48">
+        <v>45927</v>
+      </c>
       <c r="H144" s="46"/>
     </row>
     <row r="145" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3289,9 +4084,15 @@
       <c r="D145" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E145" s="46"/>
-      <c r="F145" s="48"/>
-      <c r="G145" s="48"/>
+      <c r="E145" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F145" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G145" s="48">
+        <v>45927</v>
+      </c>
       <c r="H145" s="46"/>
     </row>
     <row r="146" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3305,9 +4106,15 @@
       <c r="D146" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E146" s="46"/>
-      <c r="F146" s="48"/>
-      <c r="G146" s="48"/>
+      <c r="E146" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F146" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G146" s="48">
+        <v>45927</v>
+      </c>
       <c r="H146" s="46"/>
     </row>
     <row r="147" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3321,9 +4128,15 @@
       <c r="D147" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E147" s="46"/>
-      <c r="F147" s="48"/>
-      <c r="G147" s="48"/>
+      <c r="E147" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F147" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G147" s="48">
+        <v>45927</v>
+      </c>
       <c r="H147" s="46"/>
     </row>
     <row r="148" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3337,9 +4150,15 @@
       <c r="D148" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E148" s="46"/>
-      <c r="F148" s="48"/>
-      <c r="G148" s="48"/>
+      <c r="E148" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F148" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G148" s="48">
+        <v>45927</v>
+      </c>
       <c r="H148" s="46"/>
     </row>
     <row r="149" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3353,9 +4172,15 @@
       <c r="D149" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E149" s="46"/>
-      <c r="F149" s="48"/>
-      <c r="G149" s="48"/>
+      <c r="E149" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F149" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G149" s="48">
+        <v>45927</v>
+      </c>
       <c r="H149" s="46"/>
     </row>
     <row r="150" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3369,9 +4194,15 @@
       <c r="D150" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E150" s="46"/>
-      <c r="F150" s="48"/>
-      <c r="G150" s="48"/>
+      <c r="E150" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F150" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G150" s="48">
+        <v>45927</v>
+      </c>
       <c r="H150" s="46"/>
     </row>
     <row r="151" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3385,9 +4216,15 @@
       <c r="D151" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E151" s="46"/>
-      <c r="F151" s="48"/>
-      <c r="G151" s="48"/>
+      <c r="E151" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F151" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G151" s="48">
+        <v>45927</v>
+      </c>
       <c r="H151" s="46"/>
     </row>
     <row r="152" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3401,9 +4238,15 @@
       <c r="D152" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E152" s="46"/>
-      <c r="F152" s="48"/>
-      <c r="G152" s="48"/>
+      <c r="E152" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F152" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G152" s="48">
+        <v>45927</v>
+      </c>
       <c r="H152" s="46"/>
     </row>
     <row r="153" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3417,9 +4260,15 @@
       <c r="D153" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E153" s="46"/>
-      <c r="F153" s="48"/>
-      <c r="G153" s="48"/>
+      <c r="E153" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F153" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G153" s="48">
+        <v>45927</v>
+      </c>
       <c r="H153" s="46"/>
     </row>
     <row r="154" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3433,9 +4282,15 @@
       <c r="D154" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E154" s="46"/>
-      <c r="F154" s="48"/>
-      <c r="G154" s="48"/>
+      <c r="E154" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F154" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G154" s="48">
+        <v>45927</v>
+      </c>
       <c r="H154" s="46"/>
     </row>
     <row r="155" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3449,9 +4304,15 @@
       <c r="D155" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E155" s="46"/>
-      <c r="F155" s="48"/>
-      <c r="G155" s="48"/>
+      <c r="E155" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F155" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G155" s="48">
+        <v>45927</v>
+      </c>
       <c r="H155" s="46"/>
     </row>
     <row r="156" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3465,9 +4326,15 @@
       <c r="D156" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E156" s="46"/>
-      <c r="F156" s="48"/>
-      <c r="G156" s="48"/>
+      <c r="E156" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F156" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G156" s="48">
+        <v>45927</v>
+      </c>
       <c r="H156" s="46"/>
     </row>
     <row r="157" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3481,9 +4348,15 @@
       <c r="D157" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E157" s="46"/>
-      <c r="F157" s="48"/>
-      <c r="G157" s="48"/>
+      <c r="E157" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F157" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G157" s="48">
+        <v>45927</v>
+      </c>
       <c r="H157" s="46"/>
     </row>
     <row r="158" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3497,9 +4370,15 @@
       <c r="D158" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E158" s="46"/>
-      <c r="F158" s="48"/>
-      <c r="G158" s="48"/>
+      <c r="E158" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F158" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G158" s="48">
+        <v>45927</v>
+      </c>
       <c r="H158" s="46"/>
     </row>
     <row r="159" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3513,9 +4392,15 @@
       <c r="D159" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E159" s="46"/>
-      <c r="F159" s="48"/>
-      <c r="G159" s="48"/>
+      <c r="E159" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F159" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G159" s="48">
+        <v>45927</v>
+      </c>
       <c r="H159" s="46"/>
     </row>
     <row r="160" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3529,9 +4414,15 @@
       <c r="D160" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E160" s="46"/>
-      <c r="F160" s="48"/>
-      <c r="G160" s="48"/>
+      <c r="E160" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F160" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G160" s="48">
+        <v>45927</v>
+      </c>
       <c r="H160" s="46"/>
     </row>
     <row r="161" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3545,9 +4436,15 @@
       <c r="D161" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E161" s="46"/>
-      <c r="F161" s="48"/>
-      <c r="G161" s="48"/>
+      <c r="E161" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F161" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G161" s="48">
+        <v>45927</v>
+      </c>
       <c r="H161" s="46"/>
     </row>
     <row r="162" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3561,9 +4458,15 @@
       <c r="D162" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E162" s="46"/>
-      <c r="F162" s="48"/>
-      <c r="G162" s="48"/>
+      <c r="E162" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F162" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G162" s="48">
+        <v>45927</v>
+      </c>
       <c r="H162" s="46"/>
     </row>
     <row r="163" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3577,9 +4480,15 @@
       <c r="D163" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E163" s="46"/>
-      <c r="F163" s="48"/>
-      <c r="G163" s="48"/>
+      <c r="E163" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F163" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G163" s="48">
+        <v>45927</v>
+      </c>
       <c r="H163" s="46"/>
     </row>
     <row r="164" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3593,9 +4502,15 @@
       <c r="D164" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E164" s="46"/>
-      <c r="F164" s="48"/>
-      <c r="G164" s="48"/>
+      <c r="E164" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F164" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G164" s="48">
+        <v>45927</v>
+      </c>
       <c r="H164" s="46"/>
     </row>
     <row r="165" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3609,9 +4524,15 @@
       <c r="D165" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E165" s="46"/>
-      <c r="F165" s="48"/>
-      <c r="G165" s="48"/>
+      <c r="E165" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F165" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G165" s="48">
+        <v>45927</v>
+      </c>
       <c r="H165" s="46"/>
     </row>
     <row r="166" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3625,9 +4546,15 @@
       <c r="D166" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E166" s="46"/>
-      <c r="F166" s="48"/>
-      <c r="G166" s="48"/>
+      <c r="E166" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F166" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G166" s="48">
+        <v>45927</v>
+      </c>
       <c r="H166" s="46"/>
     </row>
     <row r="167" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3641,9 +4568,15 @@
       <c r="D167" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E167" s="46"/>
-      <c r="F167" s="48"/>
-      <c r="G167" s="48"/>
+      <c r="E167" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F167" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G167" s="48">
+        <v>45927</v>
+      </c>
       <c r="H167" s="46"/>
     </row>
     <row r="168" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3657,9 +4590,15 @@
       <c r="D168" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E168" s="46"/>
-      <c r="F168" s="48"/>
-      <c r="G168" s="48"/>
+      <c r="E168" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F168" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G168" s="48">
+        <v>45927</v>
+      </c>
       <c r="H168" s="46"/>
     </row>
     <row r="169" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3673,9 +4612,15 @@
       <c r="D169" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E169" s="46"/>
-      <c r="F169" s="48"/>
-      <c r="G169" s="48"/>
+      <c r="E169" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F169" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G169" s="48">
+        <v>45927</v>
+      </c>
       <c r="H169" s="46"/>
     </row>
     <row r="170" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3689,9 +4634,15 @@
       <c r="D170" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E170" s="46"/>
-      <c r="F170" s="48"/>
-      <c r="G170" s="48"/>
+      <c r="E170" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F170" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G170" s="48">
+        <v>45927</v>
+      </c>
       <c r="H170" s="46"/>
     </row>
     <row r="171" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3705,9 +4656,15 @@
       <c r="D171" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E171" s="46"/>
-      <c r="F171" s="48"/>
-      <c r="G171" s="48"/>
+      <c r="E171" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F171" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G171" s="48">
+        <v>45927</v>
+      </c>
       <c r="H171" s="46"/>
     </row>
     <row r="172" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3721,9 +4678,15 @@
       <c r="D172" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E172" s="46"/>
-      <c r="F172" s="48"/>
-      <c r="G172" s="48"/>
+      <c r="E172" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F172" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G172" s="48">
+        <v>45927</v>
+      </c>
       <c r="H172" s="46"/>
     </row>
     <row r="173" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3737,9 +4700,15 @@
       <c r="D173" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E173" s="46"/>
-      <c r="F173" s="48"/>
-      <c r="G173" s="48"/>
+      <c r="E173" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F173" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G173" s="48">
+        <v>45927</v>
+      </c>
       <c r="H173" s="46"/>
     </row>
     <row r="174" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3753,9 +4722,15 @@
       <c r="D174" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E174" s="46"/>
-      <c r="F174" s="48"/>
-      <c r="G174" s="48"/>
+      <c r="E174" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F174" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G174" s="48">
+        <v>45927</v>
+      </c>
       <c r="H174" s="46"/>
     </row>
     <row r="175" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3769,9 +4744,15 @@
       <c r="D175" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E175" s="46"/>
-      <c r="F175" s="48"/>
-      <c r="G175" s="48"/>
+      <c r="E175" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F175" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G175" s="48">
+        <v>45927</v>
+      </c>
       <c r="H175" s="46"/>
     </row>
     <row r="176" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3785,9 +4766,15 @@
       <c r="D176" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E176" s="46"/>
-      <c r="F176" s="48"/>
-      <c r="G176" s="48"/>
+      <c r="E176" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F176" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G176" s="48">
+        <v>45927</v>
+      </c>
       <c r="H176" s="46"/>
     </row>
     <row r="177" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3801,9 +4788,15 @@
       <c r="D177" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E177" s="46"/>
-      <c r="F177" s="48"/>
-      <c r="G177" s="48"/>
+      <c r="E177" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F177" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G177" s="48">
+        <v>45927</v>
+      </c>
       <c r="H177" s="46"/>
     </row>
     <row r="178" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3817,9 +4810,15 @@
       <c r="D178" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E178" s="46"/>
-      <c r="F178" s="48"/>
-      <c r="G178" s="48"/>
+      <c r="E178" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F178" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G178" s="48">
+        <v>45927</v>
+      </c>
       <c r="H178" s="46"/>
     </row>
     <row r="179" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3833,9 +4832,15 @@
       <c r="D179" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E179" s="46"/>
-      <c r="F179" s="48"/>
-      <c r="G179" s="48"/>
+      <c r="E179" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F179" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G179" s="48">
+        <v>45927</v>
+      </c>
       <c r="H179" s="46"/>
     </row>
     <row r="180" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3849,9 +4854,15 @@
       <c r="D180" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E180" s="46"/>
-      <c r="F180" s="48"/>
-      <c r="G180" s="48"/>
+      <c r="E180" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F180" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G180" s="48">
+        <v>45927</v>
+      </c>
       <c r="H180" s="46"/>
     </row>
     <row r="181" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3865,9 +4876,15 @@
       <c r="D181" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E181" s="46"/>
-      <c r="F181" s="48"/>
-      <c r="G181" s="48"/>
+      <c r="E181" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F181" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G181" s="48">
+        <v>45927</v>
+      </c>
       <c r="H181" s="46"/>
     </row>
     <row r="182" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3881,9 +4898,15 @@
       <c r="D182" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E182" s="46"/>
-      <c r="F182" s="48"/>
-      <c r="G182" s="48"/>
+      <c r="E182" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F182" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G182" s="48">
+        <v>45927</v>
+      </c>
       <c r="H182" s="46"/>
     </row>
     <row r="183" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3897,9 +4920,15 @@
       <c r="D183" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E183" s="46"/>
-      <c r="F183" s="48"/>
-      <c r="G183" s="48"/>
+      <c r="E183" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F183" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G183" s="48">
+        <v>45927</v>
+      </c>
       <c r="H183" s="46"/>
     </row>
     <row r="184" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3913,9 +4942,15 @@
       <c r="D184" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E184" s="46"/>
-      <c r="F184" s="48"/>
-      <c r="G184" s="48"/>
+      <c r="E184" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F184" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G184" s="48">
+        <v>45927</v>
+      </c>
       <c r="H184" s="46"/>
     </row>
     <row r="185" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3929,9 +4964,15 @@
       <c r="D185" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E185" s="46"/>
-      <c r="F185" s="48"/>
-      <c r="G185" s="48"/>
+      <c r="E185" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F185" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G185" s="48">
+        <v>45927</v>
+      </c>
       <c r="H185" s="46"/>
     </row>
     <row r="186" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3945,9 +4986,15 @@
       <c r="D186" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E186" s="46"/>
-      <c r="F186" s="48"/>
-      <c r="G186" s="48"/>
+      <c r="E186" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F186" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G186" s="48">
+        <v>45927</v>
+      </c>
       <c r="H186" s="46"/>
     </row>
     <row r="187" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3961,9 +5008,15 @@
       <c r="D187" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E187" s="46"/>
-      <c r="F187" s="48"/>
-      <c r="G187" s="48"/>
+      <c r="E187" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F187" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G187" s="48">
+        <v>45927</v>
+      </c>
       <c r="H187" s="46"/>
     </row>
     <row r="188" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3977,9 +5030,15 @@
       <c r="D188" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E188" s="46"/>
-      <c r="F188" s="48"/>
-      <c r="G188" s="48"/>
+      <c r="E188" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F188" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G188" s="48">
+        <v>45927</v>
+      </c>
       <c r="H188" s="46"/>
     </row>
     <row r="189" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3993,9 +5052,15 @@
       <c r="D189" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E189" s="46"/>
-      <c r="F189" s="48"/>
-      <c r="G189" s="48"/>
+      <c r="E189" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F189" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G189" s="48">
+        <v>45927</v>
+      </c>
       <c r="H189" s="46"/>
     </row>
     <row r="190" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4009,9 +5074,15 @@
       <c r="D190" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E190" s="46"/>
-      <c r="F190" s="48"/>
-      <c r="G190" s="48"/>
+      <c r="E190" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F190" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G190" s="48">
+        <v>45927</v>
+      </c>
       <c r="H190" s="46"/>
     </row>
     <row r="191" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4025,9 +5096,15 @@
       <c r="D191" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E191" s="46"/>
-      <c r="F191" s="48"/>
-      <c r="G191" s="48"/>
+      <c r="E191" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F191" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G191" s="48">
+        <v>45927</v>
+      </c>
       <c r="H191" s="46"/>
     </row>
     <row r="192" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4041,9 +5118,15 @@
       <c r="D192" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E192" s="46"/>
-      <c r="F192" s="48"/>
-      <c r="G192" s="48"/>
+      <c r="E192" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F192" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G192" s="48">
+        <v>45927</v>
+      </c>
       <c r="H192" s="46"/>
     </row>
     <row r="193" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4057,9 +5140,15 @@
       <c r="D193" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E193" s="46"/>
-      <c r="F193" s="48"/>
-      <c r="G193" s="48"/>
+      <c r="E193" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F193" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G193" s="48">
+        <v>45927</v>
+      </c>
       <c r="H193" s="46"/>
     </row>
     <row r="194" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4073,9 +5162,15 @@
       <c r="D194" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E194" s="46"/>
-      <c r="F194" s="48"/>
-      <c r="G194" s="48"/>
+      <c r="E194" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F194" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G194" s="48">
+        <v>45927</v>
+      </c>
       <c r="H194" s="46"/>
     </row>
     <row r="195" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4089,9 +5184,15 @@
       <c r="D195" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E195" s="46"/>
-      <c r="F195" s="48"/>
-      <c r="G195" s="48"/>
+      <c r="E195" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F195" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G195" s="48">
+        <v>45927</v>
+      </c>
       <c r="H195" s="46"/>
     </row>
     <row r="196" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4105,9 +5206,15 @@
       <c r="D196" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E196" s="46"/>
-      <c r="F196" s="48"/>
-      <c r="G196" s="48"/>
+      <c r="E196" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F196" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G196" s="48">
+        <v>45927</v>
+      </c>
       <c r="H196" s="46"/>
     </row>
     <row r="197" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4121,9 +5228,15 @@
       <c r="D197" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E197" s="46"/>
-      <c r="F197" s="48"/>
-      <c r="G197" s="48"/>
+      <c r="E197" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F197" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G197" s="48">
+        <v>45927</v>
+      </c>
       <c r="H197" s="46"/>
     </row>
     <row r="198" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4137,9 +5250,15 @@
       <c r="D198" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E198" s="46"/>
-      <c r="F198" s="48"/>
-      <c r="G198" s="48"/>
+      <c r="E198" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F198" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G198" s="48">
+        <v>45927</v>
+      </c>
       <c r="H198" s="46"/>
     </row>
     <row r="199" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4153,9 +5272,15 @@
       <c r="D199" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E199" s="46"/>
-      <c r="F199" s="48"/>
-      <c r="G199" s="48"/>
+      <c r="E199" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F199" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G199" s="48">
+        <v>45927</v>
+      </c>
       <c r="H199" s="46"/>
     </row>
     <row r="200" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4169,9 +5294,15 @@
       <c r="D200" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E200" s="46"/>
-      <c r="F200" s="48"/>
-      <c r="G200" s="48"/>
+      <c r="E200" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F200" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G200" s="48">
+        <v>45927</v>
+      </c>
       <c r="H200" s="46"/>
     </row>
     <row r="201" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4185,9 +5316,15 @@
       <c r="D201" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E201" s="46"/>
-      <c r="F201" s="48"/>
-      <c r="G201" s="48"/>
+      <c r="E201" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F201" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G201" s="48">
+        <v>45927</v>
+      </c>
       <c r="H201" s="46"/>
     </row>
     <row r="202" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4201,9 +5338,15 @@
       <c r="D202" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E202" s="46"/>
-      <c r="F202" s="48"/>
-      <c r="G202" s="48"/>
+      <c r="E202" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F202" s="48">
+        <v>44693</v>
+      </c>
+      <c r="G202" s="48">
+        <v>45927</v>
+      </c>
       <c r="H202" s="46"/>
     </row>
     <row r="203" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
